--- a/excel/limit_up_history.xlsx
+++ b/excel/limit_up_history.xlsx
@@ -29,12 +29,24 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,6 +446,17 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -481,1796 +506,1796 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>2025-04-14</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>1进2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>6.33%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>30.38%</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>63.29%</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>2025-04-14</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>2进3</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>28.57%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>28.57%</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>42.86%</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>2025-04-14</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>3进4</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>25.00%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>50.00%</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>25.00%</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>2025-04-14</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>5进6</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>2025-04-14</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>7进8</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>2025-04-15</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>1进2</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>19.57%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>30.43%</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>50.00%</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="3" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>2025-04-15</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>2进3</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>60.00%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>2025-04-15</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>3进4</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>20.00%</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>2025-04-15</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>4进5</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>50.00%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>50.00%</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>2025-04-16</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>1进2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>29.17%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>37.50%</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>2025-04-16</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>2进3</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>72.73%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>9.09%</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>18.18%</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>2025-04-16</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>3进4</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>2025-04-16</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>4进5</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="G14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>2025-04-16</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>5进6</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="G15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>2025-04-16</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>7进8</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>2025-04-16</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>8进9</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>2025-04-17</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>1进2</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>15.52%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>18.97%</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>65.52%</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="3" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>2025-04-17</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>2进3</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>22.22%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>11.11%</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>2025-04-17</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>3进4</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>30.00%</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>30.00%</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>2025-04-17</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>4进5</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>2025-04-17</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>5进6</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>2025-04-17</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>6进7</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="G23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>2025-04-17</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>9进10</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>2025-04-18</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>1进2</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>23.68%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>50.00%</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>26.32%</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>2025-04-18</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>2进3</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>2025-04-18</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>3进4</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>50.00%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>50.00%</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="G27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>2025-04-18</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>4进5</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>20.00%</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="H28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>2025-04-18</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>5进6</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>2025-04-18</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>10进11</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>1进2</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>16.18%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>39.71%</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>44.12%</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" s="3" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>2进3</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>20.00%</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>46.67%</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>3进4</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>50.00%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>25.00%</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>25.00%</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="H33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>4进5</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>5进6</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>50.00%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>50.00%</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="inlineStr">
+      <c r="B36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>6进7</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="inlineStr">
+      <c r="B37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>8进9</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>2025-04-21</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>11进12</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>2025-04-22</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>1进2</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>9.80%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>27.45%</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>62.75%</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39" s="2" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>2025-04-22</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>2进3</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>27.27%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>18.18%</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr">
         <is>
           <t>54.55%</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>2025-04-22</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>3进4</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
         <is>
           <t>60.00%</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="H41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>2025-04-22</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>4进5</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr">
         <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="G42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>2025-04-22</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>5进6</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="G43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>2025-04-22</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>6进7</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="G44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>2025-04-22</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="inlineStr">
+      <c r="B45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>8进9</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>2025-04-22</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="inlineStr">
+      <c r="B46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>9进10</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="G46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>2025-04-22</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="inlineStr">
+      <c r="B47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>12进13</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="G47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/limit_up_history.xlsx
+++ b/excel/limit_up_history.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="晋级率" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="每日热门" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29,7 +30,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -46,6 +47,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F2F2F2"/>
         <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,13 +74,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -32098,4 +32108,3684 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>股票简称</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>几天几板</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>涨停原因类别</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>覆盖热点</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>热点数量</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>关注度排名</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>关注度加分</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>原始得分</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>总得分</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>600505.SH</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>西昌电力</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>电力+光伏发电+央企+扭亏为盈</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>['电力', '央企', '光伏']</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>2.684</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>4.667</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>7.351</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>600744.SH</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>华银电力</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>电力+一季报增长+光伏+国企</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>['一季报增长', '电力', '光伏']</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>7.263</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>002251.SZ</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7天6板</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>零售+摘帽+一季报增长+年报扭亏</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>601956.SH</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>东贝集团</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>['人形机器人', '跨境电商']</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>2.833</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>3.833</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>003003.SZ</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>天元股份</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6天6板</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>跨境电商+可降解塑料+快递包装</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>2.439</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>002648.SZ</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>卫星化学</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>一季报增长+此前股价受关税影响+化工+轻烃</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>000601.SZ</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>韶能股份</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>水电+分红回购+新能源车零部件</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>1.842</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>600051.SH</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>宁波联合</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>电力+房地产+进出口贸易</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>['电力']</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>1.833</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>002095.SZ</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>生意宝</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5天3板</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>跨境电商+数据要素</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>1.333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>002251.SZ</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>6天5板</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>零售+摘帽+一季报增长+年报扭亏</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>['一季报增长', '零售']</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>5.379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>000965.SZ</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>天保基建</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>7天6板</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>房地产+大飞机+天津国企</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>['国企', '房地产']</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>4.547</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>600644.SH</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>乐山电力</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>9天7板</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>电力+光储</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>['电力']</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>4.368</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>601086.SH</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>国芳集团</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>15天13板</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>地天板+零售+参股券商+参投御道智算</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>000632.SZ</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>跨境电商+创投+福建国企</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>['跨境电商', '国企']</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>603696.SH</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>安记食品</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>8天7板</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>地天板+调味品+新零售+年报增长</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>2.842</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>002537.SZ</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>海联金汇</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>跨境支付+汽车零部件</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>2.474</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>002427.SZ</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>尤夫股份</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>6天5板</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>拒海水聚酯工业丝+化纤+陕西国资+客户巨力索具</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>2.158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>603086.SH</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>先达股份</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>一季报增长+烯草酮+农药+大豆</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>003003.SZ</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>天元股份</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>跨境电商+可降解塑料+快递包装</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>601956.SH</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>东贝集团</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>002693.SZ</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>11天6板</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>资金博弈激烈+此前拟收购宁波奥拉半导体</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>1.421</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>002196.SZ</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>方正电机</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>机器人关节+新能源驱动电机+国企</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>002564.SZ</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>天沃科技</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>10天6板</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>摘帽+高端装备+业绩增长+上海国企改革</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>002584.SZ</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>西陇科学</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>光刻胶+化学试剂+生物医药</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>1.211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>002537.SZ</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>海联金汇</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>跨境支付+汽车零部件</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>['汽车零部件', '跨境支付']</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>4.967</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>002251.SZ</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>摘帽+零售+一季报增长+年报扭亏</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>002094.SZ</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>青岛金王</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>跨境支付+中韩自贸区+蜡烛</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>['跨境支付']</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>2.684</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>4.184</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>601008.SH</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>连云港</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>14天9板</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>港口航运+国企</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>3.599</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>002427.SZ</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>尤夫股份</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>2.579</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>600790.SH</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>轻纺城</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>跨境电商+纺织面料+国企</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>['跨境电商', '国企']</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>000632.SZ</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>跨境电商+创投+福建国企</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>['跨境电商', '国企']</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>600860.SH</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>京城股份</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>天工机器人夺冠+京城机电控股股东</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>['机器人']</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>603119.SH</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>机器人+战略布局未受关税实质影响+特斯拉供应链</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>['机器人']</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>002915.SZ</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>中欣氟材</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>业绩增长+PEEK材料+氟化工</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>['业绩增长']</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>300542.SZ</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>新晨科技</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>拟收购天一恩华+跨境支付+华为</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>['跨境支付']</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>603086.SH</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>先达股份</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>一季报增长+烯草酮+农药+大豆</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>003003.SZ</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>天元股份</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>跨境电商+可降解塑料+快递包装</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>603128.SH</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>华贸物流</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>6天4板</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>跨境电商+敦煌网合作+物流+国企改革</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>['跨境电商', '国企', '物流', '国企改革']</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>6.571</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>7.677</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>600794.SH</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>保税科技</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>智慧物流+数字货币+电子商务+国企</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>['国企', '物流', '电子商务']</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>4.857</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>601086.SH</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>国芳集团</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>13天12板</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>零售+参股券商+参投御道智算+连续涨停+股价创历史新高</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>4.323</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>002094.SZ</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>青岛金王</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>年报净利增长+跨境支付+中韩自贸区+化妆品</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>['跨境支付']</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>000965.SZ</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>天保基建</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>大飞机+房地产+天津国企</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>3.699</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>002640.SZ</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>跨境通</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>跨境电商+欧美用户</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>1.421</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>3.421</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>600571.SH</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>信雅达</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>跨境支付+金融科技+AI智能体+此前因Pika大涨</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>['跨境支付']</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>3.203</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>002165.SZ</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>红宝丽</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>6天5板</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>环氧丙烷衍生品+光刻胶+出海</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>603696.SH</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>安记食品</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>6天6板</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>调味品+新零售+年报增长</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>2.955</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>002537.SZ</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>海联金汇</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>跨境支付+汽车零部件</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>['跨境支付']</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>2.782</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>002251.SZ</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>摘帽+零售+一季报增长+年报扭亏</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>2.429</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>600644.SH</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>乐山电力</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>7天6板</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>电力+光储</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>2.368</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>003003.SZ</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>天元股份</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>跨境电商+可降解塑料+快递包装</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>002095.SZ</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>生意宝</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>跨境电商+数据要素</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>601008.SH</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>连云港</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>13天8板</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>港口航运+国企</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>1.857</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>002564.SZ</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>天沃科技</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>8天5板</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>摘帽+电力设计+高端装备+上海国企</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>1.857</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>600865.SH</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>年报净利增长+零售+杭州</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>1.429</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>603697.SH</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>有友食品</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>泡凤爪+新零售+年报增长</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>1.429</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>603839.SH</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>安正时尚</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>服装+电子商务</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>['电子商务']</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3" t="n">
+        <v>1.286</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>1.286</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>603351.SH</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>威尔药业</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>['业绩增长']</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>601086.SH</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>国芳集团</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>12天11板</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>零售+参股券商+参投御道智算</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>000965.SZ</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>天保基建</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>房地产+大飞机+天津国企</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>['国企', '大飞机']</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>4.105</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>600794.SH</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>保税科技</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>智慧物流+数字货币+电子商务+国企</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>4.063</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>002251.SZ</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>摘帽+零售+胖东来帮扶+年报扭亏</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>3.558</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>000859.SZ</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>国风新材</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>光刻胶+集成电路PI材料+聚丙烯薄膜+国企</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>3.011</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>600865.SH</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>年报净利增长+零售+杭州</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>['年报净利增长', '零售']</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>605188.SH</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>国光连锁</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>6天6板</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>零售+生鲜食品+智能物流</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>2.926</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>002583.SZ</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>海能达</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>6G+对讲机终端+一带一路</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>2.895</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>600644.SH</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>乐山电力</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>6天5板</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>电力+光储</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>2.579</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>003003.SZ</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>天元股份</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>跨境电商+可降解塑料+快递包装</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>600391.SH</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>航发科技</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>航空发动机+军工+央企+年报净利增长</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>['年报净利增长']</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>603042.SH</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>华脉科技</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>年报净利增长+铜缆高速连接+数据中心+通信设备</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>['年报净利增长']</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>002153.SZ</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>石基信息</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>跨境支付+大消费行业信息管理软件+云酒店信息系统+阿里合作</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>1.421</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2" t="n">
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>603237.SH</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>五芳斋</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>食品加工制造+新零售+市场拓展</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>603696.SH</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>安记食品</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>调味品+新零售</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K73" s="2" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>002427.SZ</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>尤夫股份</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>1.316</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>001316.SZ</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>润贝航科</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>大飞机+航空材料+AI眼镜+低空经济</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>['大飞机']</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>603900.SH</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>莱绅通灵</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>黄金+珠宝首饰+IP</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>['黄金']</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/excel/limit_up_history.xlsx
+++ b/excel/limit_up_history.xlsx
@@ -30,7 +30,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,12 +47,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F2F2F2"/>
         <bgColor rgb="00F2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -74,16 +68,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -449,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P479"/>
+  <dimension ref="A1:P483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32105,6 +32096,270 @@
         <v>0</v>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="2" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B480" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C480" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D480" s="2" t="inlineStr">
+        <is>
+          <t>1进2</t>
+        </is>
+      </c>
+      <c r="E480" s="2" t="inlineStr">
+        <is>
+          <t>18.37%</t>
+        </is>
+      </c>
+      <c r="F480" s="2" t="inlineStr">
+        <is>
+          <t>36.73%</t>
+        </is>
+      </c>
+      <c r="G480" s="2" t="inlineStr">
+        <is>
+          <t>63.27%</t>
+        </is>
+      </c>
+      <c r="H480" s="2" t="inlineStr">
+        <is>
+          <t>26.92%</t>
+        </is>
+      </c>
+      <c r="I480" s="2" t="inlineStr">
+        <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+      <c r="J480" s="2" t="inlineStr">
+        <is>
+          <t>46.15%</t>
+        </is>
+      </c>
+      <c r="K480" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="L480" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="M480" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="N480" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O480" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="P480" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B481" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C481" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D481" s="2" t="inlineStr">
+        <is>
+          <t>2进3</t>
+        </is>
+      </c>
+      <c r="E481" s="2" t="inlineStr">
+        <is>
+          <t>22.22%</t>
+        </is>
+      </c>
+      <c r="F481" s="2" t="inlineStr">
+        <is>
+          <t>22.22%</t>
+        </is>
+      </c>
+      <c r="G481" s="2" t="inlineStr">
+        <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="H481" s="2" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="I481" s="2" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="J481" s="2" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="K481" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L481" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M481" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N481" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O481" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P481" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B482" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C482" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D482" s="2" t="inlineStr">
+        <is>
+          <t>3进4</t>
+        </is>
+      </c>
+      <c r="E482" s="2" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="F482" s="2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G482" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H482" s="2" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="I482" s="2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="J482" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K482" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L482" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M482" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N482" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O482" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P482" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C483" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D483" s="2" t="inlineStr">
+        <is>
+          <t>6进7</t>
+        </is>
+      </c>
+      <c r="E483" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F483" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G483" s="2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="H483" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I483" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="J483" s="2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="K483" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L483" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M483" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N483" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O483" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P483" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -32123,3665 +32378,3652 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="45" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>股票简称</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>几天几板</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>涨停原因类别</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>覆盖热点</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>热点数量</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>关注度排名</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>关注度加分</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>原始得分</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>总得分</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>600505.SH</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>西昌电力</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>电力+光伏发电+央企+扭亏为盈</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>['电力', '央企', '光伏']</t>
         </is>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" t="n">
         <v>2.684</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" t="n">
         <v>4.667</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" t="n">
         <v>7.351</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>600744.SH</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>华银电力</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>电力+一季报增长+光伏+国企</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>['一季报增长', '电力', '光伏']</t>
         </is>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" t="n">
         <v>2.263</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" t="n">
         <v>5</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" t="n">
         <v>7.263</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>7天6板</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>零售+摘帽+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2" t="n">
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>601956.SH</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>['人形机器人', '跨境电商']</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
         <v>20</v>
       </c>
-      <c r="I5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="n">
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
         <v>2.833</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" t="n">
         <v>3.833</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>6天6板</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>19</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" t="n">
         <v>1.105</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" t="n">
         <v>1.333</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" t="n">
         <v>2.439</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>002648.SZ</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>卫星化学</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>一季报增长+此前股价受关税影响+化工+轻烃</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2" t="n">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>000601.SZ</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>韶能股份</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>水电+分红回购+新能源车零部件</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>12</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" t="n">
         <v>1.842</v>
       </c>
-      <c r="J8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1.842</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>600051.SH</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>宁波联合</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>电力+房地产+进出口贸易</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>['电力']</t>
         </is>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1.833</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" t="n">
         <v>1.833</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>002095.SZ</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>生意宝</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>5天3板</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>跨境电商+数据要素</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="n">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1.333</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" t="n">
         <v>1.333</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>零售+摘帽+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>['一季报增长', '零售']</t>
         </is>
       </c>
-      <c r="G11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3" t="n">
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" t="n">
         <v>2.579</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" t="n">
         <v>2.8</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" t="n">
         <v>5.379</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>000965.SZ</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>天保基建</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>7天6板</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>房地产+大飞机+天津国企</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>['国企', '房地产']</t>
         </is>
       </c>
-      <c r="G12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3" t="n">
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
         <v>11</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" t="n">
         <v>1.947</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J12" t="n">
         <v>2.6</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" t="n">
         <v>4.547</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>600644.SH</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>9天7板</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>电力+光储</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>['电力']</t>
         </is>
       </c>
-      <c r="G13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="n">
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" t="n">
         <v>2.368</v>
       </c>
-      <c r="J13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" s="3" t="n">
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.368</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>601086.SH</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>15天13板</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>地天板+零售+参股券商+参投御道智算</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="n">
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="J14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3" t="n">
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>000632.SZ</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>三木集团</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>跨境电商+创投+福建国企</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>['跨境电商', '国企']</t>
         </is>
       </c>
-      <c r="G15" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="K15" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>603696.SH</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>安记食品</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>8天7板</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>地天板+调味品+新零售+年报增长</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="n">
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
         <v>12</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" t="n">
         <v>1.842</v>
       </c>
-      <c r="J16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3" t="n">
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.842</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>002537.SZ</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>跨境支付+汽车零部件</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="n">
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" t="n">
         <v>2.474</v>
       </c>
-      <c r="J17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.474</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>002427.SZ</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>拒海水聚酯工业丝+化纤+陕西国资+客户巨力索具</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="n">
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" t="n">
         <v>2.158</v>
       </c>
-      <c r="J18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.158</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>603086.SH</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>先达股份</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1.8</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K19" t="n">
         <v>1.8</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>5天5板</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1.6</v>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="K20" t="n">
         <v>1.6</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>601956.SH</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1.6</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="K21" t="n">
         <v>1.6</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>002693.SZ</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>双成药业</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>11天6板</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>资金博弈激烈+此前拟收购宁波奥拉半导体</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="n">
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>16</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" t="n">
         <v>1.421</v>
       </c>
-      <c r="J22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.421</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>002196.SZ</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>方正电机</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>机器人关节+新能源驱动电机+国企</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1.4</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="K23" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>002564.SZ</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>天沃科技</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>10天6板</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>摘帽+高端装备+业绩增长+上海国企改革</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1.4</v>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="K24" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>002584.SZ</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>西陇科学</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>光刻胶+化学试剂+生物医药</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="n">
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>18</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" t="n">
         <v>1.211</v>
       </c>
-      <c r="J25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1.211</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>002537.SZ</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>跨境支付+汽车零部件</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>['汽车零部件', '跨境支付']</t>
         </is>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2" t="n">
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
         <v>12</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" t="n">
         <v>1.842</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" t="n">
         <v>3.125</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="K26" t="n">
         <v>4.967</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>5天4板</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>摘帽+零售+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" s="2" t="n">
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
         <v>2.895</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" t="n">
         <v>1.375</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="K27" t="n">
         <v>4.27</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>002094.SZ</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>青岛金王</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>跨境支付+中韩自贸区+蜡烛</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="n">
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
         <v>4</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" t="n">
         <v>2.684</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="J28" t="n">
         <v>1.5</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="K28" t="n">
         <v>4.184</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>601008.SH</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>连云港</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>14天9板</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>港口航运+国企</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="n">
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
         <v>6</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" t="n">
         <v>2.474</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" t="n">
         <v>1.125</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="K29" t="n">
         <v>3.599</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>002427.SZ</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>5天4板</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="n">
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>5</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" t="n">
         <v>2.579</v>
       </c>
-      <c r="J30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.579</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>600790.SH</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>轻纺城</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>跨境电商+纺织面料+国企</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>['跨境电商', '国企']</t>
         </is>
       </c>
-      <c r="G31" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="n">
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>2.375</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="K31" t="n">
         <v>2.375</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>000632.SZ</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>三木集团</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>跨境电商+创投+福建国企</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>['跨境电商', '国企']</t>
         </is>
       </c>
-      <c r="G32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>2.375</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="K32" t="n">
         <v>2.375</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>600860.SH</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>京城股份</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>天工机器人夺冠+京城机电控股股东</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" s="2" t="n">
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>603119.SH</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>浙江荣泰</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>机器人+战略布局未受关税实质影响+特斯拉供应链</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" s="2" t="n">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>002915.SZ</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>中欣氟材</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>业绩增长+PEEK材料+氟化工</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>['业绩增长']</t>
         </is>
       </c>
-      <c r="G35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1.75</v>
       </c>
-      <c r="K35" s="2" t="n">
+      <c r="K35" t="n">
         <v>1.75</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>300542.SZ</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>新晨科技</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>拟收购天一恩华+跨境支付+华为</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="n">
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1.5</v>
       </c>
-      <c r="K36" s="2" t="n">
+      <c r="K36" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>603086.SH</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>先达股份</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="n">
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>1.375</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="K37" t="n">
         <v>1.375</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="n">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1.25</v>
       </c>
-      <c r="K38" s="2" t="n">
+      <c r="K38" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>603128.SH</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>华贸物流</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>6天4板</t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>跨境电商+敦煌网合作+物流+国企改革</t>
         </is>
       </c>
-      <c r="F39" s="3" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>['跨境电商', '国企', '物流', '国企改革']</t>
         </is>
       </c>
-      <c r="G39" s="3" t="n">
+      <c r="G39" t="n">
         <v>4</v>
       </c>
-      <c r="H39" s="3" t="n">
+      <c r="H39" t="n">
         <v>19</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" t="n">
         <v>1.105</v>
       </c>
-      <c r="J39" s="3" t="n">
+      <c r="J39" t="n">
         <v>6.571</v>
       </c>
-      <c r="K39" s="3" t="n">
+      <c r="K39" t="n">
         <v>7.677</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>600794.SH</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>保税科技</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>智慧物流+数字货币+电子商务+国企</t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>['国企', '物流', '电子商务']</t>
         </is>
       </c>
-      <c r="G40" s="3" t="n">
+      <c r="G40" t="n">
         <v>3</v>
       </c>
-      <c r="H40" s="3" t="n">
+      <c r="H40" t="n">
         <v>8</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="I40" t="n">
         <v>2.263</v>
       </c>
-      <c r="J40" s="3" t="n">
+      <c r="J40" t="n">
         <v>4.857</v>
       </c>
-      <c r="K40" s="3" t="n">
+      <c r="K40" t="n">
         <v>7.12</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>601086.SH</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>13天12板</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>零售+参股券商+参投御道智算+连续涨停+股价创历史新高</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" s="3" t="n">
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
         <v>2.895</v>
       </c>
-      <c r="J41" s="3" t="n">
+      <c r="J41" t="n">
         <v>1.429</v>
       </c>
-      <c r="K41" s="3" t="n">
+      <c r="K41" t="n">
         <v>4.323</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>002094.SZ</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>青岛金王</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>年报净利增长+跨境支付+中韩自贸区+化妆品</t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3" t="n">
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
         <v>5</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="I42" t="n">
         <v>2.579</v>
       </c>
-      <c r="J42" s="3" t="n">
+      <c r="J42" t="n">
         <v>1.571</v>
       </c>
-      <c r="K42" s="3" t="n">
+      <c r="K42" t="n">
         <v>4.15</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>000965.SZ</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>天保基建</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>5天5板</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>大飞机+房地产+天津国企</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3" t="n">
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
         <v>12</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" t="n">
         <v>1.842</v>
       </c>
-      <c r="J43" s="3" t="n">
+      <c r="J43" t="n">
         <v>1.857</v>
       </c>
-      <c r="K43" s="3" t="n">
+      <c r="K43" t="n">
         <v>3.699</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>002640.SZ</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>跨境通</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>跨境电商+欧美用户</t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3" t="n">
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
         <v>16</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I44" t="n">
         <v>1.421</v>
       </c>
-      <c r="J44" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K44" s="3" t="n">
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.421</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>600571.SH</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>信雅达</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>跨境支付+金融科技+AI智能体+此前因Pika大涨</t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3" t="n">
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
         <v>14</v>
       </c>
-      <c r="I45" s="3" t="n">
+      <c r="I45" t="n">
         <v>1.632</v>
       </c>
-      <c r="J45" s="3" t="n">
+      <c r="J45" t="n">
         <v>1.571</v>
       </c>
-      <c r="K45" s="3" t="n">
+      <c r="K45" t="n">
         <v>3.203</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>002165.SZ</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>红宝丽</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>环氧丙烷衍生品+光刻胶+出海</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3" t="n">
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
         <v>3</v>
       </c>
-      <c r="J46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>603696.SH</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>安记食品</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>6天6板</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>调味品+新零售+年报增长</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3" t="n">
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
         <v>15</v>
       </c>
-      <c r="I47" s="3" t="n">
+      <c r="I47" t="n">
         <v>1.526</v>
       </c>
-      <c r="J47" s="3" t="n">
+      <c r="J47" t="n">
         <v>1.429</v>
       </c>
-      <c r="K47" s="3" t="n">
+      <c r="K47" t="n">
         <v>2.955</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>002537.SZ</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>跨境支付+汽车零部件</t>
         </is>
       </c>
-      <c r="F48" s="3" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3" t="n">
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
         <v>18</v>
       </c>
-      <c r="I48" s="3" t="n">
+      <c r="I48" t="n">
         <v>1.211</v>
       </c>
-      <c r="J48" s="3" t="n">
+      <c r="J48" t="n">
         <v>1.571</v>
       </c>
-      <c r="K48" s="3" t="n">
+      <c r="K48" t="n">
         <v>2.782</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>4天3板</t>
         </is>
       </c>
-      <c r="E49" s="3" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>摘帽+零售+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F49" s="3" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="3" t="n">
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
         <v>20</v>
       </c>
-      <c r="I49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" s="3" t="n">
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
         <v>1.429</v>
       </c>
-      <c r="K49" s="3" t="n">
+      <c r="K49" t="n">
         <v>2.429</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>600644.SH</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>7天6板</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>电力+光储</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3" t="n">
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>7</v>
       </c>
-      <c r="I50" s="3" t="n">
+      <c r="I50" t="n">
         <v>2.368</v>
       </c>
-      <c r="J50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>2.368</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3" t="inlineStr">
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K51" s="3" t="n">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>002095.SZ</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>生意宝</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>跨境电商+数据要素</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="3" t="inlineStr">
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K52" s="3" t="n">
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>601008.SH</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>连云港</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>13天8板</t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>港口航运+国企</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G53" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" s="3" t="inlineStr">
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3" t="n">
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>1.857</v>
       </c>
-      <c r="K53" s="3" t="n">
+      <c r="K53" t="n">
         <v>1.857</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>002564.SZ</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>天沃科技</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>8天5板</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>摘帽+电力设计+高端装备+上海国企</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="3" t="inlineStr">
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3" t="n">
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>1.857</v>
       </c>
-      <c r="K54" s="3" t="n">
+      <c r="K54" t="n">
         <v>1.857</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>600865.SH</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>百大集团</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>年报净利增长+零售+杭州</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G55" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3" t="inlineStr">
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="3" t="n">
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>1.429</v>
       </c>
-      <c r="K55" s="3" t="n">
+      <c r="K55" t="n">
         <v>1.429</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>603697.SH</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>有友食品</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>泡凤爪+新零售+年报增长</t>
         </is>
       </c>
-      <c r="F56" s="3" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="3" t="inlineStr">
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3" t="n">
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>1.429</v>
       </c>
-      <c r="K56" s="3" t="n">
+      <c r="K56" t="n">
         <v>1.429</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>603839.SH</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>安正时尚</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E57" s="3" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>服装+电子商务</t>
         </is>
       </c>
-      <c r="F57" s="3" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>['电子商务']</t>
         </is>
       </c>
-      <c r="G57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" s="3" t="inlineStr">
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="n">
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>1.286</v>
       </c>
-      <c r="K57" s="3" t="n">
+      <c r="K57" t="n">
         <v>1.286</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="A58" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>603351.SH</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>威尔药业</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
         </is>
       </c>
-      <c r="F58" s="3" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>['业绩增长']</t>
         </is>
       </c>
-      <c r="G58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3" t="inlineStr">
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="n">
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>1.143</v>
       </c>
-      <c r="K58" s="3" t="n">
+      <c r="K58" t="n">
         <v>1.143</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="A59" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>601086.SH</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>12天11板</t>
         </is>
       </c>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>零售+参股券商+参投御道智算</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2" t="n">
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>3</v>
       </c>
-      <c r="J59" s="2" t="n">
+      <c r="J59" t="n">
         <v>1.4</v>
       </c>
-      <c r="K59" s="2" t="n">
+      <c r="K59" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="A60" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>000965.SZ</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>天保基建</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>房地产+大飞机+天津国企</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>['国企', '大飞机']</t>
         </is>
       </c>
-      <c r="G60" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H60" s="2" t="n">
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="n">
         <v>19</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" t="n">
         <v>1.105</v>
       </c>
-      <c r="J60" s="2" t="n">
+      <c r="J60" t="n">
         <v>3</v>
       </c>
-      <c r="K60" s="2" t="n">
+      <c r="K60" t="n">
         <v>4.105</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>600794.SH</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>保税科技</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>智慧物流+数字货币+电子商务+国企</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="n">
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
         <v>8</v>
       </c>
-      <c r="I61" s="2" t="n">
+      <c r="I61" t="n">
         <v>2.263</v>
       </c>
-      <c r="J61" s="2" t="n">
+      <c r="J61" t="n">
         <v>1.8</v>
       </c>
-      <c r="K61" s="2" t="n">
+      <c r="K61" t="n">
         <v>4.063</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="A62" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>摘帽+零售+胖东来帮扶+年报扭亏</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="n">
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
         <v>9</v>
       </c>
-      <c r="I62" s="2" t="n">
+      <c r="I62" t="n">
         <v>2.158</v>
       </c>
-      <c r="J62" s="2" t="n">
+      <c r="J62" t="n">
         <v>1.4</v>
       </c>
-      <c r="K62" s="2" t="n">
+      <c r="K62" t="n">
         <v>3.558</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>000859.SZ</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>国风新材</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>光刻胶+集成电路PI材料+聚丙烯薄膜+国企</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="n">
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
         <v>18</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" t="n">
         <v>1.211</v>
       </c>
-      <c r="J63" s="2" t="n">
+      <c r="J63" t="n">
         <v>1.8</v>
       </c>
-      <c r="K63" s="2" t="n">
+      <c r="K63" t="n">
         <v>3.011</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>600865.SH</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>百大集团</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>年报净利增长+零售+杭州</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>['年报净利增长', '零售']</t>
         </is>
       </c>
-      <c r="G64" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="n">
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>3</v>
       </c>
-      <c r="K64" s="2" t="n">
+      <c r="K64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
+      <c r="A65" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>605188.SH</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>国光连锁</t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>6天6板</t>
         </is>
       </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>零售+生鲜食品+智能物流</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="n">
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
         <v>15</v>
       </c>
-      <c r="I65" s="2" t="n">
+      <c r="I65" t="n">
         <v>1.526</v>
       </c>
-      <c r="J65" s="2" t="n">
+      <c r="J65" t="n">
         <v>1.4</v>
       </c>
-      <c r="K65" s="2" t="n">
+      <c r="K65" t="n">
         <v>2.926</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>002583.SZ</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>海能达</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>6G+对讲机终端+一带一路</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" s="2" t="n">
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="n">
         <v>2.895</v>
       </c>
-      <c r="J66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
         <v>2.895</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="A67" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>600644.SH</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E67" s="2" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>电力+光储</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2" t="n">
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
         <v>5</v>
       </c>
-      <c r="I67" s="2" t="n">
+      <c r="I67" t="n">
         <v>2.579</v>
       </c>
-      <c r="J67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
         <v>2.579</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
+      <c r="A68" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D68" s="2" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K68" s="2" t="n">
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="A69" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>600391.SH</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>航发科技</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>航空发动机+军工+央企+年报净利增长</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>['年报净利增长']</t>
         </is>
       </c>
-      <c r="G69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="n">
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>1.6</v>
       </c>
-      <c r="K69" s="2" t="n">
+      <c r="K69" t="n">
         <v>1.6</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="A70" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>603042.SH</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>华脉科技</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>年报净利增长+铜缆高速连接+数据中心+通信设备</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>['年报净利增长']</t>
         </is>
       </c>
-      <c r="G70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="n">
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>1.6</v>
       </c>
-      <c r="K70" s="2" t="n">
+      <c r="K70" t="n">
         <v>1.6</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="A71" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>002153.SZ</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>石基信息</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E71" s="2" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>跨境支付+大消费行业信息管理软件+云酒店信息系统+阿里合作</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2" t="n">
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
         <v>16</v>
       </c>
-      <c r="I71" s="2" t="n">
+      <c r="I71" t="n">
         <v>1.421</v>
       </c>
-      <c r="J71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
         <v>1.421</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>603237.SH</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>五芳斋</t>
         </is>
       </c>
-      <c r="D72" s="2" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>食品加工制造+新零售+市场拓展</t>
         </is>
       </c>
-      <c r="F72" s="2" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I72" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" s="2" t="n">
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>1.4</v>
       </c>
-      <c r="K72" s="2" t="n">
+      <c r="K72" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>603696.SH</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>安记食品</t>
         </is>
       </c>
-      <c r="D73" s="2" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>5天5板</t>
         </is>
       </c>
-      <c r="E73" s="2" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>调味品+新零售</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G73" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2" t="inlineStr">
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" s="2" t="n">
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>1.4</v>
       </c>
-      <c r="K73" s="2" t="n">
+      <c r="K73" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
+      <c r="A74" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>002427.SZ</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="D74" s="2" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E74" s="2" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2" t="n">
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
         <v>17</v>
       </c>
-      <c r="I74" s="2" t="n">
+      <c r="I74" t="n">
         <v>1.316</v>
       </c>
-      <c r="J74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
         <v>1.316</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
+      <c r="A75" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>001316.SZ</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>润贝航科</t>
         </is>
       </c>
-      <c r="D75" s="2" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>大飞机+航空材料+AI眼镜+低空经济</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>['大飞机']</t>
         </is>
       </c>
-      <c r="G75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="n">
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
         <v>1.2</v>
       </c>
-      <c r="K75" s="2" t="n">
+      <c r="K75" t="n">
         <v>1.2</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
+      <c r="A76" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>603900.SH</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>黄金+珠宝首饰+IP</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>['黄金']</t>
         </is>
       </c>
-      <c r="G76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" s="2" t="n">
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/limit_up_history.xlsx
+++ b/excel/limit_up_history.xlsx
@@ -2,40 +2,70 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="晋级率" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="每日热门" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -59,25 +89,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -442,28 +486,13 @@
   </sheetPr>
   <dimension ref="A1:P483"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
-    <col width="12" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="1" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -32371,3659 +32400,4246 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>股票简称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>几天几板</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>涨停原因类别</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>覆盖热点</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>热点数量</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>关注度排名</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>关注度加分</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>原始得分</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>总得分</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>600744.SH</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>华银电力</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>电力+一季报增长+光伏+国企</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>['一季报增长', '电力', '国企']</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>5.571</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>7.519</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>600726.SH</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>华电能源</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>绿色电力+一季报增长+央企</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>['一季报增长', '电力', '央企']</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>5.857</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>5.857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>002564.SZ</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>天沃科技</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>12天7板</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>摘帽+高端装备+业绩增长+上海国企改革</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>['业绩增长', '国企']</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>5.556</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>000565.SZ</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>渝三峡A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>涂料制造+氢能源+国企改革</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>['国企', '氢能源']</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>5.429</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>5.429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>600396.SH</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>华电辽能</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>电力+央企+一季报净利增长+海上风电</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>['电力', '央企']</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>4.857</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>4.857</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>601956.SH</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>东贝集团</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>3.489</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>002354.SZ</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>天娱数科</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>AI应用+人形机器人+营收增长</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>2.895</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>002098.SZ</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>浔兴股份</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>跨境支付+跨境电商+敦煌网+拉链</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>2.857</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>002229.SZ</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>鸿博股份</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>1.526</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>002365.SZ</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>永安药业</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>6天4板</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>牛磺酸+业绩扭亏+对美出口业务正常</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>1.316</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>603351.SH</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>威尔药业</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>7天4板</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>['业绩增长']</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.286</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1.286</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>603605.SH</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>珀莱雅</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>一季报增长+化妆品</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>600505.SH</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>西昌电力</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>电力+光伏发电+央企+扭亏为盈</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr">
         <is>
           <t>['电力', '央企', '光伏']</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G14" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H14" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I14" s="6" t="n">
         <v>2.684</v>
       </c>
-      <c r="J2" t="n">
-        <v>4.667</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.351</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="J14" s="6" t="n">
+        <v>5.667</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>8.351000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>600744.SH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>华银电力</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>电力+一季报增长+光伏+国企</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t>['一季报增长', '电力', '光伏']</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G15" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H15" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I15" s="6" t="n">
         <v>2.263</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J15" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K15" s="6" t="n">
         <v>7.263</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>601956.SH</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>东贝集团</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>['人形机器人', '跨境电商']</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>4.333</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>5.333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>7天6板</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>零售+摘帽+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F17" s="6" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="G17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>003003.SZ</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>天元股份</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>6天6板</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>跨境电商+可降解塑料+快递包装</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>3.439</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>002095.SZ</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>生意宝</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>5天3板</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>跨境电商+数据要素</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>2.333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>000601.SZ</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>韶能股份</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>水电+分红回购+新能源车零部件</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>1.842</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>600051.SH</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>宁波联合</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>电力+房地产+进出口贸易</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>['电力']</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>1.333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>002648.SZ</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>卫星化学</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>一季报增长+此前股价受关税影响+化工+轻烃</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>002251.SZ</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>6天5板</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>零售+摘帽+一季报增长+年报扭亏</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>['一季报增长', '零售']</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025年04月25日</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="I23" s="5" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>6.979</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>000965.SZ</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>天保基建</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>7天6板</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>房地产+大飞机+天津国企</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>['国企', '房地产']</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>6.747</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>601086.SH</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>国芳集团</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>15天13板</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>地天板+零售+参股券商+参投御道智算</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>603696.SH</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>安记食品</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>8天7板</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>地天板+调味品+新零售+年报增长</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>4.842</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>000632.SZ</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>跨境电商+创投+福建国企</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>['跨境电商', '国企']</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>600644.SH</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>乐山电力</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>9天7板</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>电力+光储</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>['电力']</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>3.368</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>002537.SZ</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>海联金汇</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>跨境支付+汽车零部件</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>2.474</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>002196.SZ</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>方正电机</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>机器人关节+新能源驱动电机+国企</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K30" s="5" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>002564.SZ</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>天沃科技</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>10天6板</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>摘帽+高端装备+业绩增长+上海国企改革</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K31" s="5" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>002427.SZ</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>尤夫股份</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>6天5板</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>拒海水聚酯工业丝+化纤+陕西国资+客户巨力索具</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="n">
+        <v>2.158</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>003003.SZ</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>天元股份</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>跨境电商+可降解塑料+快递包装</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K33" s="5" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>601956.SH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K34" s="5" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>002693.SZ</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>双成药业</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>11天6板</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>资金博弈激烈+此前拟收购宁波奥拉半导体</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>1.421</v>
+      </c>
+      <c r="J35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="n">
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>603086.SH</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>先达股份</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>一季报增长+烯草酮+农药+大豆</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>002584.SZ</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>西陇科学</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>光刻胶+化学试剂+生物医药</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="n">
+        <v>1.211</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>002537.SZ</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>海联金汇</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['人形机器人', '跨境电商']</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>跨境支付+汽车零部件</t>
+        </is>
+      </c>
+      <c r="F38" s="6" t="inlineStr">
+        <is>
+          <t>['汽车零部件', '跨境支付']</t>
+        </is>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I38" s="6" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J38" s="6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K38" s="6" t="n">
+        <v>5.592</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>600790.SH</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>轻纺城</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>跨境电商+纺织面料+国企</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="inlineStr">
+        <is>
+          <t>['跨境电商', '国企']</t>
+        </is>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K39" s="6" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
+        <is>
+          <t>000632.SZ</t>
+        </is>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="D40" s="6" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>跨境电商+创投+福建国企</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="inlineStr">
+        <is>
+          <t>['跨境电商', '国企']</t>
+        </is>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K40" s="6" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>601008.SH</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>连云港</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>14天9板</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>港口航运+国企</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I41" s="6" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="J41" s="6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K41" s="6" t="n">
+        <v>5.224</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>002251.SZ</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>摘帽+零售+一季报增长+年报扭亏</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="6" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K42" s="6" t="n">
+        <v>5.145</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>002094.SZ</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>青岛金王</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>跨境支付+中韩自贸区+蜡烛</t>
+        </is>
+      </c>
+      <c r="F43" s="6" t="inlineStr">
+        <is>
+          <t>['跨境支付']</t>
+        </is>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I43" s="6" t="n">
+        <v>2.684</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" s="6" t="n">
+        <v>4.684</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>002427.SZ</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>尤夫股份</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="inlineStr">
+        <is>
+          <t>5天4板</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" s="6" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6" t="n">
+        <v>2.579</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>003003.SZ</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>天元股份</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>跨境电商+可降解塑料+快递包装</t>
+        </is>
+      </c>
+      <c r="F45" s="6" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K45" s="6" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>603086.SH</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>先达股份</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>一季报增长+烯草酮+农药+大豆</t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K46" s="6" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>300542.SZ</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>新晨科技</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>拟收购天一恩华+跨境支付+华为</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="inlineStr">
+        <is>
+          <t>['跨境支付']</t>
+        </is>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>002915.SZ</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>中欣氟材</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>业绩增长+PEEK材料+氟化工</t>
+        </is>
+      </c>
+      <c r="F48" s="6" t="inlineStr">
+        <is>
+          <t>['业绩增长']</t>
+        </is>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K48" s="6" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>600860.SH</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>京城股份</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>天工机器人夺冠+京城机电控股股东</t>
+        </is>
+      </c>
+      <c r="F49" s="6" t="inlineStr">
+        <is>
+          <t>['机器人']</t>
+        </is>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>603119.SH</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>机器人+战略布局未受关税实质影响+特斯拉供应链</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t>['机器人']</t>
+        </is>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>603128.SH</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>华贸物流</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>6天4板</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>跨境电商+敦煌网合作+物流+国企改革</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>['跨境电商', '国企', '物流', '国企改革']</t>
+        </is>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="I51" s="5" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="J51" s="5" t="n">
+        <v>6.857</v>
+      </c>
+      <c r="K51" s="5" t="n">
+        <v>7.962</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>600794.SH</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>保税科技</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>智慧物流+数字货币+电子商务+国企</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>['国企', '物流', '电子商务']</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I52" s="5" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="J52" s="5" t="n">
+        <v>5.286</v>
+      </c>
+      <c r="K52" s="5" t="n">
+        <v>7.549</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>601086.SH</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>国芳集团</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
+          <t>13天12板</t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="inlineStr">
+        <is>
+          <t>零售+参股券商+参投御道智算+连续涨停+股价创历史新高</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="5" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J53" s="5" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="K53" s="5" t="n">
+        <v>5.038</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>002094.SZ</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>青岛金王</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E54" s="5" t="inlineStr">
+        <is>
+          <t>年报净利增长+跨境支付+中韩自贸区+化妆品</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>['跨境支付']</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" s="5" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J54" s="5" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="K54" s="5" t="n">
+        <v>4.436</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>603696.SH</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>安记食品</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>6天6板</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>调味品+新零售+年报增长</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="J55" s="5" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="K55" s="5" t="n">
+        <v>3.669</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>600571.SH</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>信雅达</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="inlineStr">
+        <is>
+          <t>跨境支付+金融科技+AI智能体+此前因Pika大涨</t>
+        </is>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>['跨境支付']</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="I56" s="5" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="J56" s="5" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="K56" s="5" t="n">
+        <v>3.489</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>002251.SZ</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>4天3板</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t>摘帽+零售+一季报增长+年报扭亏</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.833</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.833</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025年04月25日</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="I57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="K57" s="5" t="n">
+        <v>3.143</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>000965.SZ</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>天保基建</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="inlineStr">
+        <is>
+          <t>大飞机+房地产+天津国企</t>
+        </is>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I58" s="5" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J58" s="5" t="n">
+        <v>1.286</v>
+      </c>
+      <c r="K58" s="5" t="n">
+        <v>3.128</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>002537.SZ</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>海联金汇</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t>跨境支付+汽车零部件</t>
+        </is>
+      </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>['跨境支付']</t>
+        </is>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="I59" s="5" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="J59" s="5" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="K59" s="5" t="n">
+        <v>3.068</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>002165.SZ</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>红宝丽</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
+          <t>6天5板</t>
+        </is>
+      </c>
+      <c r="E60" s="5" t="inlineStr">
+        <is>
+          <t>环氧丙烷衍生品+光刻胶+出海</t>
+        </is>
+      </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>603351.SH</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>威尔药业</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E61" s="5" t="inlineStr">
+        <is>
+          <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
+        </is>
+      </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>['业绩增长']</t>
+        </is>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5" t="n">
+        <v>2.714</v>
+      </c>
+      <c r="K61" s="5" t="n">
+        <v>2.714</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>603839.SH</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>安正时尚</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E62" s="5" t="inlineStr">
+        <is>
+          <t>服装+电子商务</t>
+        </is>
+      </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>['电子商务']</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5" t="n">
+        <v>2.429</v>
+      </c>
+      <c r="K62" s="5" t="n">
+        <v>2.429</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>002640.SZ</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>跨境通</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E63" s="5" t="inlineStr">
+        <is>
+          <t>跨境电商+欧美用户</t>
+        </is>
+      </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="I63" s="5" t="n">
+        <v>1.421</v>
+      </c>
+      <c r="J63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5" t="n">
+        <v>2.421</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>600644.SH</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>乐山电力</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="inlineStr">
+        <is>
+          <t>7天6板</t>
+        </is>
+      </c>
+      <c r="E64" s="5" t="inlineStr">
+        <is>
+          <t>电力+光储</t>
+        </is>
+      </c>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I64" s="5" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="J64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="n">
+        <v>2.368</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>600865.SH</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E65" s="5" t="inlineStr">
+        <is>
+          <t>年报净利增长+零售+杭州</t>
+        </is>
+      </c>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="K65" s="5" t="n">
+        <v>2.143</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>603697.SH</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>有友食品</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E66" s="5" t="inlineStr">
+        <is>
+          <t>泡凤爪+新零售+年报增长</t>
+        </is>
+      </c>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="K66" s="5" t="n">
+        <v>2.143</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>601008.SH</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>连云港</t>
+        </is>
+      </c>
+      <c r="D67" s="5" t="inlineStr">
+        <is>
+          <t>13天8板</t>
+        </is>
+      </c>
+      <c r="E67" s="5" t="inlineStr">
+        <is>
+          <t>港口航运+国企</t>
+        </is>
+      </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5" t="n">
+        <v>1.286</v>
+      </c>
+      <c r="K67" s="5" t="n">
+        <v>1.286</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>002564.SZ</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>天沃科技</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="inlineStr">
+        <is>
+          <t>8天5板</t>
+        </is>
+      </c>
+      <c r="E68" s="5" t="inlineStr">
+        <is>
+          <t>摘帽+电力设计+高端装备+上海国企</t>
+        </is>
+      </c>
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5" t="n">
+        <v>1.286</v>
+      </c>
+      <c r="K68" s="5" t="n">
+        <v>1.286</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C69" s="5" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D69" s="5" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="inlineStr">
+        <is>
+          <t>跨境电商+可降解塑料+快递包装</t>
+        </is>
+      </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>002095.SZ</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>生意宝</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="inlineStr">
+        <is>
+          <t>跨境电商+数据要素</t>
+        </is>
+      </c>
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t>601086.SH</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>国芳集团</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>12天11板</t>
+        </is>
+      </c>
+      <c r="E71" s="6" t="inlineStr">
+        <is>
+          <t>零售+参股券商+参投御道智算</t>
+        </is>
+      </c>
+      <c r="F71" s="6" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G71" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" s="6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K71" s="6" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>000965.SZ</t>
+        </is>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>天保基建</t>
+        </is>
+      </c>
+      <c r="D72" s="6" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>房地产+大飞机+天津国企</t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="inlineStr">
+        <is>
+          <t>['国企', '大飞机']</t>
+        </is>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="I72" s="6" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="J72" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" s="6" t="n">
+        <v>5.105</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>002251.SZ</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>摘帽+零售+胖东来帮扶+年报扭亏</t>
+        </is>
+      </c>
+      <c r="F73" s="6" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G73" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I73" s="6" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="J73" s="6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K73" s="6" t="n">
+        <v>4.358</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
+        <is>
+          <t>600865.SH</t>
+        </is>
+      </c>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="D74" s="6" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="inlineStr">
+        <is>
+          <t>年报净利增长+零售+杭州</t>
+        </is>
+      </c>
+      <c r="F74" s="6" t="inlineStr">
+        <is>
+          <t>['年报净利增长', '零售']</t>
+        </is>
+      </c>
+      <c r="G74" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I74" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K74" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>605188.SH</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>国光连锁</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
         <is>
           <t>6天6板</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>零售+生鲜食品+智能物流</t>
+        </is>
+      </c>
+      <c r="F75" s="6" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G75" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I75" s="6" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="J75" s="6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K75" s="6" t="n">
+        <v>3.726</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
+        <is>
+          <t>600794.SH</t>
+        </is>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>保税科技</t>
+        </is>
+      </c>
+      <c r="D76" s="6" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E76" s="6" t="inlineStr">
+        <is>
+          <t>智慧物流+数字货币+电子商务+国企</t>
+        </is>
+      </c>
+      <c r="F76" s="6" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G76" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I76" s="6" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="J76" s="6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K76" s="6" t="n">
+        <v>3.663</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>603900.SH</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>莱绅通灵</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E77" s="6" t="inlineStr">
+        <is>
+          <t>黄金+珠宝首饰+IP</t>
+        </is>
+      </c>
+      <c r="F77" s="6" t="inlineStr">
+        <is>
+          <t>['黄金']</t>
+        </is>
+      </c>
+      <c r="G77" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I77" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K77" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>002583.SZ</t>
+        </is>
+      </c>
+      <c r="C78" s="6" t="inlineStr">
+        <is>
+          <t>海能达</t>
+        </is>
+      </c>
+      <c r="D78" s="6" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E78" s="6" t="inlineStr">
+        <is>
+          <t>6G+对讲机终端+一带一路</t>
+        </is>
+      </c>
+      <c r="F78" s="6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" s="6" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="6" t="n">
+        <v>2.895</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>000859.SZ</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>国风新材</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E79" s="6" t="inlineStr">
+        <is>
+          <t>光刻胶+集成电路PI材料+聚丙烯薄膜+国企</t>
+        </is>
+      </c>
+      <c r="F79" s="6" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G79" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="I79" s="6" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="J79" s="6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K79" s="6" t="n">
+        <v>2.611</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B80" s="6" t="inlineStr">
+        <is>
+          <t>001316.SZ</t>
+        </is>
+      </c>
+      <c r="C80" s="6" t="inlineStr">
+        <is>
+          <t>润贝航科</t>
+        </is>
+      </c>
+      <c r="D80" s="6" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E80" s="6" t="inlineStr">
+        <is>
+          <t>大飞机+航空材料+AI眼镜+低空经济</t>
+        </is>
+      </c>
+      <c r="F80" s="6" t="inlineStr">
+        <is>
+          <t>['大飞机']</t>
+        </is>
+      </c>
+      <c r="G80" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K80" s="6" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>600644.SH</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>乐山电力</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>6天5板</t>
+        </is>
+      </c>
+      <c r="E81" s="6" t="inlineStr">
+        <is>
+          <t>电力+光储</t>
+        </is>
+      </c>
+      <c r="F81" s="6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I81" s="6" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" s="6" t="n">
+        <v>2.579</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B82" s="6" t="inlineStr">
+        <is>
+          <t>603237.SH</t>
+        </is>
+      </c>
+      <c r="C82" s="6" t="inlineStr">
+        <is>
+          <t>五芳斋</t>
+        </is>
+      </c>
+      <c r="D82" s="6" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E82" s="6" t="inlineStr">
+        <is>
+          <t>食品加工制造+新零售+市场拓展</t>
+        </is>
+      </c>
+      <c r="F82" s="6" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G82" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I82" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K82" s="6" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>603696.SH</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>安记食品</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
+      <c r="E83" s="6" t="inlineStr">
+        <is>
+          <t>调味品+新零售</t>
+        </is>
+      </c>
+      <c r="F83" s="6" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G83" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I83" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" s="6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K83" s="6" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B84" s="6" t="inlineStr">
+        <is>
+          <t>600391.SH</t>
+        </is>
+      </c>
+      <c r="C84" s="6" t="inlineStr">
+        <is>
+          <t>航发科技</t>
+        </is>
+      </c>
+      <c r="D84" s="6" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E84" s="6" t="inlineStr">
+        <is>
+          <t>航空发动机+军工+央企+年报净利增长</t>
+        </is>
+      </c>
+      <c r="F84" s="6" t="inlineStr">
+        <is>
+          <t>['年报净利增长']</t>
+        </is>
+      </c>
+      <c r="G84" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K84" s="6" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>603042.SH</t>
+        </is>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>华脉科技</t>
+        </is>
+      </c>
+      <c r="D85" s="6" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E85" s="6" t="inlineStr">
+        <is>
+          <t>年报净利增长+铜缆高速连接+数据中心+通信设备</t>
+        </is>
+      </c>
+      <c r="F85" s="6" t="inlineStr">
+        <is>
+          <t>['年报净利增长']</t>
+        </is>
+      </c>
+      <c r="G85" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" s="6" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I85" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K85" s="6" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B86" s="6" t="inlineStr">
+        <is>
+          <t>002153.SZ</t>
+        </is>
+      </c>
+      <c r="C86" s="6" t="inlineStr">
+        <is>
+          <t>石基信息</t>
+        </is>
+      </c>
+      <c r="D86" s="6" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E86" s="6" t="inlineStr">
+        <is>
+          <t>跨境支付+大消费行业信息管理软件+云酒店信息系统+阿里合作</t>
+        </is>
+      </c>
+      <c r="F86" s="6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G86" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="I86" s="6" t="n">
+        <v>1.421</v>
+      </c>
+      <c r="J86" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" s="6" t="n">
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>002427.SZ</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>尤夫股份</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E87" s="6" t="inlineStr">
+        <is>
+          <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
+        </is>
+      </c>
+      <c r="F87" s="6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="I87" s="6" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="J87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" s="6" t="n">
+        <v>1.316</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B88" s="6" t="inlineStr">
+        <is>
+          <t>003003.SZ</t>
+        </is>
+      </c>
+      <c r="C88" s="6" t="inlineStr">
+        <is>
+          <t>天元股份</t>
+        </is>
+      </c>
+      <c r="D88" s="6" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E88" s="6" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F88" s="6" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>19</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.105</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.439</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025年04月25日</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002648.SZ</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>卫星化学</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>一季报增长+此前股价受关税影响+化工+轻烃</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['一季报增长']</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G88" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" s="6" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025年04月25日</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000601.SZ</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>韶能股份</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>水电+分红回购+新能源车零部件</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>12</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.842</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025年04月25日</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>600051.SH</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宁波联合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>电力+房地产+进出口贸易</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['电力']</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.833</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.833</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025年04月25日</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002095.SZ</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>生意宝</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5天3板</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>跨境电商+数据要素</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002251.SZ</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>步步高</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6天5板</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>零售+摘帽+一季报增长+年报扭亏</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['一季报增长', '零售']</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.579</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.379</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000965.SZ</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天保基建</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7天6板</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>房地产+大飞机+天津国企</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['国企', '房地产']</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.947</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.547</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>600644.SH</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>乐山电力</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9天7板</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>电力+光储</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['电力']</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.368</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.368</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>601086.SH</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国芳集团</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>15天13板</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>地天板+零售+参股券商+参投御道智算</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000632.SZ</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>跨境电商+创投+福建国企</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>['跨境电商', '国企']</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>603696.SH</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安记食品</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8天7板</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>地天板+调味品+新零售+年报增长</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.842</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002537.SZ</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>海联金汇</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>跨境支付+汽车零部件</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.474</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.474</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002427.SZ</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>尤夫股份</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6天5板</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>拒海水聚酯工业丝+化纤+陕西国资+客户巨力索具</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.158</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.158</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>603086.SH</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>先达股份</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>一季报增长+烯草酮+农药+大豆</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>['一季报增长']</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003003.SZ</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>天元股份</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5天5板</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>跨境电商+可降解塑料+快递包装</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>601956.SH</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东贝集团</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002693.SZ</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>双成药业</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>11天6板</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>资金博弈激烈+此前拟收购宁波奥拉半导体</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>16</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.421</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.421</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002196.SZ</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>方正电机</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>机器人关节+新能源驱动电机+国企</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>['国企']</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002564.SZ</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>天沃科技</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>10天6板</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>摘帽+高端装备+业绩增长+上海国企改革</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>['国企']</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002584.SZ</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>西陇科学</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>光刻胶+化学试剂+生物医药</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>18</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.211</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.211</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002537.SZ</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>海联金汇</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>跨境支付+汽车零部件</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>['汽车零部件', '跨境支付']</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" t="n">
-        <v>12</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.967</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002251.SZ</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>步步高</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5天4板</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>摘帽+零售+一季报增长+年报扭亏</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>['一季报增长']</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.895</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.27</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002094.SZ</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>青岛金王</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>跨境支付+中韩自贸区+蜡烛</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>['跨境支付']</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.684</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.184</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>601008.SH</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>连云港</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>14天9板</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>港口航运+国企</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>['国企']</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.474</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.599</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002427.SZ</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>尤夫股份</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5天4板</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.579</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.579</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>600790.SH</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>轻纺城</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>跨境电商+纺织面料+国企</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>['跨境电商', '国企']</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.375</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.375</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>000632.SZ</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>跨境电商+创投+福建国企</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>['跨境电商', '国企']</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.375</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.375</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>600860.SH</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>京城股份</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>天工机器人夺冠+京城机电控股股东</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>['机器人']</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>603119.SH</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>浙江荣泰</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>机器人+战略布局未受关税实质影响+特斯拉供应链</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>['机器人']</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002915.SZ</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中欣氟材</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>业绩增长+PEEK材料+氟化工</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>['业绩增长']</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>300542.SZ</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>新晨科技</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>拟收购天一恩华+跨境支付+华为</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>['跨境支付']</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>603086.SH</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>先达股份</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>一季报增长+烯草酮+农药+大豆</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>['一季报增长']</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1.375</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>003003.SZ</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>天元股份</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>跨境电商+可降解塑料+快递包装</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>603128.SH</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华贸物流</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>6天4板</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>跨境电商+敦煌网合作+物流+国企改革</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>['跨境电商', '国企', '物流', '国企改革']</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>4</v>
-      </c>
-      <c r="H39" t="n">
-        <v>19</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.105</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6.571</v>
-      </c>
-      <c r="K39" t="n">
-        <v>7.677</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>600794.SH</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>保税科技</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>智慧物流+数字货币+电子商务+国企</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>['国企', '物流', '电子商务']</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>3</v>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.263</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4.857</v>
-      </c>
-      <c r="K40" t="n">
-        <v>7.12</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>601086.SH</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>国芳集团</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>13天12板</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>零售+参股券商+参投御道智算+连续涨停+股价创历史新高</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.895</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.429</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.323</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>002094.SZ</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>青岛金王</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>年报净利增长+跨境支付+中韩自贸区+化妆品</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>['跨境支付']</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.579</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.571</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>000965.SZ</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>天保基建</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>5天5板</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>大飞机+房地产+天津国企</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>['国企']</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.857</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.699</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>002640.SZ</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>跨境通</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>跨境电商+欧美用户</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.421</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.421</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>600571.SH</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>信雅达</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>跨境支付+金融科技+AI智能体+此前因Pika大涨</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>['跨境支付']</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>14</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.632</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.571</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.203</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>002165.SZ</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>红宝丽</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>6天5板</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>环氧丙烷衍生品+光刻胶+出海</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>603696.SH</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>安记食品</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>6天6板</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>调味品+新零售+年报增长</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>15</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.526</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.429</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.955</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>002537.SZ</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>海联金汇</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>跨境支付+汽车零部件</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>['跨境支付']</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>18</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.211</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.571</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2.782</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>002251.SZ</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>步步高</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>4天3板</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>摘帽+零售+一季报增长+年报扭亏</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>20</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.429</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2.429</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>600644.SH</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>乐山电力</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>7天6板</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>电力+光储</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.368</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.368</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>003003.SZ</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>天元股份</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>跨境电商+可降解塑料+快递包装</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>002095.SZ</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>生意宝</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>跨境电商+数据要素</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>601008.SH</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>连云港</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>13天8板</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>港口航运+国企</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>['国企']</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.857</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.857</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>002564.SZ</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>天沃科技</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>8天5板</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>摘帽+电力设计+高端装备+上海国企</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>['国企']</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.857</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.857</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>600865.SH</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>百大集团</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>年报净利增长+零售+杭州</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.429</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.429</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>603697.SH</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>有友食品</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>泡凤爪+新零售+年报增长</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.429</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1.429</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>603839.SH</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>安正时尚</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>服装+电子商务</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>['电子商务']</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.286</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.286</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>603351.SH</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>威尔药业</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>['业绩增长']</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.143</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1.143</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>601086.SH</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>国芳集团</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>12天11板</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>零售+参股券商+参投御道智算</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>000965.SZ</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>天保基建</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>房地产+大飞机+天津国企</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>['国企', '大飞机']</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>2</v>
-      </c>
-      <c r="H60" t="n">
-        <v>19</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.105</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4.105</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>600794.SH</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>保税科技</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>智慧物流+数字货币+电子商务+国企</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>['国企']</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2.263</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4.063</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>002251.SZ</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>步步高</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>摘帽+零售+胖东来帮扶+年报扭亏</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>9</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2.158</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3.558</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>000859.SZ</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>国风新材</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>光刻胶+集成电路PI材料+聚丙烯薄膜+国企</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>['国企']</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>18</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.211</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3.011</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>600865.SH</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>百大集团</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>年报净利增长+零售+杭州</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>['年报净利增长', '零售']</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>2</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>605188.SH</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>国光连锁</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>6天6板</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>零售+生鲜食品+智能物流</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>15</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.526</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2.926</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>002583.SZ</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>海能达</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>6G+对讲机终端+一带一路</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2.895</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>2.895</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>600644.SH</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>乐山电力</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>6天5板</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>电力+光储</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>5</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2.579</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>2.579</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>003003.SZ</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>天元股份</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>跨境电商+可降解塑料+快递包装</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>600391.SH</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>航发科技</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>航空发动机+军工+央企+年报净利增长</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>['年报净利增长']</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>603042.SH</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>华脉科技</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>年报净利增长+铜缆高速连接+数据中心+通信设备</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>['年报净利增长']</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>002153.SZ</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>石基信息</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>跨境支付+大消费行业信息管理软件+云酒店信息系统+阿里合作</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>16</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.421</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1.421</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>603237.SH</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>五芳斋</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>食品加工制造+新零售+市场拓展</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>603696.SH</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>安记食品</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>5天5板</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>调味品+新零售</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>002427.SZ</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>尤夫股份</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.316</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1.316</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>001316.SZ</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>润贝航科</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>大飞机+航空材料+AI眼镜+低空经济</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>['大飞机']</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2025年04月21日</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>603900.SH</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>莱绅通灵</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>黄金+珠宝首饰+IP</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>['黄金']</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="n">
+      <c r="I88" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" s="6" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/limit_up_history.xlsx
+++ b/excel/limit_up_history.xlsx
@@ -2,70 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="晋级率" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="每日热门" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -79,6 +49,12 @@
         <bgColor rgb="00F2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -89,39 +65,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -484,15 +449,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P483"/>
+  <dimension ref="A1:P488"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="16"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -32387,6 +32367,336 @@
       </c>
       <c r="P483" s="2" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="3" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B484" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C484" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D484" s="3" t="inlineStr">
+        <is>
+          <t>1进2</t>
+        </is>
+      </c>
+      <c r="E484" s="3" t="inlineStr">
+        <is>
+          <t>17.39%</t>
+        </is>
+      </c>
+      <c r="F484" s="3" t="inlineStr">
+        <is>
+          <t>69.57%</t>
+        </is>
+      </c>
+      <c r="G484" s="3" t="inlineStr">
+        <is>
+          <t>30.43%</t>
+        </is>
+      </c>
+      <c r="H484" s="3" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="I484" s="3" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="J484" s="3" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="K484" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L484" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M484" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="N484" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O484" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="P484" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="3" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B485" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C485" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D485" s="3" t="inlineStr">
+        <is>
+          <t>2进3</t>
+        </is>
+      </c>
+      <c r="E485" s="3" t="inlineStr">
+        <is>
+          <t>22.22%</t>
+        </is>
+      </c>
+      <c r="F485" s="3" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="G485" s="3" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="H485" s="3" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="I485" s="3" t="inlineStr">
+        <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="J485" s="3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="K485" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L485" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M485" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N485" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O485" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P485" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="3" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B486" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C486" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D486" s="3" t="inlineStr">
+        <is>
+          <t>3进4</t>
+        </is>
+      </c>
+      <c r="E486" s="3" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="F486" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G486" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H486" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I486" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="J486" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K486" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L486" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M486" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N486" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O486" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P486" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="3" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B487" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C487" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D487" s="3" t="inlineStr">
+        <is>
+          <t>4进5</t>
+        </is>
+      </c>
+      <c r="E487" s="3" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="F487" s="3" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="G487" s="3" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="H487" s="3" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I487" s="3" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="J487" s="3" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="K487" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L487" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M487" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N487" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O487" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P487" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="3" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="B488" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C488" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D488" s="3" t="inlineStr">
+        <is>
+          <t>7进8</t>
+        </is>
+      </c>
+      <c r="E488" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F488" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G488" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H488" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I488" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="J488" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K488" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L488" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M488" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N488" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O488" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P488" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32400,7 +32710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32479,4167 +32789,4547 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>002915.SZ</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>中欣氟材</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>6天4板</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>PEEK材料+氟化工+业绩增长</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>['PEEK材料', '化工']</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>5.974</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>600828.SH</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>茂业商业</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>零售+首店经济+即时零售</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>2.789</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>2.789</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>603086.SH</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>先达股份</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7天5板</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>一季报增长+烯草酮+农药+大豆</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>['一季报增长', '农药']</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>002229.SZ</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>鸿博股份</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>2.579</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>002809.SZ</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>红墙股份</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9天6板</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>环氧丙烷+混凝土外加剂+化学制品</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>1.737</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>002365.SZ</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>永安药业</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7天5板</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>牛磺酸+对美出口业务正常</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>1.632</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>603065.SH</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>宿迁联盛</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>受阻胺光稳定剂+高分子材料防老化助剂+外销</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>['外销']</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>002196.SZ</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>方正电机</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5天3板</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>机器人关节+新能源驱动电机+国企</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>600744.SH</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>华银电力</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>电力+一季报增长+光伏+国企</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>['一季报增长', '电力', '国企']</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G10" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H10" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I10" s="3" t="n">
         <v>1.947</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J10" s="3" t="n">
         <v>5.571</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K10" s="3" t="n">
         <v>7.519</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>600726.SH</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>华电能源</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>绿色电力+一季报增长+央企</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>['一季报增长', '电力', '央企']</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="n">
+      <c r="I11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="n">
         <v>5.857</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K11" s="3" t="n">
         <v>5.857</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>002564.SZ</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>天沃科技</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>12天7板</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>摘帽+高端装备+业绩增长+上海国企改革</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>['业绩增长', '国企']</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5" t="n">
+      <c r="G12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I12" s="3" t="n">
         <v>1.842</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J12" s="3" t="n">
         <v>3.714</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K12" s="3" t="n">
         <v>5.556</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>000565.SZ</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>渝三峡A</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>涂料制造+氢能源+国企改革</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>['国企', '氢能源']</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="G13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="n">
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="n">
         <v>5.429</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K13" s="3" t="n">
         <v>5.429</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>600396.SH</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>华电辽能</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>电力+央企+一季报净利增长+海上风电</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>['电力', '央企']</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="G14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="n">
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="n">
         <v>4.857</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K14" s="3" t="n">
         <v>4.857</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>601956.SH</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="n">
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I15" s="3" t="n">
         <v>1.632</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J15" s="3" t="n">
         <v>1.857</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K15" s="3" t="n">
         <v>3.489</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>002354.SZ</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>天娱数科</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>AI应用+人形机器人+营收增长</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5" t="n">
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3" t="n">
         <v>2.895</v>
       </c>
-      <c r="J8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="n">
+      <c r="J16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>2.895</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>002098.SZ</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>浔兴股份</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>跨境支付+跨境电商+敦煌网+拉链</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="n">
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="I9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="n">
+      <c r="I17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="n">
         <v>1.857</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K17" s="3" t="n">
         <v>2.857</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>002229.SZ</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>鸿博股份</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="n">
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I18" s="3" t="n">
         <v>1.526</v>
       </c>
-      <c r="J10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5" t="n">
+      <c r="J18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <v>1.526</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>002365.SZ</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>永安药业</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>6天4板</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>牛磺酸+业绩扭亏+对美出口业务正常</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5" t="n">
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I19" s="3" t="n">
         <v>1.316</v>
       </c>
-      <c r="J11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5" t="n">
+      <c r="J19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="n">
         <v>1.316</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>603351.SH</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>威尔药业</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>7天4板</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>['业绩增长']</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="inlineStr">
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="n">
+      <c r="I20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="n">
         <v>1.286</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K20" s="3" t="n">
         <v>1.286</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>603605.SH</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>珀莱雅</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>一季报增长+化妆品</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5" t="inlineStr">
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="I21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>600505.SH</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>西昌电力</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>电力+光伏发电+央企+扭亏为盈</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>['电力', '央企', '光伏']</t>
         </is>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I22" s="2" t="n">
         <v>2.684</v>
       </c>
-      <c r="J14" s="6" t="n">
+      <c r="J22" s="2" t="n">
         <v>5.667</v>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K22" s="2" t="n">
         <v>8.351000000000001</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>600744.SH</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>华银电力</t>
         </is>
       </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E15" s="6" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>电力+一季报增长+光伏+国企</t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>['一季报增长', '电力', '光伏']</t>
         </is>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H23" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I23" s="2" t="n">
         <v>2.263</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="J23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K23" s="2" t="n">
         <v>7.263</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>601956.SH</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>['人形机器人', '跨境电商']</t>
         </is>
       </c>
-      <c r="G16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6" t="n">
+      <c r="G24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6" t="n">
+      <c r="I24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="n">
         <v>4.333</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K24" s="2" t="n">
         <v>5.333</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>7天6板</t>
         </is>
       </c>
-      <c r="E17" s="6" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>零售+摘帽+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6" t="n">
+      <c r="G25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="J17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6" t="n">
+      <c r="J25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>6天6板</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6" t="n">
+      <c r="G26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I26" s="2" t="n">
         <v>1.105</v>
       </c>
-      <c r="J18" s="6" t="n">
+      <c r="J26" s="2" t="n">
         <v>2.333</v>
       </c>
-      <c r="K18" s="6" t="n">
+      <c r="K26" s="2" t="n">
         <v>3.439</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>002095.SZ</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>生意宝</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>5天3板</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>跨境电商+数据要素</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="G27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6" t="n">
+      <c r="I27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="n">
         <v>2.333</v>
       </c>
-      <c r="K19" s="6" t="n">
+      <c r="K27" s="2" t="n">
         <v>2.333</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>000601.SZ</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>韶能股份</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>水电+分红回购+新能源车零部件</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="n">
+      <c r="G28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I28" s="2" t="n">
         <v>1.842</v>
       </c>
-      <c r="J20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6" t="n">
+      <c r="J28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="n">
         <v>1.842</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>600051.SH</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>宁波联合</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>电力+房地产+进出口贸易</t>
         </is>
       </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr">
         <is>
           <t>['电力']</t>
         </is>
       </c>
-      <c r="G21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6" t="inlineStr">
+      <c r="G29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="n">
+      <c r="I29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="n">
         <v>1.333</v>
       </c>
-      <c r="K21" s="6" t="n">
+      <c r="K29" s="2" t="n">
         <v>1.333</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>002648.SZ</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>卫星化学</t>
         </is>
       </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>一季报增长+此前股价受关税影响+化工+轻烃</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G22" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6" t="inlineStr">
+      <c r="G30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="I30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D23" s="5" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>零售+摘帽+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>['一季报增长', '零售']</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="5" t="n">
+      <c r="G31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I31" s="3" t="n">
         <v>2.579</v>
       </c>
-      <c r="J23" s="5" t="n">
+      <c r="J31" s="3" t="n">
         <v>4.4</v>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="K31" s="3" t="n">
         <v>6.979</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>000965.SZ</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>天保基建</t>
         </is>
       </c>
-      <c r="D24" s="5" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>7天6板</t>
         </is>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>房地产+大飞机+天津国企</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>['国企', '房地产']</t>
         </is>
       </c>
-      <c r="G24" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="5" t="n">
+      <c r="G32" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I32" s="3" t="n">
         <v>1.947</v>
       </c>
-      <c r="J24" s="5" t="n">
+      <c r="J32" s="3" t="n">
         <v>4.8</v>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="K32" s="3" t="n">
         <v>6.747</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>601086.SH</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
       </c>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>15天13板</t>
         </is>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>地天板+零售+参股券商+参投御道智算</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="5" t="n">
+      <c r="G33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J25" s="5" t="n">
+      <c r="J33" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="K33" s="3" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>603696.SH</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>安记食品</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>8天7板</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>地天板+调味品+新零售+年报增长</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5" t="n">
+      <c r="G34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I34" s="3" t="n">
         <v>1.842</v>
       </c>
-      <c r="J26" s="5" t="n">
+      <c r="J34" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="K34" s="3" t="n">
         <v>4.842</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>000632.SZ</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>三木集团</t>
         </is>
       </c>
-      <c r="D27" s="5" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>跨境电商+创投+福建国企</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="F35" s="3" t="inlineStr">
         <is>
           <t>['跨境电商', '国企']</t>
         </is>
       </c>
-      <c r="G27" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" s="5" t="inlineStr">
+      <c r="G35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5" t="n">
+      <c r="I35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="K35" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>600644.SH</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>9天7板</t>
         </is>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>电力+光储</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>['电力']</t>
         </is>
       </c>
-      <c r="G28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5" t="n">
+      <c r="G36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I36" s="3" t="n">
         <v>2.368</v>
       </c>
-      <c r="J28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5" t="n">
+      <c r="J36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3" t="n">
         <v>3.368</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>002537.SZ</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="D29" s="5" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t>跨境支付+汽车零部件</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="F37" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5" t="n">
+      <c r="G37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I37" s="3" t="n">
         <v>2.474</v>
       </c>
-      <c r="J29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5" t="n">
+      <c r="J37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3" t="n">
         <v>2.474</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>002196.SZ</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>方正电机</t>
         </is>
       </c>
-      <c r="D30" s="5" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>机器人关节+新能源驱动电机+国企</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
+      <c r="G38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5" t="n">
+      <c r="I38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="n">
         <v>2.2</v>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="K38" s="3" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>002564.SZ</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>天沃科技</t>
         </is>
       </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>10天6板</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>摘帽+高端装备+业绩增长+上海国企改革</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5" t="inlineStr">
+      <c r="G39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5" t="n">
+      <c r="I39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="n">
         <v>2.2</v>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="K39" s="3" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>002427.SZ</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="D32" s="5" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>拒海水聚酯工业丝+化纤+陕西国资+客户巨力索具</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5" t="n">
+      <c r="G40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="I32" s="5" t="n">
+      <c r="I40" s="3" t="n">
         <v>2.158</v>
       </c>
-      <c r="J32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5" t="n">
+      <c r="J40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3" t="n">
         <v>2.158</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>5天5板</t>
         </is>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5" t="inlineStr">
+      <c r="G41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5" t="n">
+      <c r="I41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="n">
         <v>1.8</v>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="K41" s="3" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>601956.SH</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
       </c>
-      <c r="D34" s="5" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr">
         <is>
           <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="F42" s="3" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5" t="inlineStr">
+      <c r="G42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5" t="n">
+      <c r="I42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="n">
         <v>1.8</v>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="K42" s="3" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>002693.SZ</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>双成药业</t>
         </is>
       </c>
-      <c r="D35" s="5" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>11天6板</t>
         </is>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t>资金博弈激烈+此前拟收购宁波奥拉半导体</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5" t="n">
+      <c r="G43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="I35" s="5" t="n">
+      <c r="I43" s="3" t="n">
         <v>1.421</v>
       </c>
-      <c r="J35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="5" t="n">
+      <c r="J43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="n">
         <v>1.421</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>603086.SH</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>先达股份</t>
         </is>
       </c>
-      <c r="D36" s="5" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5" t="inlineStr">
+      <c r="G44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="5" t="n">
+      <c r="I44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="n">
         <v>1.4</v>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="K44" s="3" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>002584.SZ</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>西陇科学</t>
         </is>
       </c>
-      <c r="D37" s="5" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>光刻胶+化学试剂+生物医药</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="F45" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5" t="n">
+      <c r="G45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="I37" s="5" t="n">
+      <c r="I45" s="3" t="n">
         <v>1.211</v>
       </c>
-      <c r="J37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5" t="n">
+      <c r="J45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="n">
         <v>1.211</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="6" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B38" s="6" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>002537.SZ</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="D38" s="6" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E38" s="6" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>跨境支付+汽车零部件</t>
         </is>
       </c>
-      <c r="F38" s="6" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>['汽车零部件', '跨境支付']</t>
         </is>
       </c>
-      <c r="G38" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H38" s="6" t="n">
+      <c r="G46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="I38" s="6" t="n">
+      <c r="I46" s="2" t="n">
         <v>1.842</v>
       </c>
-      <c r="J38" s="6" t="n">
+      <c r="J46" s="2" t="n">
         <v>3.75</v>
       </c>
-      <c r="K38" s="6" t="n">
+      <c r="K46" s="2" t="n">
         <v>5.592</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="6" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>600790.SH</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>轻纺城</t>
         </is>
       </c>
-      <c r="D39" s="6" t="inlineStr">
+      <c r="D47" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E39" s="6" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr">
         <is>
           <t>跨境电商+纺织面料+国企</t>
         </is>
       </c>
-      <c r="F39" s="6" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr">
         <is>
           <t>['跨境电商', '国企']</t>
         </is>
       </c>
-      <c r="G39" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" s="6" t="inlineStr">
+      <c r="G47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6" t="n">
+      <c r="I47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="n">
         <v>5.25</v>
       </c>
-      <c r="K39" s="6" t="n">
+      <c r="K47" s="2" t="n">
         <v>5.25</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="6" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>000632.SZ</t>
         </is>
       </c>
-      <c r="C40" s="6" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>三木集团</t>
         </is>
       </c>
-      <c r="D40" s="6" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E40" s="6" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>跨境电商+创投+福建国企</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>['跨境电商', '国企']</t>
         </is>
       </c>
-      <c r="G40" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H40" s="6" t="inlineStr">
+      <c r="G48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I40" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="6" t="n">
+      <c r="I48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="n">
         <v>5.25</v>
       </c>
-      <c r="K40" s="6" t="n">
+      <c r="K48" s="2" t="n">
         <v>5.25</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="6" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B41" s="6" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>601008.SH</t>
         </is>
       </c>
-      <c r="C41" s="6" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>连云港</t>
         </is>
       </c>
-      <c r="D41" s="6" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>14天9板</t>
         </is>
       </c>
-      <c r="E41" s="6" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>港口航运+国企</t>
         </is>
       </c>
-      <c r="F41" s="6" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G41" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="6" t="n">
+      <c r="G49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I41" s="6" t="n">
+      <c r="I49" s="2" t="n">
         <v>2.474</v>
       </c>
-      <c r="J41" s="6" t="n">
+      <c r="J49" s="2" t="n">
         <v>2.75</v>
       </c>
-      <c r="K41" s="6" t="n">
+      <c r="K49" s="2" t="n">
         <v>5.224</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C42" s="6" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D42" s="6" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>5天4板</t>
         </is>
       </c>
-      <c r="E42" s="6" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>摘帽+零售+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G42" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" s="6" t="n">
+      <c r="G50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2" t="n">
         <v>2.895</v>
       </c>
-      <c r="J42" s="6" t="n">
+      <c r="J50" s="2" t="n">
         <v>2.25</v>
       </c>
-      <c r="K42" s="6" t="n">
+      <c r="K50" s="2" t="n">
         <v>5.145</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="6" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B43" s="6" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>002094.SZ</t>
         </is>
       </c>
-      <c r="C43" s="6" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>青岛金王</t>
         </is>
       </c>
-      <c r="D43" s="6" t="inlineStr">
+      <c r="D51" s="2" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E43" s="6" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>跨境支付+中韩自贸区+蜡烛</t>
         </is>
       </c>
-      <c r="F43" s="6" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G43" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="6" t="n">
+      <c r="G51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I43" s="6" t="n">
+      <c r="I51" s="2" t="n">
         <v>2.684</v>
       </c>
-      <c r="J43" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K43" s="6" t="n">
+      <c r="J51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" s="2" t="n">
         <v>4.684</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="6" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B44" s="6" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>002427.SZ</t>
         </is>
       </c>
-      <c r="C44" s="6" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="D44" s="6" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr">
         <is>
           <t>5天4板</t>
         </is>
       </c>
-      <c r="E44" s="6" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
         </is>
       </c>
-      <c r="F44" s="6" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G44" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6" t="n">
+      <c r="G52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I44" s="6" t="n">
+      <c r="I52" s="2" t="n">
         <v>2.579</v>
       </c>
-      <c r="J44" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="6" t="n">
+      <c r="J52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>2.579</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="6" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B45" s="6" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C45" s="6" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D45" s="6" t="inlineStr">
+      <c r="D53" s="2" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E45" s="6" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F45" s="6" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G45" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="6" t="inlineStr">
+      <c r="G53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I45" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="6" t="n">
+      <c r="I53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="K45" s="6" t="n">
+      <c r="K53" s="2" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="6" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B46" s="6" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>603086.SH</t>
         </is>
       </c>
-      <c r="C46" s="6" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>先达股份</t>
         </is>
       </c>
-      <c r="D46" s="6" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E46" s="6" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
-      <c r="F46" s="6" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G46" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="6" t="inlineStr">
+      <c r="G54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I46" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="6" t="n">
+      <c r="I54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="n">
         <v>2.25</v>
       </c>
-      <c r="K46" s="6" t="n">
+      <c r="K54" s="2" t="n">
         <v>2.25</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="6" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B47" s="6" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>300542.SZ</t>
         </is>
       </c>
-      <c r="C47" s="6" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>新晨科技</t>
         </is>
       </c>
-      <c r="D47" s="6" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E47" s="6" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>拟收购天一恩华+跨境支付+华为</t>
         </is>
       </c>
-      <c r="F47" s="6" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G47" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="6" t="inlineStr">
+      <c r="G55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I47" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K47" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="inlineStr">
+      <c r="I55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B48" s="6" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>002915.SZ</t>
         </is>
       </c>
-      <c r="C48" s="6" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>中欣氟材</t>
         </is>
       </c>
-      <c r="D48" s="6" t="inlineStr">
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E48" s="6" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>业绩增长+PEEK材料+氟化工</t>
         </is>
       </c>
-      <c r="F48" s="6" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>['业绩增长']</t>
         </is>
       </c>
-      <c r="G48" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="6" t="inlineStr">
+      <c r="G56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I48" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6" t="n">
+      <c r="I56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="K48" s="6" t="n">
+      <c r="K56" s="2" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="6" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>600860.SH</t>
         </is>
       </c>
-      <c r="C49" s="6" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>京城股份</t>
         </is>
       </c>
-      <c r="D49" s="6" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E49" s="6" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>天工机器人夺冠+京城机电控股股东</t>
         </is>
       </c>
-      <c r="F49" s="6" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G49" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="6" t="inlineStr">
+      <c r="G57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I49" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="inlineStr">
+      <c r="I57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B50" s="6" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>603119.SH</t>
         </is>
       </c>
-      <c r="C50" s="6" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>浙江荣泰</t>
         </is>
       </c>
-      <c r="D50" s="6" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E50" s="6" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>机器人+战略布局未受关税实质影响+特斯拉供应链</t>
         </is>
       </c>
-      <c r="F50" s="6" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G50" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="6" t="inlineStr">
+      <c r="G58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I50" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="inlineStr">
+      <c r="I58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>603128.SH</t>
         </is>
       </c>
-      <c r="C51" s="5" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>华贸物流</t>
         </is>
       </c>
-      <c r="D51" s="5" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>6天4板</t>
         </is>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr">
         <is>
           <t>跨境电商+敦煌网合作+物流+国企改革</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
+      <c r="F59" s="3" t="inlineStr">
         <is>
           <t>['跨境电商', '国企', '物流', '国企改革']</t>
         </is>
       </c>
-      <c r="G51" s="5" t="n">
+      <c r="G59" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H51" s="5" t="n">
+      <c r="H59" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="I51" s="5" t="n">
+      <c r="I59" s="3" t="n">
         <v>1.105</v>
       </c>
-      <c r="J51" s="5" t="n">
+      <c r="J59" s="3" t="n">
         <v>6.857</v>
       </c>
-      <c r="K51" s="5" t="n">
+      <c r="K59" s="3" t="n">
         <v>7.962</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="5" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>600794.SH</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>保税科技</t>
         </is>
       </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t>智慧物流+数字货币+电子商务+国企</t>
         </is>
       </c>
-      <c r="F52" s="5" t="inlineStr">
+      <c r="F60" s="3" t="inlineStr">
         <is>
           <t>['国企', '物流', '电子商务']</t>
         </is>
       </c>
-      <c r="G52" s="5" t="n">
+      <c r="G60" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H52" s="5" t="n">
+      <c r="H60" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="I52" s="5" t="n">
+      <c r="I60" s="3" t="n">
         <v>2.263</v>
       </c>
-      <c r="J52" s="5" t="n">
+      <c r="J60" s="3" t="n">
         <v>5.286</v>
       </c>
-      <c r="K52" s="5" t="n">
+      <c r="K60" s="3" t="n">
         <v>7.549</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="5" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>601086.SH</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
       </c>
-      <c r="D53" s="5" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>13天12板</t>
         </is>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>零售+参股券商+参投御道智算+连续涨停+股价创历史新高</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr">
+      <c r="F61" s="3" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G53" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" s="5" t="n">
+      <c r="G61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" s="3" t="n">
         <v>2.895</v>
       </c>
-      <c r="J53" s="5" t="n">
+      <c r="J61" s="3" t="n">
         <v>2.143</v>
       </c>
-      <c r="K53" s="5" t="n">
+      <c r="K61" s="3" t="n">
         <v>5.038</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="5" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="B62" s="3" t="inlineStr">
         <is>
           <t>002094.SZ</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>青岛金王</t>
         </is>
       </c>
-      <c r="D54" s="5" t="inlineStr">
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="E62" s="3" t="inlineStr">
         <is>
           <t>年报净利增长+跨境支付+中韩自贸区+化妆品</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr">
+      <c r="F62" s="3" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G54" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="5" t="n">
+      <c r="G62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I54" s="5" t="n">
+      <c r="I62" s="3" t="n">
         <v>2.579</v>
       </c>
-      <c r="J54" s="5" t="n">
+      <c r="J62" s="3" t="n">
         <v>1.857</v>
       </c>
-      <c r="K54" s="5" t="n">
+      <c r="K62" s="3" t="n">
         <v>4.436</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B63" s="3" t="inlineStr">
         <is>
           <t>603696.SH</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>安记食品</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>6天6板</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="E63" s="3" t="inlineStr">
         <is>
           <t>调味品+新零售+年报增长</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="F63" s="3" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G55" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="5" t="n">
+      <c r="G63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="I55" s="5" t="n">
+      <c r="I63" s="3" t="n">
         <v>1.526</v>
       </c>
-      <c r="J55" s="5" t="n">
+      <c r="J63" s="3" t="n">
         <v>2.143</v>
       </c>
-      <c r="K55" s="5" t="n">
+      <c r="K63" s="3" t="n">
         <v>3.669</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>600571.SH</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>信雅达</t>
         </is>
       </c>
-      <c r="D56" s="5" t="inlineStr">
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="E64" s="3" t="inlineStr">
         <is>
           <t>跨境支付+金融科技+AI智能体+此前因Pika大涨</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
+      <c r="F64" s="3" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G56" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="5" t="n">
+      <c r="G64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="I56" s="5" t="n">
+      <c r="I64" s="3" t="n">
         <v>1.632</v>
       </c>
-      <c r="J56" s="5" t="n">
+      <c r="J64" s="3" t="n">
         <v>1.857</v>
       </c>
-      <c r="K56" s="5" t="n">
+      <c r="K64" s="3" t="n">
         <v>3.489</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="B65" s="3" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="C65" s="3" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D57" s="5" t="inlineStr">
+      <c r="D65" s="3" t="inlineStr">
         <is>
           <t>4天3板</t>
         </is>
       </c>
-      <c r="E57" s="5" t="inlineStr">
+      <c r="E65" s="3" t="inlineStr">
         <is>
           <t>摘帽+零售+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F57" s="5" t="inlineStr">
+      <c r="F65" s="3" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G57" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" s="5" t="n">
+      <c r="G65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="I57" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" s="5" t="n">
+      <c r="I65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3" t="n">
         <v>2.143</v>
       </c>
-      <c r="K57" s="5" t="n">
+      <c r="K65" s="3" t="n">
         <v>3.143</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="5" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="B66" s="3" t="inlineStr">
         <is>
           <t>000965.SZ</t>
         </is>
       </c>
-      <c r="C58" s="5" t="inlineStr">
+      <c r="C66" s="3" t="inlineStr">
         <is>
           <t>天保基建</t>
         </is>
       </c>
-      <c r="D58" s="5" t="inlineStr">
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>5天5板</t>
         </is>
       </c>
-      <c r="E58" s="5" t="inlineStr">
+      <c r="E66" s="3" t="inlineStr">
         <is>
           <t>大飞机+房地产+天津国企</t>
         </is>
       </c>
-      <c r="F58" s="5" t="inlineStr">
+      <c r="F66" s="3" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G58" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="5" t="n">
+      <c r="G66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="I58" s="5" t="n">
+      <c r="I66" s="3" t="n">
         <v>1.842</v>
       </c>
-      <c r="J58" s="5" t="n">
+      <c r="J66" s="3" t="n">
         <v>1.286</v>
       </c>
-      <c r="K58" s="5" t="n">
+      <c r="K66" s="3" t="n">
         <v>3.128</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="5" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="B67" s="3" t="inlineStr">
         <is>
           <t>002537.SZ</t>
         </is>
       </c>
-      <c r="C59" s="5" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="D59" s="5" t="inlineStr">
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E59" s="5" t="inlineStr">
+      <c r="E67" s="3" t="inlineStr">
         <is>
           <t>跨境支付+汽车零部件</t>
         </is>
       </c>
-      <c r="F59" s="5" t="inlineStr">
+      <c r="F67" s="3" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G59" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="5" t="n">
+      <c r="G67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="I59" s="5" t="n">
+      <c r="I67" s="3" t="n">
         <v>1.211</v>
       </c>
-      <c r="J59" s="5" t="n">
+      <c r="J67" s="3" t="n">
         <v>1.857</v>
       </c>
-      <c r="K59" s="5" t="n">
+      <c r="K67" s="3" t="n">
         <v>3.068</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="5" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="B68" s="3" t="inlineStr">
         <is>
           <t>002165.SZ</t>
         </is>
       </c>
-      <c r="C60" s="5" t="inlineStr">
+      <c r="C68" s="3" t="inlineStr">
         <is>
           <t>红宝丽</t>
         </is>
       </c>
-      <c r="D60" s="5" t="inlineStr">
+      <c r="D68" s="3" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="E68" s="3" t="inlineStr">
         <is>
           <t>环氧丙烷衍生品+光刻胶+出海</t>
         </is>
       </c>
-      <c r="F60" s="5" t="inlineStr">
+      <c r="F68" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" s="5" t="n">
+      <c r="G68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" s="5" t="n">
+      <c r="J68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="5" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="B69" s="3" t="inlineStr">
         <is>
           <t>603351.SH</t>
         </is>
       </c>
-      <c r="C61" s="5" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
         <is>
           <t>威尔药业</t>
         </is>
       </c>
-      <c r="D61" s="5" t="inlineStr">
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="E69" s="3" t="inlineStr">
         <is>
           <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr">
+      <c r="F69" s="3" t="inlineStr">
         <is>
           <t>['业绩增长']</t>
         </is>
       </c>
-      <c r="G61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="5" t="inlineStr">
+      <c r="G69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" s="5" t="n">
+      <c r="I69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3" t="n">
         <v>2.714</v>
       </c>
-      <c r="K61" s="5" t="n">
+      <c r="K69" s="3" t="n">
         <v>2.714</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="5" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B62" s="5" t="inlineStr">
+      <c r="B70" s="3" t="inlineStr">
         <is>
           <t>603839.SH</t>
         </is>
       </c>
-      <c r="C62" s="5" t="inlineStr">
+      <c r="C70" s="3" t="inlineStr">
         <is>
           <t>安正时尚</t>
         </is>
       </c>
-      <c r="D62" s="5" t="inlineStr">
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E62" s="5" t="inlineStr">
+      <c r="E70" s="3" t="inlineStr">
         <is>
           <t>服装+电子商务</t>
         </is>
       </c>
-      <c r="F62" s="5" t="inlineStr">
+      <c r="F70" s="3" t="inlineStr">
         <is>
           <t>['电子商务']</t>
         </is>
       </c>
-      <c r="G62" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="5" t="inlineStr">
+      <c r="G70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" s="5" t="n">
+      <c r="I70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3" t="n">
         <v>2.429</v>
       </c>
-      <c r="K62" s="5" t="n">
+      <c r="K70" s="3" t="n">
         <v>2.429</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="5" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="B71" s="3" t="inlineStr">
         <is>
           <t>002640.SZ</t>
         </is>
       </c>
-      <c r="C63" s="5" t="inlineStr">
+      <c r="C71" s="3" t="inlineStr">
         <is>
           <t>跨境通</t>
         </is>
       </c>
-      <c r="D63" s="5" t="inlineStr">
+      <c r="D71" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E63" s="5" t="inlineStr">
+      <c r="E71" s="3" t="inlineStr">
         <is>
           <t>跨境电商+欧美用户</t>
         </is>
       </c>
-      <c r="F63" s="5" t="inlineStr">
+      <c r="F71" s="3" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G63" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" s="5" t="n">
+      <c r="G71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="I63" s="5" t="n">
+      <c r="I71" s="3" t="n">
         <v>1.421</v>
       </c>
-      <c r="J63" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" s="5" t="n">
+      <c r="J71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3" t="n">
         <v>2.421</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="5" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B64" s="5" t="inlineStr">
+      <c r="B72" s="3" t="inlineStr">
         <is>
           <t>600644.SH</t>
         </is>
       </c>
-      <c r="C64" s="5" t="inlineStr">
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="D64" s="5" t="inlineStr">
+      <c r="D72" s="3" t="inlineStr">
         <is>
           <t>7天6板</t>
         </is>
       </c>
-      <c r="E64" s="5" t="inlineStr">
+      <c r="E72" s="3" t="inlineStr">
         <is>
           <t>电力+光储</t>
         </is>
       </c>
-      <c r="F64" s="5" t="inlineStr">
+      <c r="F72" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="5" t="n">
+      <c r="G72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I64" s="5" t="n">
+      <c r="I72" s="3" t="n">
         <v>2.368</v>
       </c>
-      <c r="J64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" s="5" t="n">
+      <c r="J72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3" t="n">
         <v>2.368</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="5" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B65" s="5" t="inlineStr">
+      <c r="B73" s="3" t="inlineStr">
         <is>
           <t>600865.SH</t>
         </is>
       </c>
-      <c r="C65" s="5" t="inlineStr">
+      <c r="C73" s="3" t="inlineStr">
         <is>
           <t>百大集团</t>
         </is>
       </c>
-      <c r="D65" s="5" t="inlineStr">
+      <c r="D73" s="3" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E65" s="5" t="inlineStr">
+      <c r="E73" s="3" t="inlineStr">
         <is>
           <t>年报净利增长+零售+杭州</t>
         </is>
       </c>
-      <c r="F65" s="5" t="inlineStr">
+      <c r="F73" s="3" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G65" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" s="5" t="inlineStr">
+      <c r="G73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" s="5" t="n">
+      <c r="I73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3" t="n">
         <v>2.143</v>
       </c>
-      <c r="K65" s="5" t="n">
+      <c r="K73" s="3" t="n">
         <v>2.143</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="5" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B66" s="5" t="inlineStr">
+      <c r="B74" s="3" t="inlineStr">
         <is>
           <t>603697.SH</t>
         </is>
       </c>
-      <c r="C66" s="5" t="inlineStr">
+      <c r="C74" s="3" t="inlineStr">
         <is>
           <t>有友食品</t>
         </is>
       </c>
-      <c r="D66" s="5" t="inlineStr">
+      <c r="D74" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E66" s="5" t="inlineStr">
+      <c r="E74" s="3" t="inlineStr">
         <is>
           <t>泡凤爪+新零售+年报增长</t>
         </is>
       </c>
-      <c r="F66" s="5" t="inlineStr">
+      <c r="F74" s="3" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G66" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" s="5" t="inlineStr">
+      <c r="G74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="5" t="n">
+      <c r="I74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3" t="n">
         <v>2.143</v>
       </c>
-      <c r="K66" s="5" t="n">
+      <c r="K74" s="3" t="n">
         <v>2.143</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="5" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B67" s="5" t="inlineStr">
+      <c r="B75" s="3" t="inlineStr">
         <is>
           <t>601008.SH</t>
         </is>
       </c>
-      <c r="C67" s="5" t="inlineStr">
+      <c r="C75" s="3" t="inlineStr">
         <is>
           <t>连云港</t>
         </is>
       </c>
-      <c r="D67" s="5" t="inlineStr">
+      <c r="D75" s="3" t="inlineStr">
         <is>
           <t>13天8板</t>
         </is>
       </c>
-      <c r="E67" s="5" t="inlineStr">
+      <c r="E75" s="3" t="inlineStr">
         <is>
           <t>港口航运+国企</t>
         </is>
       </c>
-      <c r="F67" s="5" t="inlineStr">
+      <c r="F75" s="3" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G67" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" s="5" t="inlineStr">
+      <c r="G75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" s="5" t="n">
+      <c r="I75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3" t="n">
         <v>1.286</v>
       </c>
-      <c r="K67" s="5" t="n">
+      <c r="K75" s="3" t="n">
         <v>1.286</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="5" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="B76" s="3" t="inlineStr">
         <is>
           <t>002564.SZ</t>
         </is>
       </c>
-      <c r="C68" s="5" t="inlineStr">
+      <c r="C76" s="3" t="inlineStr">
         <is>
           <t>天沃科技</t>
         </is>
       </c>
-      <c r="D68" s="5" t="inlineStr">
+      <c r="D76" s="3" t="inlineStr">
         <is>
           <t>8天5板</t>
         </is>
       </c>
-      <c r="E68" s="5" t="inlineStr">
+      <c r="E76" s="3" t="inlineStr">
         <is>
           <t>摘帽+电力设计+高端装备+上海国企</t>
         </is>
       </c>
-      <c r="F68" s="5" t="inlineStr">
+      <c r="F76" s="3" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G68" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" s="5" t="inlineStr">
+      <c r="G76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" s="5" t="n">
+      <c r="I76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3" t="n">
         <v>1.286</v>
       </c>
-      <c r="K68" s="5" t="n">
+      <c r="K76" s="3" t="n">
         <v>1.286</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="5" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B69" s="5" t="inlineStr">
+      <c r="B77" s="3" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C69" s="5" t="inlineStr">
+      <c r="C77" s="3" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D69" s="5" t="inlineStr">
+      <c r="D77" s="3" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E69" s="5" t="inlineStr">
+      <c r="E77" s="3" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F69" s="5" t="inlineStr">
+      <c r="F77" s="3" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G69" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" s="5" t="inlineStr">
+      <c r="G77" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I69" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="inlineStr">
+      <c r="I77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B70" s="5" t="inlineStr">
+      <c r="B78" s="3" t="inlineStr">
         <is>
           <t>002095.SZ</t>
         </is>
       </c>
-      <c r="C70" s="5" t="inlineStr">
+      <c r="C78" s="3" t="inlineStr">
         <is>
           <t>生意宝</t>
         </is>
       </c>
-      <c r="D70" s="5" t="inlineStr">
+      <c r="D78" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E70" s="5" t="inlineStr">
+      <c r="E78" s="3" t="inlineStr">
         <is>
           <t>跨境电商+数据要素</t>
         </is>
       </c>
-      <c r="F70" s="5" t="inlineStr">
+      <c r="F78" s="3" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G70" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" s="5" t="inlineStr">
+      <c r="G78" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I70" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="6" t="inlineStr">
+      <c r="I78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B71" s="6" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>601086.SH</t>
         </is>
       </c>
-      <c r="C71" s="6" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
       </c>
-      <c r="D71" s="6" t="inlineStr">
+      <c r="D79" s="2" t="inlineStr">
         <is>
           <t>12天11板</t>
         </is>
       </c>
-      <c r="E71" s="6" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>零售+参股券商+参投御道智算</t>
         </is>
       </c>
-      <c r="F71" s="6" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G71" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" s="6" t="n">
+      <c r="G79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="J71" s="6" t="n">
+      <c r="J79" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="K71" s="6" t="n">
+      <c r="K79" s="2" t="n">
         <v>5.2</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="6" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B72" s="6" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>000965.SZ</t>
         </is>
       </c>
-      <c r="C72" s="6" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>天保基建</t>
         </is>
       </c>
-      <c r="D72" s="6" t="inlineStr">
+      <c r="D80" s="2" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E72" s="6" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>房地产+大飞机+天津国企</t>
         </is>
       </c>
-      <c r="F72" s="6" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>['国企', '大飞机']</t>
         </is>
       </c>
-      <c r="G72" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H72" s="6" t="n">
+      <c r="G80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="I72" s="6" t="n">
+      <c r="I80" s="2" t="n">
         <v>1.105</v>
       </c>
-      <c r="J72" s="6" t="n">
+      <c r="J80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="K72" s="6" t="n">
+      <c r="K80" s="2" t="n">
         <v>5.105</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="6" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B73" s="6" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C73" s="6" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D73" s="6" t="inlineStr">
+      <c r="D81" s="2" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E73" s="6" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>摘帽+零售+胖东来帮扶+年报扭亏</t>
         </is>
       </c>
-      <c r="F73" s="6" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G73" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" s="6" t="n">
+      <c r="G81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="I73" s="6" t="n">
+      <c r="I81" s="2" t="n">
         <v>2.158</v>
       </c>
-      <c r="J73" s="6" t="n">
+      <c r="J81" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="K73" s="6" t="n">
+      <c r="K81" s="2" t="n">
         <v>4.358</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="6" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B74" s="6" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>600865.SH</t>
         </is>
       </c>
-      <c r="C74" s="6" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>百大集团</t>
         </is>
       </c>
-      <c r="D74" s="6" t="inlineStr">
+      <c r="D82" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E74" s="6" t="inlineStr">
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>年报净利增长+零售+杭州</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr">
         <is>
           <t>['年报净利增长', '零售']</t>
         </is>
       </c>
-      <c r="G74" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H74" s="6" t="inlineStr">
+      <c r="G82" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I74" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" s="6" t="n">
+      <c r="I82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="K74" s="6" t="n">
+      <c r="K82" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="6" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B75" s="6" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>605188.SH</t>
         </is>
       </c>
-      <c r="C75" s="6" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>国光连锁</t>
         </is>
       </c>
-      <c r="D75" s="6" t="inlineStr">
+      <c r="D83" s="2" t="inlineStr">
         <is>
           <t>6天6板</t>
         </is>
       </c>
-      <c r="E75" s="6" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>零售+生鲜食品+智能物流</t>
         </is>
       </c>
-      <c r="F75" s="6" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G75" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" s="6" t="n">
+      <c r="G83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="I75" s="6" t="n">
+      <c r="I83" s="2" t="n">
         <v>1.526</v>
       </c>
-      <c r="J75" s="6" t="n">
+      <c r="J83" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="K75" s="6" t="n">
+      <c r="K83" s="2" t="n">
         <v>3.726</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="6" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B76" s="6" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>600794.SH</t>
         </is>
       </c>
-      <c r="C76" s="6" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>保税科技</t>
         </is>
       </c>
-      <c r="D76" s="6" t="inlineStr">
+      <c r="D84" s="2" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E76" s="6" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
         <is>
           <t>智慧物流+数字货币+电子商务+国企</t>
         </is>
       </c>
-      <c r="F76" s="6" t="inlineStr">
+      <c r="F84" s="2" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G76" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" s="6" t="n">
+      <c r="G84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="I76" s="6" t="n">
+      <c r="I84" s="2" t="n">
         <v>2.263</v>
       </c>
-      <c r="J76" s="6" t="n">
+      <c r="J84" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="K76" s="6" t="n">
+      <c r="K84" s="2" t="n">
         <v>3.663</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="6" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B77" s="6" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>603900.SH</t>
         </is>
       </c>
-      <c r="C77" s="6" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="D77" s="6" t="inlineStr">
+      <c r="D85" s="2" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E77" s="6" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
         <is>
           <t>黄金+珠宝首饰+IP</t>
         </is>
       </c>
-      <c r="F77" s="6" t="inlineStr">
+      <c r="F85" s="2" t="inlineStr">
         <is>
           <t>['黄金']</t>
         </is>
       </c>
-      <c r="G77" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" s="6" t="inlineStr">
+      <c r="G85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I77" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" s="6" t="n">
+      <c r="I85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="K77" s="6" t="n">
+      <c r="K85" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="6" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B78" s="6" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>002583.SZ</t>
         </is>
       </c>
-      <c r="C78" s="6" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>海能达</t>
         </is>
       </c>
-      <c r="D78" s="6" t="inlineStr">
+      <c r="D86" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E78" s="6" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>6G+对讲机终端+一带一路</t>
         </is>
       </c>
-      <c r="F78" s="6" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G78" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" s="6" t="n">
+      <c r="G86" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" s="2" t="n">
         <v>2.895</v>
       </c>
-      <c r="J78" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" s="6" t="n">
+      <c r="J86" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2" t="n">
         <v>2.895</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="6" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B79" s="6" t="inlineStr">
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>000859.SZ</t>
         </is>
       </c>
-      <c r="C79" s="6" t="inlineStr">
+      <c r="C87" s="2" t="inlineStr">
         <is>
           <t>国风新材</t>
         </is>
       </c>
-      <c r="D79" s="6" t="inlineStr">
+      <c r="D87" s="2" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E79" s="6" t="inlineStr">
+      <c r="E87" s="2" t="inlineStr">
         <is>
           <t>光刻胶+集成电路PI材料+聚丙烯薄膜+国企</t>
         </is>
       </c>
-      <c r="F79" s="6" t="inlineStr">
+      <c r="F87" s="2" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G79" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" s="6" t="n">
+      <c r="G87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="I79" s="6" t="n">
+      <c r="I87" s="2" t="n">
         <v>1.211</v>
       </c>
-      <c r="J79" s="6" t="n">
+      <c r="J87" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="K79" s="6" t="n">
+      <c r="K87" s="2" t="n">
         <v>2.611</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="6" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B80" s="6" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>001316.SZ</t>
         </is>
       </c>
-      <c r="C80" s="6" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>润贝航科</t>
         </is>
       </c>
-      <c r="D80" s="6" t="inlineStr">
+      <c r="D88" s="2" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E80" s="6" t="inlineStr">
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>大飞机+航空材料+AI眼镜+低空经济</t>
         </is>
       </c>
-      <c r="F80" s="6" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>['大飞机']</t>
         </is>
       </c>
-      <c r="G80" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" s="6" t="inlineStr">
+      <c r="G88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I80" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" s="6" t="n">
+      <c r="I88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="K80" s="6" t="n">
+      <c r="K88" s="2" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="6" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B81" s="6" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>600644.SH</t>
         </is>
       </c>
-      <c r="C81" s="6" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="D81" s="6" t="inlineStr">
+      <c r="D89" s="2" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E81" s="6" t="inlineStr">
+      <c r="E89" s="2" t="inlineStr">
         <is>
           <t>电力+光储</t>
         </is>
       </c>
-      <c r="F81" s="6" t="inlineStr">
+      <c r="F89" s="2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G81" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" s="6" t="n">
+      <c r="G89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I81" s="6" t="n">
+      <c r="I89" s="2" t="n">
         <v>2.579</v>
       </c>
-      <c r="J81" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" s="6" t="n">
+      <c r="J89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2" t="n">
         <v>2.579</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="6" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B82" s="6" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>603237.SH</t>
         </is>
       </c>
-      <c r="C82" s="6" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>五芳斋</t>
         </is>
       </c>
-      <c r="D82" s="6" t="inlineStr">
+      <c r="D90" s="2" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E82" s="6" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>食品加工制造+新零售+市场拓展</t>
         </is>
       </c>
-      <c r="F82" s="6" t="inlineStr">
+      <c r="F90" s="2" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G82" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" s="6" t="inlineStr">
+      <c r="G90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I82" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="6" t="n">
+      <c r="I90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="K82" s="6" t="n">
+      <c r="K90" s="2" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="6" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B83" s="6" t="inlineStr">
+      <c r="B91" s="2" t="inlineStr">
         <is>
           <t>603696.SH</t>
         </is>
       </c>
-      <c r="C83" s="6" t="inlineStr">
+      <c r="C91" s="2" t="inlineStr">
         <is>
           <t>安记食品</t>
         </is>
       </c>
-      <c r="D83" s="6" t="inlineStr">
+      <c r="D91" s="2" t="inlineStr">
         <is>
           <t>5天5板</t>
         </is>
       </c>
-      <c r="E83" s="6" t="inlineStr">
+      <c r="E91" s="2" t="inlineStr">
         <is>
           <t>调味品+新零售</t>
         </is>
       </c>
-      <c r="F83" s="6" t="inlineStr">
+      <c r="F91" s="2" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G83" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" s="6" t="inlineStr">
+      <c r="G91" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I83" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" s="6" t="n">
+      <c r="I91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="K83" s="6" t="n">
+      <c r="K91" s="2" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="6" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B84" s="6" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>600391.SH</t>
         </is>
       </c>
-      <c r="C84" s="6" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>航发科技</t>
         </is>
       </c>
-      <c r="D84" s="6" t="inlineStr">
+      <c r="D92" s="2" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E84" s="6" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>航空发动机+军工+央企+年报净利增长</t>
         </is>
       </c>
-      <c r="F84" s="6" t="inlineStr">
+      <c r="F92" s="2" t="inlineStr">
         <is>
           <t>['年报净利增长']</t>
         </is>
       </c>
-      <c r="G84" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" s="6" t="inlineStr">
+      <c r="G92" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I84" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" s="6" t="n">
+      <c r="I92" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="K84" s="6" t="n">
+      <c r="K92" s="2" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="6" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B85" s="6" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>603042.SH</t>
         </is>
       </c>
-      <c r="C85" s="6" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>华脉科技</t>
         </is>
       </c>
-      <c r="D85" s="6" t="inlineStr">
+      <c r="D93" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E85" s="6" t="inlineStr">
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>年报净利增长+铜缆高速连接+数据中心+通信设备</t>
         </is>
       </c>
-      <c r="F85" s="6" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
         <is>
           <t>['年报净利增长']</t>
         </is>
       </c>
-      <c r="G85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" s="6" t="inlineStr">
+      <c r="G93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I85" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" s="6" t="n">
+      <c r="I93" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="K85" s="6" t="n">
+      <c r="K93" s="2" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="6" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B86" s="6" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>002153.SZ</t>
         </is>
       </c>
-      <c r="C86" s="6" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>石基信息</t>
         </is>
       </c>
-      <c r="D86" s="6" t="inlineStr">
+      <c r="D94" s="2" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E86" s="6" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>跨境支付+大消费行业信息管理软件+云酒店信息系统+阿里合作</t>
         </is>
       </c>
-      <c r="F86" s="6" t="inlineStr">
+      <c r="F94" s="2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G86" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" s="6" t="n">
+      <c r="G94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="I86" s="6" t="n">
+      <c r="I94" s="2" t="n">
         <v>1.421</v>
       </c>
-      <c r="J86" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" s="6" t="n">
+      <c r="J94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2" t="n">
         <v>1.421</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="6" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B87" s="6" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>002427.SZ</t>
         </is>
       </c>
-      <c r="C87" s="6" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="D87" s="6" t="inlineStr">
+      <c r="D95" s="2" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E87" s="6" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
         </is>
       </c>
-      <c r="F87" s="6" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G87" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" s="6" t="n">
+      <c r="G95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="I87" s="6" t="n">
+      <c r="I95" s="2" t="n">
         <v>1.316</v>
       </c>
-      <c r="J87" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" s="6" t="n">
+      <c r="J95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2" t="n">
         <v>1.316</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="6" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B88" s="6" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C88" s="6" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D88" s="6" t="inlineStr">
+      <c r="D96" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E88" s="6" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F88" s="6" t="inlineStr">
+      <c r="F96" s="2" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G88" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" s="6" t="inlineStr">
+      <c r="G96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" s="6" t="n">
+      <c r="I96" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/limit_up_history.xlsx
+++ b/excel/limit_up_history.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P488"/>
+  <dimension ref="A1:P494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32699,6 +32699,402 @@
         <v>0</v>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" s="2" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="C489" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D489" s="2" t="inlineStr">
+        <is>
+          <t>1进2</t>
+        </is>
+      </c>
+      <c r="E489" s="2" t="inlineStr">
+        <is>
+          <t>13.64%</t>
+        </is>
+      </c>
+      <c r="F489" s="2" t="inlineStr">
+        <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="G489" s="2" t="inlineStr">
+        <is>
+          <t>45.45%</t>
+        </is>
+      </c>
+      <c r="H489" s="2" t="inlineStr">
+        <is>
+          <t>19.35%</t>
+        </is>
+      </c>
+      <c r="I489" s="2" t="inlineStr">
+        <is>
+          <t>67.74%</t>
+        </is>
+      </c>
+      <c r="J489" s="2" t="inlineStr">
+        <is>
+          <t>32.26%</t>
+        </is>
+      </c>
+      <c r="K489" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L489" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="M489" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="N489" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O489" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="P489" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B490" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C490" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D490" s="2" t="inlineStr">
+        <is>
+          <t>2进3</t>
+        </is>
+      </c>
+      <c r="E490" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M490" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N490" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O490" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P490" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B491" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C491" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D491" s="2" t="inlineStr">
+        <is>
+          <t>3进4</t>
+        </is>
+      </c>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L491" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M491" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N491" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O491" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P491" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B492" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C492" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D492" s="2" t="inlineStr">
+        <is>
+          <t>4进5</t>
+        </is>
+      </c>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L492" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M492" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N492" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O492" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P492" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C493" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D493" s="2" t="inlineStr">
+        <is>
+          <t>5进6</t>
+        </is>
+      </c>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M493" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N493" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O493" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P493" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C494" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D494" s="2" t="inlineStr">
+        <is>
+          <t>6进7</t>
+        </is>
+      </c>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M494" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N494" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O494" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P494" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -32710,7 +33106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32791,111 +33187,113 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>002915.SZ</t>
+          <t>002229.SZ</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>中欣氟材</t>
+          <t>鸿博股份</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>6天4板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>PEEK材料+氟化工+业绩增长</t>
+          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>['PEEK材料', '化工']</t>
+          <t>['算力']</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>2.474</v>
+        <v>2.684</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>5.974</v>
+        <v>5.284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>600828.SH</t>
+          <t>603040.SH</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>茂业商业</t>
+          <t>新坐标</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>零售+首店经济+即时零售</t>
+          <t>一季报增长+滚珠丝杠+汽车零部件+外销</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['一季报增长', '汽车零部件']</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2.789</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>2.789</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>603086.SH</t>
+          <t>002915.SZ</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>先达股份</t>
+          <t>中欣氟材</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -32905,103 +33303,103 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>一季报增长+烯草酮+农药+大豆</t>
+          <t>PEEK材料+氟化工+业绩增长</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>['一季报增长', '农药']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>2.474</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>2.75</v>
+        <v>2.474</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>002229.SZ</t>
+          <t>603922.SH</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>鸿博股份</t>
+          <t>金鸿顺</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
+          <t>汽车零部件+模具+拟并购新思考电机</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['汽车零部件']</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>2.579</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>2.579</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>002809.SZ</t>
+          <t>000565.SZ</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>红墙股份</t>
+          <t>渝三峡A</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9天6板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>环氧丙烷+混凝土外加剂+化学制品</t>
+          <t>涂料制造+氢能源+国企改革</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -33013,241 +33411,243 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1.737</v>
+        <v>1.632</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.737</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>002365.SZ</t>
+          <t>603586.SH</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>永安药业</t>
+          <t>金麒麟</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7天5板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>牛磺酸+对美出口业务正常</t>
+          <t>一季报增长+汽车制动零部件+海外市场拓展</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1.632</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
+          <t>2025年04月30日</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>002164.SZ</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>宁波东力</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>一季报增长+机器人关节+齿轮箱+电机</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
           <t>2025年04月29日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>603065.SH</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>宿迁联盛</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>受阻胺光稳定剂+高分子材料防老化助剂+外销</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>['外销']</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>2025年04月29日</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>002196.SZ</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>方正电机</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5天3板</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>机器人关节+新能源驱动电机+国企</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>1</v>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>002915.SZ</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>中欣氟材</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>6天4板</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>PEEK材料+氟化工+业绩增长</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>['PEEK材料', '化工']</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>5.974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>600744.SH</t>
+          <t>600828.SH</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>华银电力</t>
+          <t>茂业商业</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>电力+一季报增长+光伏+国企</t>
+          <t>零售+首店经济+即时零售</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>['一季报增长', '电力', '国企']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="3" t="n">
-        <v>11</v>
-      </c>
       <c r="I10" s="3" t="n">
-        <v>1.947</v>
+        <v>2.789</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>5.571</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>7.519</v>
+        <v>2.789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>600726.SH</t>
+          <t>603086.SH</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>华电能源</t>
+          <t>先达股份</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>7天5板</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>绿色电力+一季报增长+央企</t>
+          <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>['一季报增长', '电力', '央企']</t>
+          <t>['一季报增长', '农药']</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
@@ -33258,551 +33658,551 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>5.857</v>
+        <v>2.75</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>5.857</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>002564.SZ</t>
+          <t>002229.SZ</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>天沃科技</t>
+          <t>鸿博股份</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>12天7板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>摘帽+高端装备+业绩增长+上海国企改革</t>
+          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>['业绩增长', '国企']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>1.842</v>
+        <v>2.579</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>3.714</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>5.556</v>
+        <v>2.579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>000565.SZ</t>
+          <t>002809.SZ</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>渝三峡A</t>
+          <t>红墙股份</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>9天6板</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>涂料制造+氢能源+国企改革</t>
+          <t>环氧丙烷+混凝土外加剂+化学制品</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>['国企', '氢能源']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>13</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0</v>
+        <v>1.737</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>5.429</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>5.429</v>
+        <v>1.737</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>600396.SH</t>
+          <t>002365.SZ</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>华电辽能</t>
+          <t>永安药业</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>7天5板</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>电力+央企+一季报净利增长+海上风电</t>
+          <t>牛磺酸+对美出口业务正常</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>['电力', '央企']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G14" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>14</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0</v>
+        <v>1.632</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>4.857</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>4.857</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>601956.SH</t>
+          <t>603065.SH</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>东贝集团</t>
+          <t>宿迁联盛</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
+          <t>受阻胺光稳定剂+高分子材料防老化助剂+外销</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>['跨境电商']</t>
+          <t>['外销']</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="n">
-        <v>14</v>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>1.632</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>1.857</v>
+        <v>1.25</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>3.489</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
+          <t>2025年04月29日</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>002196.SZ</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>方正电机</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>5天3板</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>机器人关节+新能源驱动电机+国企</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>002354.SZ</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>天娱数科</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>600744.SH</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>华银电力</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>电力+一季报增长+光伏+国企</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>['一季报增长', '电力', '国企']</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>5.571</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>7.519</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>600726.SH</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>华电能源</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>AI应用+人形机器人+营收增长</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>2.895</v>
-      </c>
-      <c r="J16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3" t="n">
-        <v>2.895</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>绿色电力+一季报增长+央企</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>['一季报增长', '电力', '央企']</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>5.857</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>5.857</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>002098.SZ</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>浔兴股份</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>跨境支付+跨境电商+敦煌网+拉链</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>1.857</v>
-      </c>
-      <c r="K17" s="3" t="n">
-        <v>2.857</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>002564.SZ</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>天沃科技</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12天7板</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>摘帽+高端装备+业绩增长+上海国企改革</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>['业绩增长', '国企']</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>5.556</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>002229.SZ</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>鸿博股份</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>000565.SZ</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>渝三峡A</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>1.526</v>
-      </c>
-      <c r="J18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="n">
-        <v>1.526</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>涂料制造+氢能源+国企改革</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>['国企', '氢能源']</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>5.429</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>5.429</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>002365.SZ</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>永安药业</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>6天4板</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>牛磺酸+业绩扭亏+对美出口业务正常</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>1.316</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>1.316</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月28日</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>603351.SH</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>威尔药业</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>7天4板</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>['业绩增长']</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>600396.SH</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>华电辽能</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>电力+央企+一季报净利增长+海上风电</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>['电力', '央企']</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <v>1.286</v>
-      </c>
-      <c r="K20" s="3" t="n">
-        <v>1.286</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月28日</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>603605.SH</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>珀莱雅</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>一季报增长+化妆品</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>['一季报增长']</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3" t="n">
-        <v>1</v>
+      <c r="I21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>4.857</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>4.857</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>600505.SH</t>
+          <t>601956.SH</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>西昌电力</t>
+          <t>东贝集团</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>电力+光伏发电+央企+扭亏为盈</t>
+          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>['电力', '央企', '光伏']</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>2.684</v>
+        <v>1.632</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>5.667</v>
+        <v>1.857</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>8.351000000000001</v>
+        <v>3.489</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>600744.SH</t>
+          <t>002354.SZ</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>华银电力</t>
+          <t>天娱数科</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -33812,63 +34212,63 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>电力+一季报增长+光伏+国企</t>
+          <t>AI应用+人形机器人+营收增长</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>['一季报增长', '电力', '光伏']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>2.263</v>
+        <v>2.895</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>7.263</v>
+        <v>2.895</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>601956.SH</t>
+          <t>002098.SZ</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>东贝集团</t>
+          <t>浔兴股份</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
+          <t>跨境支付+跨境电商+敦煌网+拉链</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>['人形机器人', '跨境电商']</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>20</v>
@@ -33877,135 +34277,135 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>4.333</v>
+        <v>1.857</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>5.333</v>
+        <v>2.857</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>002251.SZ</t>
+          <t>002229.SZ</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>鸿博股份</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>7天6板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>零售+摘帽+一季报增长+年报扭亏</t>
+          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>3</v>
+        <v>1.526</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>4</v>
+        <v>1.526</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>003003.SZ</t>
+          <t>002365.SZ</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>天元股份</t>
+          <t>永安药业</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6天6板</t>
+          <t>6天4板</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>跨境电商+可降解塑料+快递包装</t>
+          <t>牛磺酸+业绩扭亏+对美出口业务正常</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>['跨境电商']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>1.105</v>
+        <v>1.316</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>2.333</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>3.439</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>002095.SZ</t>
+          <t>603351.SH</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>生意宝</t>
+          <t>威尔药业</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5天3板</t>
+          <t>7天4板</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>跨境电商+数据要素</t>
+          <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>['跨境电商']</t>
+          <t>['业绩增长']</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
@@ -34020,218 +34420,216 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>2.333</v>
+        <v>1.286</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>2.333</v>
+        <v>1.286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
+          <t>2025年04月28日</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>603605.SH</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>珀莱雅</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>一季报增长+化妆品</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>000601.SZ</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>韶能股份</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>600505.SH</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>西昌电力</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>水电+分红回购+新能源车零部件</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>1.842</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>电力+光伏发电+央企+扭亏为盈</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>['电力', '央企', '光伏']</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>2.684</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>5.667</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>8.351000000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>600051.SH</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>宁波联合</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>600744.SH</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>华银电力</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>电力+房地产+进出口贸易</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>['电力']</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>1.333</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>2025年04月25日</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>002648.SZ</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>卫星化学</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>一季报增长+此前股价受关税影响+化工+轻烃</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>['一季报增长']</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>1</v>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>电力+一季报增长+光伏+国企</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>['一季报增长', '电力', '光伏']</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>7.263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>002251.SZ</t>
+          <t>601956.SH</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>东贝集团</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>6天5板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>零售+摘帽+一季报增长+年报扭亏</t>
+          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>['一季报增长', '零售']</t>
+          <t>['人形机器人', '跨境电商']</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
         <v>2</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>2.579</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>4.4</v>
+        <v>4.333</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>6.979</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>000965.SZ</t>
+          <t>002251.SZ</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>天保基建</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -34241,197 +34639,197 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>房地产+大飞机+天津国企</t>
+          <t>零售+摘帽+一季报增长+年报扭亏</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>['国企', '房地产']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G32" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>1.947</v>
+        <v>3</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>6.747</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>601086.SH</t>
+          <t>003003.SZ</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>国芳集团</t>
+          <t>天元股份</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>15天13板</t>
+          <t>6天6板</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>地天板+零售+参股券商+参投御道智算</t>
+          <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G33" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>3</v>
+        <v>1.105</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>3</v>
+        <v>2.333</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>6</v>
+        <v>3.439</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>603696.SH</t>
+          <t>002095.SZ</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>安记食品</t>
+          <t>生意宝</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>8天7板</t>
+          <t>5天3板</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>地天板+调味品+新零售+年报增长</t>
+          <t>跨境电商+数据要素</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H34" s="3" t="n">
-        <v>12</v>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I34" s="3" t="n">
-        <v>1.842</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>3</v>
+        <v>2.333</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>4.842</v>
+        <v>2.333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>000632.SZ</t>
+          <t>000601.SZ</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>三木集团</t>
+          <t>韶能股份</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>跨境电商+创投+福建国企</t>
+          <t>水电+分红回购+新能源车零部件</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>['跨境电商', '国企']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G35" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>12</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0</v>
+        <v>1.842</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>4</v>
+        <v>1.842</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>600644.SH</t>
+          <t>600051.SH</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>乐山电力</t>
+          <t>宁波联合</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>9天7板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>电力+光储</t>
+          <t>电力+房地产+进出口贸易</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
@@ -34442,581 +34840,579 @@
       <c r="G36" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H36" s="3" t="n">
-        <v>7</v>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I36" s="3" t="n">
-        <v>2.368</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3" t="n">
-        <v>1</v>
+        <v>1.333</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>3.368</v>
+        <v>1.333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
+          <t>2025年04月25日</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>002648.SZ</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>卫星化学</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>一季报增长+此前股价受关税影响+化工+轻烃</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>002251.SZ</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>6天5板</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>零售+摘帽+一季报增长+年报扭亏</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>['一季报增长', '零售']</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>6.979</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>000965.SZ</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>天保基建</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>7天6板</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>房地产+大飞机+天津国企</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>['国企', '房地产']</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>6.747</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>601086.SH</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>国芳集团</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>15天13板</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>地天板+零售+参股券商+参投御道智算</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>603696.SH</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>安记食品</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>8天7板</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>地天板+调味品+新零售+年报增长</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>4.842</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>000632.SZ</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>跨境电商+创投+福建国企</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>['跨境电商', '国企']</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>600644.SH</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>乐山电力</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>9天7板</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>电力+光储</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>['电力']</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>3.368</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>002537.SZ</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>跨境支付+汽车零部件</t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3" t="n">
+      <c r="G44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="I44" s="2" t="n">
         <v>2.474</v>
       </c>
-      <c r="J37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3" t="n">
+      <c r="J44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="n">
         <v>2.474</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>002196.SZ</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>方正电机</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>机器人关节+新能源驱动电机+国企</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3" t="inlineStr">
+      <c r="G45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="n">
+      <c r="I45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="K38" s="3" t="n">
+      <c r="K45" s="2" t="n">
         <v>2.2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>002564.SZ</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>天沃科技</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>10天6板</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>摘帽+高端装备+业绩增长+上海国企改革</t>
-        </is>
-      </c>
-      <c r="F39" s="3" t="inlineStr">
-        <is>
-          <t>['国企']</t>
-        </is>
-      </c>
-      <c r="G39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>002427.SZ</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>尤夫股份</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>6天5板</t>
-        </is>
-      </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>拒海水聚酯工业丝+化纤+陕西国资+客户巨力索具</t>
-        </is>
-      </c>
-      <c r="F40" s="3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="I40" s="3" t="n">
-        <v>2.158</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3" t="n">
-        <v>2.158</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>003003.SZ</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>天元股份</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>5天5板</t>
-        </is>
-      </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>跨境电商+可降解塑料+快递包装</t>
-        </is>
-      </c>
-      <c r="F41" s="3" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>601956.SH</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>东贝集团</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
-        </is>
-      </c>
-      <c r="F42" s="3" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K42" s="3" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>002693.SZ</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>双成药业</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>11天6板</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t>资金博弈激烈+此前拟收购宁波奥拉半导体</t>
-        </is>
-      </c>
-      <c r="F43" s="3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="I43" s="3" t="n">
-        <v>1.421</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="n">
-        <v>1.421</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>603086.SH</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>先达股份</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>一季报增长+烯草酮+农药+大豆</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>['一季报增长']</t>
-        </is>
-      </c>
-      <c r="G44" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K44" s="3" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月24日</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>002584.SZ</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>西陇科学</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>光刻胶+化学试剂+生物医药</t>
-        </is>
-      </c>
-      <c r="F45" s="3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="I45" s="3" t="n">
-        <v>1.211</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="n">
-        <v>1.211</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>002537.SZ</t>
+          <t>002564.SZ</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>海联金汇</t>
+          <t>天沃科技</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>10天6板</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>跨境支付+汽车零部件</t>
+          <t>摘帽+高端装备+业绩增长+上海国企改革</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>['汽车零部件', '跨境支付']</t>
+          <t>['国企']</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I46" s="2" t="n">
-        <v>1.842</v>
+        <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>5.592</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>600790.SH</t>
+          <t>002427.SZ</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>轻纺城</t>
+          <t>尤夫股份</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>6天5板</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>跨境电商+纺织面料+国企</t>
+          <t>拒海水聚酯工业丝+化纤+陕西国资+客户巨力索具</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>['跨境电商', '国企']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>9</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
+        <v>2.158</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>5.25</v>
+        <v>2.158</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>000632.SZ</t>
+          <t>003003.SZ</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>三木集团</t>
+          <t>天元股份</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>5天5板</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>跨境电商+创投+福建国企</t>
+          <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>['跨境电商', '国企']</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
@@ -35027,555 +35423,551 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>601008.SH</t>
+          <t>601956.SH</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>东贝集团</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>14天9板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>港口航运+国企</t>
+          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>['国企']</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>6</v>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I49" s="2" t="n">
-        <v>2.474</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>5.224</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>002251.SZ</t>
+          <t>002693.SZ</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>双成药业</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>5天4板</t>
+          <t>11天6板</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>摘帽+零售+一季报增长+年报扭亏</t>
+          <t>资金博弈激烈+此前拟收购宁波奥拉半导体</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>2.895</v>
+        <v>1.421</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>5.145</v>
+        <v>1.421</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>002094.SZ</t>
+          <t>603086.SH</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>青岛金王</t>
+          <t>先达股份</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>跨境支付+中韩自贸区+蜡烛</t>
+          <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>['跨境支付']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>4</v>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I51" s="2" t="n">
-        <v>2.684</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>4.684</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
+          <t>2025年04月24日</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>002584.SZ</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>西陇科学</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>光刻胶+化学试剂+生物医药</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>1.211</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>002427.SZ</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>尤夫股份</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>002537.SZ</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>海联金汇</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>跨境支付+汽车零部件</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>['汽车零部件', '跨境支付']</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>5.592</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>600790.SH</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>轻纺城</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>跨境电商+纺织面料+国企</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>['跨境电商', '国企']</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>000632.SZ</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>三木集团</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>跨境电商+创投+福建国企</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>['跨境电商', '国企']</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>601008.SH</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>连云港</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>14天9板</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>港口航运+国企</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>5.224</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>002251.SZ</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>5天4板</t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>2.579</v>
-      </c>
-      <c r="J52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2" t="n">
-        <v>2.579</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>摘帽+零售+一季报增长+年报扭亏</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J57" s="3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>5.145</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>003003.SZ</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>天元股份</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>4天4板</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>跨境电商+可降解塑料+快递包装</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K53" s="2" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>603086.SH</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>先达股份</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>002094.SZ</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>青岛金王</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>一季报增长+烯草酮+农药+大豆</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>['一季报增长']</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K54" s="2" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>300542.SZ</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>新晨科技</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>拟收购天一恩华+跨境支付+华为</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>跨境支付+中韩自贸区+蜡烛</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K55" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>002915.SZ</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>中欣氟材</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>业绩增长+PEEK材料+氟化工</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>['业绩增长']</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K56" s="2" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>600860.SH</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>京城股份</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>天工机器人夺冠+京城机电控股股东</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>['机器人']</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>2025年04月23日</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>603119.SH</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>浙江荣泰</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>3天2板</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>机器人+战略布局未受关税实质影响+特斯拉供应链</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>['机器人']</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2" t="n">
-        <v>1</v>
+      <c r="G58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>2.684</v>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>4.684</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>603128.SH</t>
+          <t>002427.SZ</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>华贸物流</t>
+          <t>尤夫股份</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>6天4板</t>
+          <t>5天4板</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>跨境电商+敦煌网合作+物流+国企改革</t>
+          <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>['跨境电商', '国企', '物流', '国企改革']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G59" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>1.105</v>
+        <v>2.579</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>6.857</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>7.962</v>
+        <v>2.579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>600794.SH</t>
+          <t>003003.SZ</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>保税科技</t>
+          <t>天元股份</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -35585,91 +35977,95 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>智慧物流+数字货币+电子商务+国企</t>
+          <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>['国企', '物流', '电子商务']</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G60" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I60" s="3" t="n">
-        <v>2.263</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="n">
-        <v>5.286</v>
+        <v>2.5</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>7.549</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>601086.SH</t>
+          <t>603086.SH</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>国芳集团</t>
+          <t>先达股份</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>13天12板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>零售+参股券商+参投御道智算+连续涨停+股价创历史新高</t>
+          <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G61" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H61" s="3" t="n">
-        <v>2</v>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I61" s="3" t="n">
-        <v>2.895</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3" t="n">
-        <v>2.143</v>
+        <v>2.25</v>
       </c>
       <c r="K61" s="3" t="n">
-        <v>5.038</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>002094.SZ</t>
+          <t>300542.SZ</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>青岛金王</t>
+          <t>新晨科技</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -35679,7 +36075,7 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>年报净利增长+跨境支付+中韩自贸区+化妆品</t>
+          <t>拟收购天一恩华+跨境支付+华为</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
@@ -35690,905 +36086,903 @@
       <c r="G62" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H62" s="3" t="n">
-        <v>5</v>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I62" s="3" t="n">
-        <v>2.579</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>1.857</v>
+        <v>2</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>4.436</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>603696.SH</t>
+          <t>002915.SZ</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>安记食品</t>
+          <t>中欣氟材</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>6天6板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>调味品+新零售+年报增长</t>
+          <t>业绩增长+PEEK材料+氟化工</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>['业绩增长']</t>
         </is>
       </c>
       <c r="G63" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H63" s="3" t="n">
-        <v>15</v>
+      <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I63" s="3" t="n">
-        <v>1.526</v>
+        <v>0</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>2.143</v>
+        <v>1.5</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>3.669</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>600571.SH</t>
+          <t>600860.SH</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>信雅达</t>
+          <t>京城股份</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>跨境支付+金融科技+AI智能体+此前因Pika大涨</t>
+          <t>天工机器人夺冠+京城机电控股股东</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>['跨境支付']</t>
+          <t>['机器人']</t>
         </is>
       </c>
       <c r="G64" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H64" s="3" t="n">
-        <v>14</v>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I64" s="3" t="n">
-        <v>1.632</v>
+        <v>0</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>1.857</v>
+        <v>1</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>3.489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
+          <t>2025年04月23日</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>603119.SH</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>机器人+战略布局未受关税实质影响+特斯拉供应链</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>['机器人']</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>603128.SH</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>华贸物流</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>6天4板</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>跨境电商+敦煌网合作+物流+国企改革</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>['跨境电商', '国企', '物流', '国企改革']</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>6.857</v>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>7.962</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>600794.SH</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>保税科技</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>智慧物流+数字货币+电子商务+国企</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>['国企', '物流', '电子商务']</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>5.286</v>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>7.549</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>601086.SH</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>国芳集团</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>13天12板</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>零售+参股券商+参投御道智算+连续涨停+股价创历史新高</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>5.038</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>002094.SZ</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>青岛金王</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>年报净利增长+跨境支付+中韩自贸区+化妆品</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>['跨境支付']</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>4.436</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>603696.SH</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>安记食品</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>6天6板</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>调味品+新零售+年报增长</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>3.669</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>600571.SH</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>信雅达</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>跨境支付+金融科技+AI智能体+此前因Pika大涨</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>['跨境支付']</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="K71" s="2" t="n">
+        <v>3.489</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr">
         <is>
           <t>4天3板</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="E72" s="2" t="inlineStr">
         <is>
           <t>摘帽+零售+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F65" s="3" t="inlineStr">
+      <c r="F72" s="2" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G65" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3" t="n">
+      <c r="G72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I65" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" s="3" t="n">
+      <c r="I72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2" t="n">
         <v>2.143</v>
       </c>
-      <c r="K65" s="3" t="n">
+      <c r="K72" s="2" t="n">
         <v>3.143</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="3" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B66" s="3" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>000965.SZ</t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>天保基建</t>
         </is>
       </c>
-      <c r="D66" s="3" t="inlineStr">
+      <c r="D73" s="2" t="inlineStr">
         <is>
           <t>5天5板</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
+      <c r="E73" s="2" t="inlineStr">
         <is>
           <t>大飞机+房地产+天津国企</t>
         </is>
       </c>
-      <c r="F66" s="3" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G66" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3" t="n">
+      <c r="G73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="I66" s="3" t="n">
+      <c r="I73" s="2" t="n">
         <v>1.842</v>
       </c>
-      <c r="J66" s="3" t="n">
+      <c r="J73" s="2" t="n">
         <v>1.286</v>
       </c>
-      <c r="K66" s="3" t="n">
+      <c r="K73" s="2" t="n">
         <v>3.128</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B74" s="2" t="inlineStr">
         <is>
           <t>002537.SZ</t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
+      <c r="C74" s="2" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="D67" s="3" t="inlineStr">
+      <c r="D74" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
+      <c r="E74" s="2" t="inlineStr">
         <is>
           <t>跨境支付+汽车零部件</t>
         </is>
       </c>
-      <c r="F67" s="3" t="inlineStr">
+      <c r="F74" s="2" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G67" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" s="3" t="n">
+      <c r="G74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="I67" s="3" t="n">
+      <c r="I74" s="2" t="n">
         <v>1.211</v>
       </c>
-      <c r="J67" s="3" t="n">
+      <c r="J74" s="2" t="n">
         <v>1.857</v>
       </c>
-      <c r="K67" s="3" t="n">
+      <c r="K74" s="2" t="n">
         <v>3.068</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>002165.SZ</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>红宝丽</t>
         </is>
       </c>
-      <c r="D68" s="3" t="inlineStr">
+      <c r="D75" s="2" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>环氧丙烷衍生品+光刻胶+出海</t>
         </is>
       </c>
-      <c r="F68" s="3" t="inlineStr">
+      <c r="F75" s="2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" s="3" t="n">
+      <c r="G75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="J68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" s="3" t="n">
+      <c r="J75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>603351.SH</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>威尔药业</t>
         </is>
       </c>
-      <c r="D69" s="3" t="inlineStr">
+      <c r="D76" s="2" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
         </is>
       </c>
-      <c r="F69" s="3" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr">
         <is>
           <t>['业绩增长']</t>
         </is>
       </c>
-      <c r="G69" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" s="3" t="inlineStr">
+      <c r="G76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="3" t="n">
+      <c r="I76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="n">
         <v>2.714</v>
       </c>
-      <c r="K69" s="3" t="n">
+      <c r="K76" s="2" t="n">
         <v>2.714</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>603839.SH</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>安正时尚</t>
         </is>
       </c>
-      <c r="D70" s="3" t="inlineStr">
+      <c r="D77" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>服装+电子商务</t>
         </is>
       </c>
-      <c r="F70" s="3" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr">
         <is>
           <t>['电子商务']</t>
         </is>
       </c>
-      <c r="G70" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3" t="inlineStr">
+      <c r="G77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3" t="n">
+      <c r="I77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="n">
         <v>2.429</v>
       </c>
-      <c r="K70" s="3" t="n">
+      <c r="K77" s="2" t="n">
         <v>2.429</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>002640.SZ</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>跨境通</t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="D78" s="2" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>跨境电商+欧美用户</t>
         </is>
       </c>
-      <c r="F71" s="3" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3" t="n">
+      <c r="G78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="I71" s="3" t="n">
+      <c r="I78" s="2" t="n">
         <v>1.421</v>
       </c>
-      <c r="J71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" s="3" t="n">
+      <c r="J78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2" t="n">
         <v>2.421</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B72" s="3" t="inlineStr">
-        <is>
-          <t>600644.SH</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>乐山电力</t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="inlineStr">
-        <is>
-          <t>7天6板</t>
-        </is>
-      </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>电力+光储</t>
-        </is>
-      </c>
-      <c r="F72" s="3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G72" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I72" s="3" t="n">
-        <v>2.368</v>
-      </c>
-      <c r="J72" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="n">
-        <v>2.368</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>600865.SH</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>百大集团</t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>年报净利增长+零售+杭州</t>
-        </is>
-      </c>
-      <c r="F73" s="3" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G73" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I73" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" s="3" t="n">
-        <v>2.143</v>
-      </c>
-      <c r="K73" s="3" t="n">
-        <v>2.143</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B74" s="3" t="inlineStr">
-        <is>
-          <t>603697.SH</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>有友食品</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>泡凤爪+新零售+年报增长</t>
-        </is>
-      </c>
-      <c r="F74" s="3" t="inlineStr">
-        <is>
-          <t>['零售']</t>
-        </is>
-      </c>
-      <c r="G74" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I74" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" s="3" t="n">
-        <v>2.143</v>
-      </c>
-      <c r="K74" s="3" t="n">
-        <v>2.143</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>601008.SH</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>连云港</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>13天8板</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="inlineStr">
-        <is>
-          <t>港口航运+国企</t>
-        </is>
-      </c>
-      <c r="F75" s="3" t="inlineStr">
-        <is>
-          <t>['国企']</t>
-        </is>
-      </c>
-      <c r="G75" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I75" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" s="3" t="n">
-        <v>1.286</v>
-      </c>
-      <c r="K75" s="3" t="n">
-        <v>1.286</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B76" s="3" t="inlineStr">
-        <is>
-          <t>002564.SZ</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>天沃科技</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
-        <is>
-          <t>8天5板</t>
-        </is>
-      </c>
-      <c r="E76" s="3" t="inlineStr">
-        <is>
-          <t>摘帽+电力设计+高端装备+上海国企</t>
-        </is>
-      </c>
-      <c r="F76" s="3" t="inlineStr">
-        <is>
-          <t>['国企']</t>
-        </is>
-      </c>
-      <c r="G76" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I76" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="n">
-        <v>1.286</v>
-      </c>
-      <c r="K76" s="3" t="n">
-        <v>1.286</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B77" s="3" t="inlineStr">
-        <is>
-          <t>003003.SZ</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>天元股份</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
-        <is>
-          <t>3天3板</t>
-        </is>
-      </c>
-      <c r="E77" s="3" t="inlineStr">
-        <is>
-          <t>跨境电商+可降解塑料+快递包装</t>
-        </is>
-      </c>
-      <c r="F77" s="3" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G77" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I77" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>2025年04月22日</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>002095.SZ</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>生意宝</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
-        <is>
-          <t>2天2板</t>
-        </is>
-      </c>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>跨境电商+数据要素</t>
-        </is>
-      </c>
-      <c r="F78" s="3" t="inlineStr">
-        <is>
-          <t>['跨境电商']</t>
-        </is>
-      </c>
-      <c r="G78" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" s="3" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
-      </c>
-      <c r="I78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" s="3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>601086.SH</t>
+          <t>600644.SH</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>国芳集团</t>
+          <t>乐山电力</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>12天11板</t>
+          <t>7天6板</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>零售+参股券商+参投御道智算</t>
+          <t>电力+光储</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>3</v>
+        <v>2.368</v>
       </c>
       <c r="J79" s="2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="K79" s="2" t="n">
-        <v>5.2</v>
+        <v>2.368</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>000965.SZ</t>
+          <t>600865.SH</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>天保基建</t>
+          <t>百大集团</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>房地产+大飞机+天津国企</t>
+          <t>年报净利增长+零售+杭州</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>['国企', '大飞机']</t>
+          <t>['零售']</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H80" s="2" t="n">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I80" s="2" t="n">
-        <v>1.105</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2" t="n">
-        <v>4</v>
+        <v>2.143</v>
       </c>
       <c r="K80" s="2" t="n">
-        <v>5.105</v>
+        <v>2.143</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>002251.SZ</t>
+          <t>603697.SH</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>有友食品</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>摘帽+零售+胖东来帮扶+年报扭亏</t>
+          <t>泡凤爪+新零售+年报增长</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr">
@@ -36599,52 +36993,54 @@
       <c r="G81" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H81" s="2" t="n">
-        <v>9</v>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I81" s="2" t="n">
-        <v>2.158</v>
+        <v>0</v>
       </c>
       <c r="J81" s="2" t="n">
-        <v>2.2</v>
+        <v>2.143</v>
       </c>
       <c r="K81" s="2" t="n">
-        <v>4.358</v>
+        <v>2.143</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>600865.SH</t>
+          <t>601008.SH</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>百大集团</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>13天8板</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>年报净利增长+零售+杭州</t>
+          <t>港口航运+国企</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>['年报净利增长', '零售']</t>
+          <t>['国企']</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
@@ -36655,73 +37051,75 @@
         <v>0</v>
       </c>
       <c r="J82" s="2" t="n">
-        <v>4</v>
+        <v>1.286</v>
       </c>
       <c r="K82" s="2" t="n">
-        <v>4</v>
+        <v>1.286</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>605188.SH</t>
+          <t>002564.SZ</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>国光连锁</t>
+          <t>天沃科技</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>6天6板</t>
+          <t>8天5板</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>零售+生鲜食品+智能物流</t>
+          <t>摘帽+电力设计+高端装备+上海国企</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>['国企']</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H83" s="2" t="n">
-        <v>15</v>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I83" s="2" t="n">
-        <v>1.526</v>
+        <v>0</v>
       </c>
       <c r="J83" s="2" t="n">
-        <v>2.2</v>
+        <v>1.286</v>
       </c>
       <c r="K83" s="2" t="n">
-        <v>3.726</v>
+        <v>1.286</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>600794.SH</t>
+          <t>003003.SZ</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>保税科技</t>
+          <t>天元股份</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
@@ -36731,605 +37129,940 @@
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>智慧物流+数字货币+电子商务+国企</t>
+          <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>['国企']</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H84" s="2" t="n">
-        <v>8</v>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I84" s="2" t="n">
-        <v>2.263</v>
+        <v>0</v>
       </c>
       <c r="J84" s="2" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="K84" s="2" t="n">
-        <v>3.663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
+          <t>2025年04月22日</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>002095.SZ</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>生意宝</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>跨境电商+数据要素</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>['跨境电商']</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>601086.SH</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>国芳集团</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>12天11板</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>零售+参股券商+参投御道智算</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" s="3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K86" s="3" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>000965.SZ</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>天保基建</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>房地产+大飞机+天津国企</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>['国企', '大飞机']</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="J87" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K87" s="3" t="n">
+        <v>5.105</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>002251.SZ</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>步步高</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>摘帽+零售+胖东来帮扶+年报扭亏</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="J88" s="3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K88" s="3" t="n">
+        <v>4.358</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>600865.SH</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>年报净利增长+零售+杭州</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>['年报净利增长', '零售']</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" s="3" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>605188.SH</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>国光连锁</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>6天6板</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>零售+生鲜食品+智能物流</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="J90" s="3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K90" s="3" t="n">
+        <v>3.726</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>600794.SH</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>保税科技</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>智慧物流+数字货币+电子商务+国企</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="J91" s="3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K91" s="3" t="n">
+        <v>3.663</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
         <is>
           <t>603900.SH</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C92" s="3" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="D85" s="2" t="inlineStr">
+      <c r="D92" s="3" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E85" s="2" t="inlineStr">
+      <c r="E92" s="3" t="inlineStr">
         <is>
           <t>黄金+珠宝首饰+IP</t>
         </is>
       </c>
-      <c r="F85" s="2" t="inlineStr">
+      <c r="F92" s="3" t="inlineStr">
         <is>
           <t>['黄金']</t>
         </is>
       </c>
-      <c r="G85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
+      <c r="G92" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I85" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="n">
+      <c r="I92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="K85" s="2" t="n">
+      <c r="K92" s="3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B93" s="3" t="inlineStr">
         <is>
           <t>002583.SZ</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C93" s="3" t="inlineStr">
         <is>
           <t>海能达</t>
         </is>
       </c>
-      <c r="D86" s="2" t="inlineStr">
+      <c r="D93" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E93" s="3" t="inlineStr">
         <is>
           <t>6G+对讲机终端+一带一路</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
+      <c r="F93" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" s="2" t="n">
+      <c r="G93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" s="3" t="n">
         <v>2.895</v>
       </c>
-      <c r="J86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2" t="n">
+      <c r="J93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" s="3" t="n">
         <v>2.895</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B87" s="2" t="inlineStr">
+      <c r="B94" s="3" t="inlineStr">
         <is>
           <t>000859.SZ</t>
         </is>
       </c>
-      <c r="C87" s="2" t="inlineStr">
+      <c r="C94" s="3" t="inlineStr">
         <is>
           <t>国风新材</t>
         </is>
       </c>
-      <c r="D87" s="2" t="inlineStr">
+      <c r="D94" s="3" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E87" s="2" t="inlineStr">
+      <c r="E94" s="3" t="inlineStr">
         <is>
           <t>光刻胶+集成电路PI材料+聚丙烯薄膜+国企</t>
         </is>
       </c>
-      <c r="F87" s="2" t="inlineStr">
+      <c r="F94" s="3" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G87" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" s="2" t="n">
+      <c r="G94" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="I87" s="2" t="n">
+      <c r="I94" s="3" t="n">
         <v>1.211</v>
       </c>
-      <c r="J87" s="2" t="n">
+      <c r="J94" s="3" t="n">
         <v>1.4</v>
       </c>
-      <c r="K87" s="2" t="n">
+      <c r="K94" s="3" t="n">
         <v>2.611</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B95" s="3" t="inlineStr">
         <is>
           <t>001316.SZ</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C95" s="3" t="inlineStr">
         <is>
           <t>润贝航科</t>
         </is>
       </c>
-      <c r="D88" s="2" t="inlineStr">
+      <c r="D95" s="3" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="E95" s="3" t="inlineStr">
         <is>
           <t>大飞机+航空材料+AI眼镜+低空经济</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F95" s="3" t="inlineStr">
         <is>
           <t>['大飞机']</t>
         </is>
       </c>
-      <c r="G88" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
+      <c r="G95" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="n">
+      <c r="I95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" s="3" t="n">
         <v>2.6</v>
       </c>
-      <c r="K88" s="2" t="n">
+      <c r="K95" s="3" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B96" s="3" t="inlineStr">
         <is>
           <t>600644.SH</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C96" s="3" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="D89" s="2" t="inlineStr">
+      <c r="D96" s="3" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E89" s="2" t="inlineStr">
+      <c r="E96" s="3" t="inlineStr">
         <is>
           <t>电力+光储</t>
         </is>
       </c>
-      <c r="F89" s="2" t="inlineStr">
+      <c r="F96" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G89" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" s="2" t="n">
+      <c r="G96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I89" s="2" t="n">
+      <c r="I96" s="3" t="n">
         <v>2.579</v>
       </c>
-      <c r="J89" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" s="2" t="n">
+      <c r="J96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3" t="n">
         <v>2.579</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B97" s="3" t="inlineStr">
         <is>
           <t>603237.SH</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C97" s="3" t="inlineStr">
         <is>
           <t>五芳斋</t>
         </is>
       </c>
-      <c r="D90" s="2" t="inlineStr">
+      <c r="D97" s="3" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E97" s="3" t="inlineStr">
         <is>
           <t>食品加工制造+新零售+市场拓展</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
+      <c r="F97" s="3" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
+      <c r="G97" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="n">
+      <c r="I97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="3" t="n">
         <v>2.2</v>
       </c>
-      <c r="K90" s="2" t="n">
+      <c r="K97" s="3" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B91" s="2" t="inlineStr">
+      <c r="B98" s="3" t="inlineStr">
         <is>
           <t>603696.SH</t>
         </is>
       </c>
-      <c r="C91" s="2" t="inlineStr">
+      <c r="C98" s="3" t="inlineStr">
         <is>
           <t>安记食品</t>
         </is>
       </c>
-      <c r="D91" s="2" t="inlineStr">
+      <c r="D98" s="3" t="inlineStr">
         <is>
           <t>5天5板</t>
         </is>
       </c>
-      <c r="E91" s="2" t="inlineStr">
+      <c r="E98" s="3" t="inlineStr">
         <is>
           <t>调味品+新零售</t>
         </is>
       </c>
-      <c r="F91" s="2" t="inlineStr">
+      <c r="F98" s="3" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" s="2" t="inlineStr">
+      <c r="G98" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I91" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" s="2" t="n">
+      <c r="I98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="3" t="n">
         <v>2.2</v>
       </c>
-      <c r="K91" s="2" t="n">
+      <c r="K98" s="3" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B99" s="3" t="inlineStr">
         <is>
           <t>600391.SH</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C99" s="3" t="inlineStr">
         <is>
           <t>航发科技</t>
         </is>
       </c>
-      <c r="D92" s="2" t="inlineStr">
+      <c r="D99" s="3" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="E99" s="3" t="inlineStr">
         <is>
           <t>航空发动机+军工+央企+年报净利增长</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
+      <c r="F99" s="3" t="inlineStr">
         <is>
           <t>['年报净利增长']</t>
         </is>
       </c>
-      <c r="G92" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
+      <c r="G99" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" s="2" t="n">
+      <c r="I99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="3" t="n">
         <v>1.8</v>
       </c>
-      <c r="K92" s="2" t="n">
+      <c r="K99" s="3" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B100" s="3" t="inlineStr">
         <is>
           <t>603042.SH</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C100" s="3" t="inlineStr">
         <is>
           <t>华脉科技</t>
         </is>
       </c>
-      <c r="D93" s="2" t="inlineStr">
+      <c r="D100" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="E100" s="3" t="inlineStr">
         <is>
           <t>年报净利增长+铜缆高速连接+数据中心+通信设备</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
+      <c r="F100" s="3" t="inlineStr">
         <is>
           <t>['年报净利增长']</t>
         </is>
       </c>
-      <c r="G93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
+      <c r="G100" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" s="2" t="n">
+      <c r="I100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3" t="n">
         <v>1.8</v>
       </c>
-      <c r="K93" s="2" t="n">
+      <c r="K100" s="3" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B101" s="3" t="inlineStr">
         <is>
           <t>002153.SZ</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C101" s="3" t="inlineStr">
         <is>
           <t>石基信息</t>
         </is>
       </c>
-      <c r="D94" s="2" t="inlineStr">
+      <c r="D101" s="3" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E101" s="3" t="inlineStr">
         <is>
           <t>跨境支付+大消费行业信息管理软件+云酒店信息系统+阿里合作</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
+      <c r="F101" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" s="2" t="n">
+      <c r="G101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="I94" s="2" t="n">
+      <c r="I101" s="3" t="n">
         <v>1.421</v>
       </c>
-      <c r="J94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" s="2" t="n">
+      <c r="J101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="n">
         <v>1.421</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B102" s="3" t="inlineStr">
         <is>
           <t>002427.SZ</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C102" s="3" t="inlineStr">
         <is>
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="D95" s="2" t="inlineStr">
+      <c r="D102" s="3" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E102" s="3" t="inlineStr">
         <is>
           <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F102" s="3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" s="2" t="n">
+      <c r="G102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="I95" s="2" t="n">
+      <c r="I102" s="3" t="n">
         <v>1.316</v>
       </c>
-      <c r="J95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" s="2" t="n">
+      <c r="J102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="n">
         <v>1.316</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B103" s="3" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C103" s="3" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D96" s="2" t="inlineStr">
+      <c r="D103" s="3" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E103" s="3" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="F103" s="3" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
+      <c r="G103" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" s="3" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" s="2" t="n">
+      <c r="I103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" s="3" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/limit_up_history.xlsx
+++ b/excel/limit_up_history.xlsx
@@ -30,7 +30,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,12 +47,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F2F2F2"/>
         <bgColor rgb="00F2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -74,16 +68,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -449,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P504"/>
+  <dimension ref="A1:P511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33755,6 +33746,468 @@
         <v>0</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B505" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="C505" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D505" s="3" t="inlineStr">
+        <is>
+          <t>1进2</t>
+        </is>
+      </c>
+      <c r="E505" s="3" t="inlineStr">
+        <is>
+          <t>22.22%</t>
+        </is>
+      </c>
+      <c r="F505" s="3" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G505" s="3" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="H505" s="3" t="inlineStr">
+        <is>
+          <t>38.10%</t>
+        </is>
+      </c>
+      <c r="I505" s="3" t="inlineStr">
+        <is>
+          <t>61.90%</t>
+        </is>
+      </c>
+      <c r="J505" s="3" t="inlineStr">
+        <is>
+          <t>38.10%</t>
+        </is>
+      </c>
+      <c r="K505" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L505" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="M505" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="N505" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O505" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="P505" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B506" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C506" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D506" s="3" t="inlineStr">
+        <is>
+          <t>2进3</t>
+        </is>
+      </c>
+      <c r="E506" s="3" t="inlineStr">
+        <is>
+          <t>30.77%</t>
+        </is>
+      </c>
+      <c r="F506" s="3" t="inlineStr">
+        <is>
+          <t>46.15%</t>
+        </is>
+      </c>
+      <c r="G506" s="3" t="inlineStr">
+        <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+      <c r="H506" s="3" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I506" s="3" t="inlineStr">
+        <is>
+          <t>41.67%</t>
+        </is>
+      </c>
+      <c r="J506" s="3" t="inlineStr">
+        <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="K506" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L506" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M506" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="N506" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O506" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P506" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B507" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C507" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D507" s="3" t="inlineStr">
+        <is>
+          <t>3进4</t>
+        </is>
+      </c>
+      <c r="E507" s="3" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="F507" s="3" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G507" s="3" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="H507" s="3" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="I507" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="J507" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K507" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L507" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M507" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N507" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O507" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P507" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B508" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C508" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D508" s="3" t="inlineStr">
+        <is>
+          <t>4进5</t>
+        </is>
+      </c>
+      <c r="E508" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F508" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G508" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="H508" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I508" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="J508" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="K508" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L508" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M508" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N508" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O508" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P508" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B509" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C509" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D509" s="3" t="inlineStr">
+        <is>
+          <t>6进7</t>
+        </is>
+      </c>
+      <c r="E509" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F509" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G509" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="H509" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I509" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="J509" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K509" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L509" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M509" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N509" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O509" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P509" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B510" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C510" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D510" s="3" t="inlineStr">
+        <is>
+          <t>7进8</t>
+        </is>
+      </c>
+      <c r="E510" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F510" s="3" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G510" s="3" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="H510" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I510" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="J510" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K510" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L510" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M510" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N510" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O510" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P510" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B511" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C511" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D511" s="3" t="inlineStr">
+        <is>
+          <t>14进15</t>
+        </is>
+      </c>
+      <c r="E511" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F511" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G511" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H511" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I511" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="J511" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K511" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L511" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M511" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N511" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O511" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P511" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -33766,6605 +34219,7164 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="45" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>股票代码</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>股票简称</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>几天几板</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>涨停原因类别</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>覆盖热点</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>热点数量</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>关注度排名</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>关注度加分</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>原始得分</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>总得分</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190.SZ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>成飞集成</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>成飞概念+军工+汽车零部件+国企改革</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['军工', '国企改革', '汽车零部件']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.724</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002471.SZ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中超控股</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>曾研发外骨骼机器人用电缆+军工+航空航天+数据中心</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['军工', '数据中心']</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.763</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>600855.SH</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>航天长峰</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>军工电子+低空经济+医疗装备+央企</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['军工', '低空经济']</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>17</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.316</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>603109.SH</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>神驰机电</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>数据中心+小型发电机+柴油发电机组+一季报增长</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['一季报增长', '数据中心']</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002651.SZ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>利君股份</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>航空零部件+大飞机+军工+机器人</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['军工']</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.842</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>300581.SZ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>晨曦航空</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>航空装备+军工+无人机</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['军工']</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.526</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>603610.SH</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>麒盛科技</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>脑机接口+智能电动床+鸿蒙+外销</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['外销']</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002977.SZ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天箭科技</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>军工+卫星通信+一季报增长</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['军工', '一季报增长']</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001316.SZ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>润贝航科</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4天4板</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>大飞机+航空材料+AI眼镜+一季报增长</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['一季报增长']</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002490.SZ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>山东墨龙</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>摘帽+AH两地上市+调入港股通</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.947</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>600448.SH</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华纺股份</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>跨境电商+电子商务+服装纺织+国企改革</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['国企改革']</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025年05月08日</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>300095.SZ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华伍股份</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>航空发动机+此前为巴基斯坦提供配套+工业制动器+智能制造</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>19</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.105</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>600592.SH</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>龙溪股份</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>人形机器人+大飞机+军工+国企</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>['机器人', '军工', '国企', '大飞机']</t>
         </is>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G14" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H14" t="n">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I14" t="n">
         <v>2.158</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J14" t="n">
         <v>6.333</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K14" t="n">
         <v>8.491</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>600448.SH</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>华纺股份</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>跨境电商+电子商务+服装纺织+国企改革</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>['国企', '国企改革']</t>
         </is>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>4.667</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K15" t="n">
         <v>4.667</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>001316.SZ</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>润贝航科</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>一季报增长+大飞机+航空材料+AI眼镜</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>['一季报增长', '大飞机']</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>4.333</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K16" t="n">
         <v>4.333</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>000965.SZ</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>天保基建</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>13天7板</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>房地产+大飞机+天津国企</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>['国企', '大飞机']</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>4</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K17" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>600410.SH</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>华胜天成</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>华为昇腾+腾讯+机器人+AI应用</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2" t="n">
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
         <v>2.895</v>
       </c>
-      <c r="J6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="n">
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.895</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>603657.SH</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>春光科技</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>一季报扭亏+扫地机器人+家电</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>['机器人', '一季报扭亏']</t>
         </is>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.667</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K19" t="n">
         <v>3.667</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>300879.SZ</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>大叶股份</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>4天3板</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>机器人概念+园林机械+一季度业绩增长+全球化布局</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I20" t="n">
         <v>2.263</v>
       </c>
-      <c r="J8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="n">
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.263</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>002915.SZ</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>中欣氟材</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>9天6板</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>PEEK材料+氟化工+业绩增长</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I21" t="n">
         <v>2.579</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.579</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>002730.SZ</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>电光科技</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>算力+机器人+防爆设备+智能矿山</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
         <v>16</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I22" t="n">
         <v>1.421</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="n">
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
         <v>2.421</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>000565.SZ</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>渝三峡A</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>6天6板</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>涂料制造+氢能源+重庆国资+年报扭亏</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>7</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I23" t="n">
         <v>2.368</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>2.368</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>603030.SH</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>全筑股份</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>机器人+出海+建筑装饰+业绩改善</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
         <v>17</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I24" t="n">
         <v>1.316</v>
       </c>
-      <c r="J12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="n">
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.316</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>002471.SZ</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>中超控股</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>曾研发外骨骼机器人用电缆+数据中心+航空航天</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="n">
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
         <v>18</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I25" t="n">
         <v>1.211</v>
       </c>
-      <c r="J13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="n">
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.211</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>002286.SZ</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>保龄宝</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>一季报增长+代糖概念+客户合作</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>601086.SH</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>21天14板</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>零售+参股券商+参投御道智算</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="n">
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>15</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I27" t="n">
         <v>1.526</v>
       </c>
-      <c r="J15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1.526</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>2025年05月07日</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>300884.SZ</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>狄耐克</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>华为+智能家居+脑机接口+机器人</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>603286.SH</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>日盈电子</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>人形机器人+汽车零部件</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>['机器人', '汽车零部件', '人形机器人']</t>
         </is>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G29" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>6.667</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K29" t="n">
         <v>6.667</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>605133.SH</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>嵘泰股份</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>人形机器人+汽车零部件+业绩增长+全球化布局</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>['机器人', '汽车零部件', '人形机器人']</t>
         </is>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G30" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="3" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="n">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>6.667</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="K30" t="n">
         <v>6.667</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>603040.SH</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>新坐标</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>一季报增长+滚珠丝杠+汽车零部件+外销</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>['一季报增长', '汽车零部件', '外销']</t>
         </is>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G31" t="n">
         <v>3</v>
       </c>
-      <c r="H19" s="3" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="n">
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>6</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K31" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>002664.SZ</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>信质集团</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>人形机器人+汽车电机+华为+无人机</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>['机器人', '华为', '人形机器人']</t>
         </is>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G32" t="n">
         <v>3</v>
       </c>
-      <c r="H20" s="3" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>6</v>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="K32" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>000158.SZ</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>常山北明</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>华为+国企+一季报增长</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>['一季报增长', '华为']</t>
         </is>
       </c>
-      <c r="G21" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" s="3" t="n">
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I33" t="n">
         <v>2.789</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J33" t="n">
         <v>2.667</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="K33" t="n">
         <v>5.456</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>600592.SH</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>龙溪股份</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>人形机器人+大飞机+军工+国企</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>['机器人', '人形机器人']</t>
         </is>
       </c>
-      <c r="G22" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="n">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>4.333</v>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="K34" t="n">
         <v>4.333</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>603166.SH</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>福达股份</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>机器人+曲轴+汽车零部件+拟获得长坂科技35%股权</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>['机器人', '汽车零部件']</t>
         </is>
       </c>
-      <c r="G23" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.667</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="K35" t="n">
         <v>3.667</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>002730.SZ</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>电光科技</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>算力+机器人+防爆设备+智能矿山</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>['机器人', '算力']</t>
         </is>
       </c>
-      <c r="G24" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="n">
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>3.333</v>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="K36" t="n">
         <v>3.333</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>002355.SZ</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>兴民智通</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>一季报增长+车联网+算力+低空经济</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>['一季报增长', '算力']</t>
         </is>
       </c>
-      <c r="G25" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="n">
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>3</v>
       </c>
-      <c r="K25" s="3" t="n">
+      <c r="K37" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>600744.SH</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>华银电力</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>6天4板</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>电力+一季报增长+央企</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3" t="n">
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
         <v>14</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I38" t="n">
         <v>1.632</v>
       </c>
-      <c r="J26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3" t="n">
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
         <v>2.632</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>603335.SH</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>迪生力</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>汽车零部件出口+新三板股权认购+锂电池回收</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>['汽车零部件']</t>
         </is>
       </c>
-      <c r="G27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3" t="inlineStr">
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="n">
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>2.333</v>
       </c>
-      <c r="K27" s="3" t="n">
+      <c r="K39" t="n">
         <v>2.333</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>000565.SZ</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>渝三峡A</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>5天5板</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>涂料制造+氢能源+重庆国资+年报扭亏</t>
         </is>
       </c>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="n">
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>8</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I40" t="n">
         <v>2.263</v>
       </c>
-      <c r="J28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>2.263</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>002272.SZ</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>川润股份</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>华为+液冷服务器+高端能源装备</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>['华为']</t>
         </is>
       </c>
-      <c r="G29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3" t="inlineStr">
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>1.667</v>
       </c>
-      <c r="K29" s="3" t="n">
+      <c r="K41" t="n">
         <v>1.667</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>002471.SZ</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>中超控股</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>曾研发外骨骼机器人用电缆+数据中心+航空航天</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3" t="inlineStr">
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3" t="n">
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>1.333</v>
       </c>
-      <c r="K30" s="3" t="n">
+      <c r="K42" t="n">
         <v>1.333</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>603030.SH</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>全筑股份</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>机器人+建筑装饰+出海+业绩改善</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3" t="inlineStr">
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="n">
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>1.333</v>
       </c>
-      <c r="K31" s="3" t="n">
+      <c r="K43" t="n">
         <v>1.333</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>300879.SZ</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>大叶股份</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>机器人概念+园林机械+一季度业绩增长+全球化布局</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3" t="inlineStr">
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="n">
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>1.333</v>
       </c>
-      <c r="K32" s="3" t="n">
+      <c r="K44" t="n">
         <v>1.333</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>603586.SH</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>金麒麟</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>4天3板</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>汽车制动零部件+海外市场拓展+一季报增长</t>
         </is>
       </c>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="inlineStr">
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>001316.SZ</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>润贝航科</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>一季报增长+大飞机+航空材料+AI眼镜</t>
         </is>
       </c>
-      <c r="F34" s="3" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3" t="inlineStr">
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>2025年05月06日</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>603086.SH</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>先达股份</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>9天6板</t>
         </is>
       </c>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
-      <c r="F35" s="3" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3" t="inlineStr">
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>2025年04月30日</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>002229.SZ</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>鸿博股份</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>['算力']</t>
         </is>
       </c>
-      <c r="G36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="n">
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
         <v>4</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I48" t="n">
         <v>2.684</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="J48" t="n">
         <v>2.6</v>
       </c>
-      <c r="K36" s="2" t="n">
+      <c r="K48" t="n">
         <v>5.284</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>2025年04月30日</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>603040.SH</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>新坐标</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>一季报增长+滚珠丝杠+汽车零部件+外销</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>['一季报增长', '汽车零部件']</t>
         </is>
       </c>
-      <c r="G37" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="n">
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>2.8</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="K49" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>2025年04月30日</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>002915.SZ</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>中欣氟材</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>7天5板</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>PEEK材料+氟化工+业绩增长</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2" t="n">
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>6</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I50" t="n">
         <v>2.474</v>
       </c>
-      <c r="J38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>2.474</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>2025年04月30日</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>603922.SH</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>金鸿顺</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>汽车零部件+模具+拟并购新思考电机</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>['汽车零部件']</t>
         </is>
       </c>
-      <c r="G39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="n">
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>1.8</v>
       </c>
-      <c r="K39" s="2" t="n">
+      <c r="K51" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>2025年04月30日</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>000565.SZ</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>渝三峡A</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>涂料制造+氢能源+国企改革</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2" t="n">
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
         <v>14</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I52" t="n">
         <v>1.632</v>
       </c>
-      <c r="J40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
         <v>1.632</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>2025年04月30日</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>603586.SH</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>金麒麟</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>一季报增长+汽车制动零部件+海外市场拓展</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>2025年04月30日</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>002164.SZ</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>宁波东力</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>一季报增长+机器人关节+齿轮箱+电机</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>2025年04月29日</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>002915.SZ</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>中欣氟材</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>6天4板</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>PEEK材料+氟化工+业绩增长</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>['PEEK材料', '化工']</t>
         </is>
       </c>
-      <c r="G43" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" s="3" t="n">
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="n">
         <v>6</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I55" t="n">
         <v>2.474</v>
       </c>
-      <c r="J43" s="3" t="n">
+      <c r="J55" t="n">
         <v>3.5</v>
       </c>
-      <c r="K43" s="3" t="n">
+      <c r="K55" t="n">
         <v>5.974</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>2025年04月29日</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>600828.SH</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>茂业商业</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>零售+首店经济+即时零售</t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="n">
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>3</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I56" t="n">
         <v>2.789</v>
       </c>
-      <c r="J44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
         <v>2.789</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>2025年04月29日</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>603086.SH</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>先达股份</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>7天5板</t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>['一季报增长', '农药']</t>
         </is>
       </c>
-      <c r="G45" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" s="3" t="inlineStr">
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="n">
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>2.75</v>
       </c>
-      <c r="K45" s="3" t="n">
+      <c r="K57" t="n">
         <v>2.75</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>2025年04月29日</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>002229.SZ</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>鸿博股份</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="n">
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
         <v>5</v>
       </c>
-      <c r="I46" s="3" t="n">
+      <c r="I58" t="n">
         <v>2.579</v>
       </c>
-      <c r="J46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
         <v>2.579</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>2025年04月29日</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>002809.SZ</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>红墙股份</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>9天6板</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>环氧丙烷+混凝土外加剂+化学制品</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="n">
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
         <v>13</v>
       </c>
-      <c r="I47" s="3" t="n">
+      <c r="I59" t="n">
         <v>1.737</v>
       </c>
-      <c r="J47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
         <v>1.737</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>2025年04月29日</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>002365.SZ</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>永安药业</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>7天5板</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>牛磺酸+对美出口业务正常</t>
         </is>
       </c>
-      <c r="F48" s="3" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="n">
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
         <v>14</v>
       </c>
-      <c r="I48" s="3" t="n">
+      <c r="I60" t="n">
         <v>1.632</v>
       </c>
-      <c r="J48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
         <v>1.632</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>2025年04月29日</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>603065.SH</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>宿迁联盛</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E49" s="3" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>受阻胺光稳定剂+高分子材料防老化助剂+外销</t>
         </is>
       </c>
-      <c r="F49" s="3" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>['外销']</t>
         </is>
       </c>
-      <c r="G49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="3" t="inlineStr">
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="n">
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>1.25</v>
       </c>
-      <c r="K49" s="3" t="n">
+      <c r="K61" t="n">
         <v>1.25</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>2025年04月29日</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>002196.SZ</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>方正电机</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>5天3板</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>机器人关节+新能源驱动电机+国企</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3" t="n">
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
         <v>20</v>
       </c>
-      <c r="I50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>600744.SH</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>华银电力</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>电力+一季报增长+光伏+国企</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>['一季报增长', '电力', '国企']</t>
         </is>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G63" t="n">
         <v>3</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H63" t="n">
         <v>11</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I63" t="n">
         <v>1.947</v>
       </c>
-      <c r="J51" s="2" t="n">
+      <c r="J63" t="n">
         <v>5.571</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K63" t="n">
         <v>7.519</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>600726.SH</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>华电能源</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>绿色电力+一季报增长+央企</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>['一季报增长', '电力', '央企']</t>
         </is>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G64" t="n">
         <v>3</v>
       </c>
-      <c r="H52" s="2" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="n">
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>5.857</v>
       </c>
-      <c r="K52" s="2" t="n">
+      <c r="K64" t="n">
         <v>5.857</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>002564.SZ</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>天沃科技</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>12天7板</t>
         </is>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>摘帽+高端装备+业绩增长+上海国企改革</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>['业绩增长', '国企']</t>
         </is>
       </c>
-      <c r="G53" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H53" s="2" t="n">
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="n">
         <v>12</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="I65" t="n">
         <v>1.842</v>
       </c>
-      <c r="J53" s="2" t="n">
+      <c r="J65" t="n">
         <v>3.714</v>
       </c>
-      <c r="K53" s="2" t="n">
+      <c r="K65" t="n">
         <v>5.556</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>000565.SZ</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>渝三峡A</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>涂料制造+氢能源+国企改革</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>['国企', '氢能源']</t>
         </is>
       </c>
-      <c r="G54" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="n">
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>5.429</v>
       </c>
-      <c r="K54" s="2" t="n">
+      <c r="K66" t="n">
         <v>5.429</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>600396.SH</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>华电辽能</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>电力+央企+一季报净利增长+海上风电</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>['电力', '央企']</t>
         </is>
       </c>
-      <c r="G55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="n">
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>4.857</v>
       </c>
-      <c r="K55" s="2" t="n">
+      <c r="K67" t="n">
         <v>4.857</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>601956.SH</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="n">
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
         <v>14</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I68" t="n">
         <v>1.632</v>
       </c>
-      <c r="J56" s="2" t="n">
+      <c r="J68" t="n">
         <v>1.857</v>
       </c>
-      <c r="K56" s="2" t="n">
+      <c r="K68" t="n">
         <v>3.489</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>002354.SZ</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>天娱数科</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>AI应用+人形机器人+营收增长</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" s="2" t="n">
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
         <v>2.895</v>
       </c>
-      <c r="J57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
         <v>2.895</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>002098.SZ</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>浔兴股份</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>跨境支付+跨境电商+敦煌网+拉链</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="n">
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
         <v>20</v>
       </c>
-      <c r="I58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" s="2" t="n">
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
         <v>1.857</v>
       </c>
-      <c r="K58" s="2" t="n">
+      <c r="K70" t="n">
         <v>2.857</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>002229.SZ</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>鸿博股份</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2" t="n">
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
         <v>15</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="I71" t="n">
         <v>1.526</v>
       </c>
-      <c r="J59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
         <v>1.526</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>002365.SZ</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>永安药业</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>6天4板</t>
         </is>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>牛磺酸+业绩扭亏+对美出口业务正常</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2" t="n">
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
         <v>17</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I72" t="n">
         <v>1.316</v>
       </c>
-      <c r="J60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
         <v>1.316</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>603351.SH</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>威尔药业</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>7天4板</t>
         </is>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>['业绩增长']</t>
         </is>
       </c>
-      <c r="G61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="n">
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>1.286</v>
       </c>
-      <c r="K61" s="2" t="n">
+      <c r="K73" t="n">
         <v>1.286</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>2025年04月28日</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>603605.SH</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>珀莱雅</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>一季报增长+化妆品</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>600505.SH</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>西昌电力</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E63" s="3" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>电力+光伏发电+央企+扭亏为盈</t>
         </is>
       </c>
-      <c r="F63" s="3" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>['电力', '央企', '光伏']</t>
         </is>
       </c>
-      <c r="G63" s="3" t="n">
+      <c r="G75" t="n">
         <v>3</v>
       </c>
-      <c r="H63" s="3" t="n">
+      <c r="H75" t="n">
         <v>4</v>
       </c>
-      <c r="I63" s="3" t="n">
+      <c r="I75" t="n">
         <v>2.684</v>
       </c>
-      <c r="J63" s="3" t="n">
+      <c r="J75" t="n">
         <v>5.667</v>
       </c>
-      <c r="K63" s="3" t="n">
+      <c r="K75" t="n">
         <v>8.351000000000001</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>600744.SH</t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>华银电力</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E64" s="3" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>电力+一季报增长+光伏+国企</t>
         </is>
       </c>
-      <c r="F64" s="3" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>['一季报增长', '电力', '光伏']</t>
         </is>
       </c>
-      <c r="G64" s="3" t="n">
+      <c r="G76" t="n">
         <v>3</v>
       </c>
-      <c r="H64" s="3" t="n">
+      <c r="H76" t="n">
         <v>8</v>
       </c>
-      <c r="I64" s="3" t="n">
+      <c r="I76" t="n">
         <v>2.263</v>
       </c>
-      <c r="J64" s="3" t="n">
+      <c r="J76" t="n">
         <v>5</v>
       </c>
-      <c r="K64" s="3" t="n">
+      <c r="K76" t="n">
         <v>7.263</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>601956.SH</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
       </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
-      <c r="F65" s="3" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>['人形机器人', '跨境电商']</t>
         </is>
       </c>
-      <c r="G65" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H65" s="3" t="n">
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="n">
         <v>20</v>
       </c>
-      <c r="I65" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" s="3" t="n">
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
         <v>4.333</v>
       </c>
-      <c r="K65" s="3" t="n">
+      <c r="K77" t="n">
         <v>5.333</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="3" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B66" s="3" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D66" s="3" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>7天6板</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>零售+摘帽+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F66" s="3" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G66" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" s="3" t="n">
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
         <v>3</v>
       </c>
-      <c r="J66" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" s="3" t="n">
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D67" s="3" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>6天6板</t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F67" s="3" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G67" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" s="3" t="n">
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="n">
         <v>19</v>
       </c>
-      <c r="I67" s="3" t="n">
+      <c r="I79" t="n">
         <v>1.105</v>
       </c>
-      <c r="J67" s="3" t="n">
+      <c r="J79" t="n">
         <v>2.333</v>
       </c>
-      <c r="K67" s="3" t="n">
+      <c r="K79" t="n">
         <v>3.439</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>002095.SZ</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>生意宝</t>
         </is>
       </c>
-      <c r="D68" s="3" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>5天3板</t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>跨境电商+数据要素</t>
         </is>
       </c>
-      <c r="F68" s="3" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G68" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" s="3" t="inlineStr">
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I68" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" s="3" t="n">
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
         <v>2.333</v>
       </c>
-      <c r="K68" s="3" t="n">
+      <c r="K80" t="n">
         <v>2.333</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>000601.SZ</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>韶能股份</t>
         </is>
       </c>
-      <c r="D69" s="3" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>水电+分红回购+新能源车零部件</t>
         </is>
       </c>
-      <c r="F69" s="3" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" s="3" t="n">
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
         <v>12</v>
       </c>
-      <c r="I69" s="3" t="n">
+      <c r="I81" t="n">
         <v>1.842</v>
       </c>
-      <c r="J69" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" s="3" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
         <v>1.842</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>600051.SH</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>宁波联合</t>
         </is>
       </c>
-      <c r="D70" s="3" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>电力+房地产+进出口贸易</t>
         </is>
       </c>
-      <c r="F70" s="3" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>['电力']</t>
         </is>
       </c>
-      <c r="G70" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3" t="inlineStr">
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3" t="n">
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>1.333</v>
       </c>
-      <c r="K70" s="3" t="n">
+      <c r="K82" t="n">
         <v>1.333</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>2025年04月25日</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>002648.SZ</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>卫星化学</t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>一季报增长+此前股价受关税影响+化工+轻烃</t>
         </is>
       </c>
-      <c r="F71" s="3" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3" t="inlineStr">
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I71" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D72" s="2" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>零售+摘帽+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F72" s="2" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>['一季报增长', '零售']</t>
         </is>
       </c>
-      <c r="G72" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H72" s="2" t="n">
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="n">
         <v>5</v>
       </c>
-      <c r="I72" s="2" t="n">
+      <c r="I84" t="n">
         <v>2.579</v>
       </c>
-      <c r="J72" s="2" t="n">
+      <c r="J84" t="n">
         <v>4.4</v>
       </c>
-      <c r="K72" s="2" t="n">
+      <c r="K84" t="n">
         <v>6.979</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>000965.SZ</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>天保基建</t>
         </is>
       </c>
-      <c r="D73" s="2" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>7天6板</t>
         </is>
       </c>
-      <c r="E73" s="2" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>房地产+大飞机+天津国企</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>['国企', '房地产']</t>
         </is>
       </c>
-      <c r="G73" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H73" s="2" t="n">
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="n">
         <v>11</v>
       </c>
-      <c r="I73" s="2" t="n">
+      <c r="I85" t="n">
         <v>1.947</v>
       </c>
-      <c r="J73" s="2" t="n">
+      <c r="J85" t="n">
         <v>4.8</v>
       </c>
-      <c r="K73" s="2" t="n">
+      <c r="K85" t="n">
         <v>6.747</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>601086.SH</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
       </c>
-      <c r="D74" s="2" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>15天13板</t>
         </is>
       </c>
-      <c r="E74" s="2" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>地天板+零售+参股券商+参投御道智算</t>
         </is>
       </c>
-      <c r="F74" s="2" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" s="2" t="n">
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
         <v>3</v>
       </c>
-      <c r="J74" s="2" t="n">
+      <c r="J86" t="n">
         <v>3</v>
       </c>
-      <c r="K74" s="2" t="n">
+      <c r="K86" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>603696.SH</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>安记食品</t>
         </is>
       </c>
-      <c r="D75" s="2" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>8天7板</t>
         </is>
       </c>
-      <c r="E75" s="2" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>地天板+调味品+新零售+年报增长</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2" t="n">
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
         <v>12</v>
       </c>
-      <c r="I75" s="2" t="n">
+      <c r="I87" t="n">
         <v>1.842</v>
       </c>
-      <c r="J75" s="2" t="n">
+      <c r="J87" t="n">
         <v>3</v>
       </c>
-      <c r="K75" s="2" t="n">
+      <c r="K87" t="n">
         <v>4.842</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>000632.SZ</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>三木集团</t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E76" s="2" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>跨境电商+创投+福建国企</t>
         </is>
       </c>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>['跨境电商', '国企']</t>
         </is>
       </c>
-      <c r="G76" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="n">
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
         <v>4</v>
       </c>
-      <c r="K76" s="2" t="n">
+      <c r="K88" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>600644.SH</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="D77" s="2" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>9天7板</t>
         </is>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>电力+光储</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>['电力']</t>
         </is>
       </c>
-      <c r="G77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="n">
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
         <v>7</v>
       </c>
-      <c r="I77" s="2" t="n">
+      <c r="I89" t="n">
         <v>2.368</v>
       </c>
-      <c r="J77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" s="2" t="n">
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
         <v>3.368</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>002537.SZ</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="D78" s="2" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>跨境支付+汽车零部件</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2" t="n">
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
         <v>6</v>
       </c>
-      <c r="I78" s="2" t="n">
+      <c r="I90" t="n">
         <v>2.474</v>
       </c>
-      <c r="J78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
         <v>2.474</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>002196.SZ</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>方正电机</t>
         </is>
       </c>
-      <c r="D79" s="2" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>机器人关节+新能源驱动电机+国企</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I79" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="n">
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
         <v>2.2</v>
       </c>
-      <c r="K79" s="2" t="n">
+      <c r="K91" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>002564.SZ</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>天沃科技</t>
         </is>
       </c>
-      <c r="D80" s="2" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>10天6板</t>
         </is>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>摘帽+高端装备+业绩增长+上海国企改革</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I80" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="n">
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
         <v>2.2</v>
       </c>
-      <c r="K80" s="2" t="n">
+      <c r="K92" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>002427.SZ</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="D81" s="2" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>拒海水聚酯工业丝+化纤+陕西国资+客户巨力索具</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G81" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" s="2" t="n">
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
         <v>9</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="I93" t="n">
         <v>2.158</v>
       </c>
-      <c r="J81" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
         <v>2.158</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D82" s="2" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>5天5板</t>
         </is>
       </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="n">
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>1.8</v>
       </c>
-      <c r="K82" s="2" t="n">
+      <c r="K94" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>601956.SH</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>东贝集团</t>
         </is>
       </c>
-      <c r="D83" s="2" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G83" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I83" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="n">
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>1.8</v>
       </c>
-      <c r="K83" s="2" t="n">
+      <c r="K95" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>002693.SZ</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>双成药业</t>
         </is>
       </c>
-      <c r="D84" s="2" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>11天6板</t>
         </is>
       </c>
-      <c r="E84" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>资金博弈激烈+此前拟收购宁波奥拉半导体</t>
         </is>
       </c>
-      <c r="F84" s="2" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" s="2" t="n">
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
         <v>16</v>
       </c>
-      <c r="I84" s="2" t="n">
+      <c r="I96" t="n">
         <v>1.421</v>
       </c>
-      <c r="J84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" s="2" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
         <v>1.421</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>603086.SH</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>先达股份</t>
         </is>
       </c>
-      <c r="D85" s="2" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E85" s="2" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
-      <c r="F85" s="2" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I85" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="n">
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
         <v>1.4</v>
       </c>
-      <c r="K85" s="2" t="n">
+      <c r="K97" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>2025年04月24日</t>
         </is>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>002584.SZ</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>西陇科学</t>
         </is>
       </c>
-      <c r="D86" s="2" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>光刻胶+化学试剂+生物医药</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" s="2" t="n">
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
         <v>18</v>
       </c>
-      <c r="I86" s="2" t="n">
+      <c r="I98" t="n">
         <v>1.211</v>
       </c>
-      <c r="J86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
         <v>1.211</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="3" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>002537.SZ</t>
         </is>
       </c>
-      <c r="C87" s="3" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="D87" s="3" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E87" s="3" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>跨境支付+汽车零部件</t>
         </is>
       </c>
-      <c r="F87" s="3" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>['汽车零部件', '跨境支付']</t>
         </is>
       </c>
-      <c r="G87" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H87" s="3" t="n">
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="n">
         <v>12</v>
       </c>
-      <c r="I87" s="3" t="n">
+      <c r="I99" t="n">
         <v>1.842</v>
       </c>
-      <c r="J87" s="3" t="n">
+      <c r="J99" t="n">
         <v>3.75</v>
       </c>
-      <c r="K87" s="3" t="n">
+      <c r="K99" t="n">
         <v>5.592</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="3" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B88" s="3" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>600790.SH</t>
         </is>
       </c>
-      <c r="C88" s="3" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>轻纺城</t>
         </is>
       </c>
-      <c r="D88" s="3" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E88" s="3" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>跨境电商+纺织面料+国企</t>
         </is>
       </c>
-      <c r="F88" s="3" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>['跨境电商', '国企']</t>
         </is>
       </c>
-      <c r="G88" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H88" s="3" t="inlineStr">
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" s="3" t="n">
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
         <v>5.25</v>
       </c>
-      <c r="K88" s="3" t="n">
+      <c r="K100" t="n">
         <v>5.25</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="3" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B89" s="3" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>000632.SZ</t>
         </is>
       </c>
-      <c r="C89" s="3" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>三木集团</t>
         </is>
       </c>
-      <c r="D89" s="3" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E89" s="3" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>跨境电商+创投+福建国企</t>
         </is>
       </c>
-      <c r="F89" s="3" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>['跨境电商', '国企']</t>
         </is>
       </c>
-      <c r="G89" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H89" s="3" t="inlineStr">
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="n">
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
         <v>5.25</v>
       </c>
-      <c r="K89" s="3" t="n">
+      <c r="K101" t="n">
         <v>5.25</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="3" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B90" s="3" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>601008.SH</t>
         </is>
       </c>
-      <c r="C90" s="3" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>连云港</t>
         </is>
       </c>
-      <c r="D90" s="3" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>14天9板</t>
         </is>
       </c>
-      <c r="E90" s="3" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>港口航运+国企</t>
         </is>
       </c>
-      <c r="F90" s="3" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G90" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" s="3" t="n">
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="n">
         <v>6</v>
       </c>
-      <c r="I90" s="3" t="n">
+      <c r="I102" t="n">
         <v>2.474</v>
       </c>
-      <c r="J90" s="3" t="n">
+      <c r="J102" t="n">
         <v>2.75</v>
       </c>
-      <c r="K90" s="3" t="n">
+      <c r="K102" t="n">
         <v>5.224</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="3" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B91" s="3" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C91" s="3" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D91" s="3" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>5天4板</t>
         </is>
       </c>
-      <c r="E91" s="3" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>摘帽+零售+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F91" s="3" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G91" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" s="3" t="n">
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" t="n">
         <v>2.895</v>
       </c>
-      <c r="J91" s="3" t="n">
+      <c r="J103" t="n">
         <v>2.25</v>
       </c>
-      <c r="K91" s="3" t="n">
+      <c r="K103" t="n">
         <v>5.145</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="3" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B92" s="3" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>002094.SZ</t>
         </is>
       </c>
-      <c r="C92" s="3" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>青岛金王</t>
         </is>
       </c>
-      <c r="D92" s="3" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E92" s="3" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>跨境支付+中韩自贸区+蜡烛</t>
         </is>
       </c>
-      <c r="F92" s="3" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G92" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" s="3" t="n">
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
         <v>4</v>
       </c>
-      <c r="I92" s="3" t="n">
+      <c r="I104" t="n">
         <v>2.684</v>
       </c>
-      <c r="J92" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K92" s="3" t="n">
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
         <v>4.684</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="3" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B93" s="3" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>002427.SZ</t>
         </is>
       </c>
-      <c r="C93" s="3" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="D93" s="3" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>5天4板</t>
         </is>
       </c>
-      <c r="E93" s="3" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
         </is>
       </c>
-      <c r="F93" s="3" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" s="3" t="n">
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
         <v>5</v>
       </c>
-      <c r="I93" s="3" t="n">
+      <c r="I105" t="n">
         <v>2.579</v>
       </c>
-      <c r="J93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" s="3" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
         <v>2.579</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="3" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B94" s="3" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C94" s="3" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D94" s="3" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E94" s="3" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F94" s="3" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G94" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" s="3" t="inlineStr">
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I94" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="n">
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
         <v>2.5</v>
       </c>
-      <c r="K94" s="3" t="n">
+      <c r="K106" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="3" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B95" s="3" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>603086.SH</t>
         </is>
       </c>
-      <c r="C95" s="3" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>先达股份</t>
         </is>
       </c>
-      <c r="D95" s="3" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E95" s="3" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
-      <c r="F95" s="3" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>['一季报增长']</t>
         </is>
       </c>
-      <c r="G95" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" s="3" t="inlineStr">
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I95" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" s="3" t="n">
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
         <v>2.25</v>
       </c>
-      <c r="K95" s="3" t="n">
+      <c r="K107" t="n">
         <v>2.25</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="3" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B96" s="3" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>300542.SZ</t>
         </is>
       </c>
-      <c r="C96" s="3" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>新晨科技</t>
         </is>
       </c>
-      <c r="D96" s="3" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E96" s="3" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>拟收购天一恩华+跨境支付+华为</t>
         </is>
       </c>
-      <c r="F96" s="3" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G96" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" s="3" t="inlineStr">
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I96" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K96" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="inlineStr">
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B97" s="3" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>002915.SZ</t>
         </is>
       </c>
-      <c r="C97" s="3" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>中欣氟材</t>
         </is>
       </c>
-      <c r="D97" s="3" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E97" s="3" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>业绩增长+PEEK材料+氟化工</t>
         </is>
       </c>
-      <c r="F97" s="3" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>['业绩增长']</t>
         </is>
       </c>
-      <c r="G97" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" s="3" t="inlineStr">
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" s="3" t="n">
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
         <v>1.5</v>
       </c>
-      <c r="K97" s="3" t="n">
+      <c r="K109" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="3" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B98" s="3" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>600860.SH</t>
         </is>
       </c>
-      <c r="C98" s="3" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>京城股份</t>
         </is>
       </c>
-      <c r="D98" s="3" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E98" s="3" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>天工机器人夺冠+京城机电控股股东</t>
         </is>
       </c>
-      <c r="F98" s="3" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G98" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H98" s="3" t="inlineStr">
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>2025年04月23日</t>
         </is>
       </c>
-      <c r="B99" s="3" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>603119.SH</t>
         </is>
       </c>
-      <c r="C99" s="3" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>浙江荣泰</t>
         </is>
       </c>
-      <c r="D99" s="3" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E99" s="3" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>机器人+战略布局未受关税实质影响+特斯拉供应链</t>
         </is>
       </c>
-      <c r="F99" s="3" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>['机器人']</t>
         </is>
       </c>
-      <c r="G99" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" s="3" t="inlineStr">
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I99" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="inlineStr">
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>603128.SH</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>华贸物流</t>
         </is>
       </c>
-      <c r="D100" s="2" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>6天4板</t>
         </is>
       </c>
-      <c r="E100" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>跨境电商+敦煌网合作+物流+国企改革</t>
         </is>
       </c>
-      <c r="F100" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>['跨境电商', '国企', '物流', '国企改革']</t>
         </is>
       </c>
-      <c r="G100" s="2" t="n">
+      <c r="G112" t="n">
         <v>4</v>
       </c>
-      <c r="H100" s="2" t="n">
+      <c r="H112" t="n">
         <v>19</v>
       </c>
-      <c r="I100" s="2" t="n">
+      <c r="I112" t="n">
         <v>1.105</v>
       </c>
-      <c r="J100" s="2" t="n">
+      <c r="J112" t="n">
         <v>6.857</v>
       </c>
-      <c r="K100" s="2" t="n">
+      <c r="K112" t="n">
         <v>7.962</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>600794.SH</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>保税科技</t>
         </is>
       </c>
-      <c r="D101" s="2" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E101" s="2" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>智慧物流+数字货币+电子商务+国企</t>
         </is>
       </c>
-      <c r="F101" s="2" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>['国企', '物流', '电子商务']</t>
         </is>
       </c>
-      <c r="G101" s="2" t="n">
+      <c r="G113" t="n">
         <v>3</v>
       </c>
-      <c r="H101" s="2" t="n">
+      <c r="H113" t="n">
         <v>8</v>
       </c>
-      <c r="I101" s="2" t="n">
+      <c r="I113" t="n">
         <v>2.263</v>
       </c>
-      <c r="J101" s="2" t="n">
+      <c r="J113" t="n">
         <v>5.286</v>
       </c>
-      <c r="K101" s="2" t="n">
+      <c r="K113" t="n">
         <v>7.549</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>601086.SH</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
       </c>
-      <c r="D102" s="2" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>13天12板</t>
         </is>
       </c>
-      <c r="E102" s="2" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>零售+参股券商+参投御道智算+连续涨停+股价创历史新高</t>
         </is>
       </c>
-      <c r="F102" s="2" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G102" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" s="2" t="n">
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="n">
         <v>2.895</v>
       </c>
-      <c r="J102" s="2" t="n">
+      <c r="J114" t="n">
         <v>2.143</v>
       </c>
-      <c r="K102" s="2" t="n">
+      <c r="K114" t="n">
         <v>5.038</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B103" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>002094.SZ</t>
         </is>
       </c>
-      <c r="C103" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>青岛金王</t>
         </is>
       </c>
-      <c r="D103" s="2" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E103" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>年报净利增长+跨境支付+中韩自贸区+化妆品</t>
         </is>
       </c>
-      <c r="F103" s="2" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G103" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H103" s="2" t="n">
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="n">
         <v>5</v>
       </c>
-      <c r="I103" s="2" t="n">
+      <c r="I115" t="n">
         <v>2.579</v>
       </c>
-      <c r="J103" s="2" t="n">
+      <c r="J115" t="n">
         <v>1.857</v>
       </c>
-      <c r="K103" s="2" t="n">
+      <c r="K115" t="n">
         <v>4.436</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>603696.SH</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>安记食品</t>
         </is>
       </c>
-      <c r="D104" s="2" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>6天6板</t>
         </is>
       </c>
-      <c r="E104" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>调味品+新零售+年报增长</t>
         </is>
       </c>
-      <c r="F104" s="2" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G104" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="n">
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
         <v>15</v>
       </c>
-      <c r="I104" s="2" t="n">
+      <c r="I116" t="n">
         <v>1.526</v>
       </c>
-      <c r="J104" s="2" t="n">
+      <c r="J116" t="n">
         <v>2.143</v>
       </c>
-      <c r="K104" s="2" t="n">
+      <c r="K116" t="n">
         <v>3.669</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>600571.SH</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>信雅达</t>
         </is>
       </c>
-      <c r="D105" s="2" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>跨境支付+金融科技+AI智能体+此前因Pika大涨</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G105" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="n">
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
         <v>14</v>
       </c>
-      <c r="I105" s="2" t="n">
+      <c r="I117" t="n">
         <v>1.632</v>
       </c>
-      <c r="J105" s="2" t="n">
+      <c r="J117" t="n">
         <v>1.857</v>
       </c>
-      <c r="K105" s="2" t="n">
+      <c r="K117" t="n">
         <v>3.489</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D106" s="2" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>4天3板</t>
         </is>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>摘帽+零售+一季报增长+年报扭亏</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G106" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="n">
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
         <v>20</v>
       </c>
-      <c r="I106" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" s="2" t="n">
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
         <v>2.143</v>
       </c>
-      <c r="K106" s="2" t="n">
+      <c r="K118" t="n">
         <v>3.143</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>000965.SZ</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>天保基建</t>
         </is>
       </c>
-      <c r="D107" s="2" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>5天5板</t>
         </is>
       </c>
-      <c r="E107" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>大飞机+房地产+天津国企</t>
         </is>
       </c>
-      <c r="F107" s="2" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G107" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="n">
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
         <v>12</v>
       </c>
-      <c r="I107" s="2" t="n">
+      <c r="I119" t="n">
         <v>1.842</v>
       </c>
-      <c r="J107" s="2" t="n">
+      <c r="J119" t="n">
         <v>1.286</v>
       </c>
-      <c r="K107" s="2" t="n">
+      <c r="K119" t="n">
         <v>3.128</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>002537.SZ</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>海联金汇</t>
         </is>
       </c>
-      <c r="D108" s="2" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E108" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>跨境支付+汽车零部件</t>
         </is>
       </c>
-      <c r="F108" s="2" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>['跨境支付']</t>
         </is>
       </c>
-      <c r="G108" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="n">
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
         <v>18</v>
       </c>
-      <c r="I108" s="2" t="n">
+      <c r="I120" t="n">
         <v>1.211</v>
       </c>
-      <c r="J108" s="2" t="n">
+      <c r="J120" t="n">
         <v>1.857</v>
       </c>
-      <c r="K108" s="2" t="n">
+      <c r="K120" t="n">
         <v>3.068</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>002165.SZ</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>红宝丽</t>
         </is>
       </c>
-      <c r="D109" s="2" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E109" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>环氧丙烷衍生品+光刻胶+出海</t>
         </is>
       </c>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" s="2" t="n">
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
         <v>3</v>
       </c>
-      <c r="J109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" s="2" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>603351.SH</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>威尔药业</t>
         </is>
       </c>
-      <c r="D110" s="2" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>['业绩增长']</t>
         </is>
       </c>
-      <c r="G110" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="n">
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
         <v>2.714</v>
       </c>
-      <c r="K110" s="2" t="n">
+      <c r="K122" t="n">
         <v>2.714</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>603839.SH</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>安正时尚</t>
         </is>
       </c>
-      <c r="D111" s="2" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>服装+电子商务</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>['电子商务']</t>
         </is>
       </c>
-      <c r="G111" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="n">
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
         <v>2.429</v>
       </c>
-      <c r="K111" s="2" t="n">
+      <c r="K123" t="n">
         <v>2.429</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>002640.SZ</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>跨境通</t>
         </is>
       </c>
-      <c r="D112" s="2" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>跨境电商+欧美用户</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G112" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="n">
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
         <v>16</v>
       </c>
-      <c r="I112" s="2" t="n">
+      <c r="I124" t="n">
         <v>1.421</v>
       </c>
-      <c r="J112" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" s="2" t="n">
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
         <v>2.421</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>600644.SH</t>
         </is>
       </c>
-      <c r="C113" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="D113" s="2" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>7天6板</t>
         </is>
       </c>
-      <c r="E113" s="2" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>电力+光储</t>
         </is>
       </c>
-      <c r="F113" s="2" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" s="2" t="n">
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
         <v>7</v>
       </c>
-      <c r="I113" s="2" t="n">
+      <c r="I125" t="n">
         <v>2.368</v>
       </c>
-      <c r="J113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" s="2" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
         <v>2.368</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>600865.SH</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>百大集团</t>
         </is>
       </c>
-      <c r="D114" s="2" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E114" s="2" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>年报净利增长+零售+杭州</t>
         </is>
       </c>
-      <c r="F114" s="2" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G114" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="n">
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
         <v>2.143</v>
       </c>
-      <c r="K114" s="2" t="n">
+      <c r="K126" t="n">
         <v>2.143</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>603697.SH</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>有友食品</t>
         </is>
       </c>
-      <c r="D115" s="2" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>泡凤爪+新零售+年报增长</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G115" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="n">
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
         <v>2.143</v>
       </c>
-      <c r="K115" s="2" t="n">
+      <c r="K127" t="n">
         <v>2.143</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>601008.SH</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>连云港</t>
         </is>
       </c>
-      <c r="D116" s="2" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>13天8板</t>
         </is>
       </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>港口航运+国企</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G116" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="n">
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
         <v>1.286</v>
       </c>
-      <c r="K116" s="2" t="n">
+      <c r="K128" t="n">
         <v>1.286</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>002564.SZ</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>天沃科技</t>
         </is>
       </c>
-      <c r="D117" s="2" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>8天5板</t>
         </is>
       </c>
-      <c r="E117" s="2" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>摘帽+电力设计+高端装备+上海国企</t>
         </is>
       </c>
-      <c r="F117" s="2" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G117" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="n">
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
         <v>1.286</v>
       </c>
-      <c r="K117" s="2" t="n">
+      <c r="K129" t="n">
         <v>1.286</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D118" s="2" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G118" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="inlineStr">
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>2025年04月22日</t>
         </is>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>002095.SZ</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>生意宝</t>
         </is>
       </c>
-      <c r="D119" s="2" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>跨境电商+数据要素</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G119" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="3" t="inlineStr">
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B120" s="3" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>601086.SH</t>
         </is>
       </c>
-      <c r="C120" s="3" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>国芳集团</t>
         </is>
       </c>
-      <c r="D120" s="3" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>12天11板</t>
         </is>
       </c>
-      <c r="E120" s="3" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>零售+参股券商+参投御道智算</t>
         </is>
       </c>
-      <c r="F120" s="3" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G120" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H120" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" s="3" t="n">
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
         <v>3</v>
       </c>
-      <c r="J120" s="3" t="n">
+      <c r="J132" t="n">
         <v>2.2</v>
       </c>
-      <c r="K120" s="3" t="n">
+      <c r="K132" t="n">
         <v>5.2</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="3" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B121" s="3" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>000965.SZ</t>
         </is>
       </c>
-      <c r="C121" s="3" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>天保基建</t>
         </is>
       </c>
-      <c r="D121" s="3" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>4天4板</t>
         </is>
       </c>
-      <c r="E121" s="3" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>房地产+大飞机+天津国企</t>
         </is>
       </c>
-      <c r="F121" s="3" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>['国企', '大飞机']</t>
         </is>
       </c>
-      <c r="G121" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H121" s="3" t="n">
+      <c r="G133" t="n">
+        <v>2</v>
+      </c>
+      <c r="H133" t="n">
         <v>19</v>
       </c>
-      <c r="I121" s="3" t="n">
+      <c r="I133" t="n">
         <v>1.105</v>
       </c>
-      <c r="J121" s="3" t="n">
+      <c r="J133" t="n">
         <v>4</v>
       </c>
-      <c r="K121" s="3" t="n">
+      <c r="K133" t="n">
         <v>5.105</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="3" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B122" s="3" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>002251.SZ</t>
         </is>
       </c>
-      <c r="C122" s="3" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>步步高</t>
         </is>
       </c>
-      <c r="D122" s="3" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E122" s="3" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>摘帽+零售+胖东来帮扶+年报扭亏</t>
         </is>
       </c>
-      <c r="F122" s="3" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G122" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" s="3" t="n">
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
         <v>9</v>
       </c>
-      <c r="I122" s="3" t="n">
+      <c r="I134" t="n">
         <v>2.158</v>
       </c>
-      <c r="J122" s="3" t="n">
+      <c r="J134" t="n">
         <v>2.2</v>
       </c>
-      <c r="K122" s="3" t="n">
+      <c r="K134" t="n">
         <v>4.358</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="3" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B123" s="3" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>600865.SH</t>
         </is>
       </c>
-      <c r="C123" s="3" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>百大集团</t>
         </is>
       </c>
-      <c r="D123" s="3" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E123" s="3" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>年报净利增长+零售+杭州</t>
         </is>
       </c>
-      <c r="F123" s="3" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>['年报净利增长', '零售']</t>
         </is>
       </c>
-      <c r="G123" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H123" s="3" t="inlineStr">
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I123" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" s="3" t="n">
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
         <v>4</v>
       </c>
-      <c r="K123" s="3" t="n">
+      <c r="K135" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="3" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B124" s="3" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>605188.SH</t>
         </is>
       </c>
-      <c r="C124" s="3" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>国光连锁</t>
         </is>
       </c>
-      <c r="D124" s="3" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>6天6板</t>
         </is>
       </c>
-      <c r="E124" s="3" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>零售+生鲜食品+智能物流</t>
         </is>
       </c>
-      <c r="F124" s="3" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G124" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H124" s="3" t="n">
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
         <v>15</v>
       </c>
-      <c r="I124" s="3" t="n">
+      <c r="I136" t="n">
         <v>1.526</v>
       </c>
-      <c r="J124" s="3" t="n">
+      <c r="J136" t="n">
         <v>2.2</v>
       </c>
-      <c r="K124" s="3" t="n">
+      <c r="K136" t="n">
         <v>3.726</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="3" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B125" s="3" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>600794.SH</t>
         </is>
       </c>
-      <c r="C125" s="3" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>保税科技</t>
         </is>
       </c>
-      <c r="D125" s="3" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E125" s="3" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>智慧物流+数字货币+电子商务+国企</t>
         </is>
       </c>
-      <c r="F125" s="3" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G125" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H125" s="3" t="n">
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
         <v>8</v>
       </c>
-      <c r="I125" s="3" t="n">
+      <c r="I137" t="n">
         <v>2.263</v>
       </c>
-      <c r="J125" s="3" t="n">
+      <c r="J137" t="n">
         <v>1.4</v>
       </c>
-      <c r="K125" s="3" t="n">
+      <c r="K137" t="n">
         <v>3.663</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="3" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B126" s="3" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>603900.SH</t>
         </is>
       </c>
-      <c r="C126" s="3" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>莱绅通灵</t>
         </is>
       </c>
-      <c r="D126" s="3" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E126" s="3" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>黄金+珠宝首饰+IP</t>
         </is>
       </c>
-      <c r="F126" s="3" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>['黄金']</t>
         </is>
       </c>
-      <c r="G126" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H126" s="3" t="inlineStr">
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I126" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" s="3" t="n">
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
         <v>3</v>
       </c>
-      <c r="K126" s="3" t="n">
+      <c r="K138" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="3" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B127" s="3" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>002583.SZ</t>
         </is>
       </c>
-      <c r="C127" s="3" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>海能达</t>
         </is>
       </c>
-      <c r="D127" s="3" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E127" s="3" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>6G+对讲机终端+一带一路</t>
         </is>
       </c>
-      <c r="F127" s="3" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G127" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" s="3" t="n">
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" t="n">
         <v>2.895</v>
       </c>
-      <c r="J127" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" s="3" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
         <v>2.895</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="3" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B128" s="3" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>000859.SZ</t>
         </is>
       </c>
-      <c r="C128" s="3" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>国风新材</t>
         </is>
       </c>
-      <c r="D128" s="3" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E128" s="3" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>光刻胶+集成电路PI材料+聚丙烯薄膜+国企</t>
         </is>
       </c>
-      <c r="F128" s="3" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>['国企']</t>
         </is>
       </c>
-      <c r="G128" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H128" s="3" t="n">
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
         <v>18</v>
       </c>
-      <c r="I128" s="3" t="n">
+      <c r="I140" t="n">
         <v>1.211</v>
       </c>
-      <c r="J128" s="3" t="n">
+      <c r="J140" t="n">
         <v>1.4</v>
       </c>
-      <c r="K128" s="3" t="n">
+      <c r="K140" t="n">
         <v>2.611</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="3" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B129" s="3" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>001316.SZ</t>
         </is>
       </c>
-      <c r="C129" s="3" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>润贝航科</t>
         </is>
       </c>
-      <c r="D129" s="3" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E129" s="3" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>大飞机+航空材料+AI眼镜+低空经济</t>
         </is>
       </c>
-      <c r="F129" s="3" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>['大飞机']</t>
         </is>
       </c>
-      <c r="G129" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H129" s="3" t="inlineStr">
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I129" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" s="3" t="n">
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
         <v>2.6</v>
       </c>
-      <c r="K129" s="3" t="n">
+      <c r="K141" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="3" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B130" s="3" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>600644.SH</t>
         </is>
       </c>
-      <c r="C130" s="3" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>乐山电力</t>
         </is>
       </c>
-      <c r="D130" s="3" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>6天5板</t>
         </is>
       </c>
-      <c r="E130" s="3" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>电力+光储</t>
         </is>
       </c>
-      <c r="F130" s="3" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G130" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H130" s="3" t="n">
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
         <v>5</v>
       </c>
-      <c r="I130" s="3" t="n">
+      <c r="I142" t="n">
         <v>2.579</v>
       </c>
-      <c r="J130" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" s="3" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
         <v>2.579</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="3" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B131" s="3" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>603237.SH</t>
         </is>
       </c>
-      <c r="C131" s="3" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>五芳斋</t>
         </is>
       </c>
-      <c r="D131" s="3" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E131" s="3" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>食品加工制造+新零售+市场拓展</t>
         </is>
       </c>
-      <c r="F131" s="3" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G131" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H131" s="3" t="inlineStr">
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I131" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" s="3" t="n">
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
         <v>2.2</v>
       </c>
-      <c r="K131" s="3" t="n">
+      <c r="K143" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="3" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B132" s="3" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>603696.SH</t>
         </is>
       </c>
-      <c r="C132" s="3" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>安记食品</t>
         </is>
       </c>
-      <c r="D132" s="3" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>5天5板</t>
         </is>
       </c>
-      <c r="E132" s="3" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>调味品+新零售</t>
         </is>
       </c>
-      <c r="F132" s="3" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>['零售']</t>
         </is>
       </c>
-      <c r="G132" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H132" s="3" t="inlineStr">
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I132" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" s="3" t="n">
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
         <v>2.2</v>
       </c>
-      <c r="K132" s="3" t="n">
+      <c r="K144" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="3" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B133" s="3" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>600391.SH</t>
         </is>
       </c>
-      <c r="C133" s="3" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>航发科技</t>
         </is>
       </c>
-      <c r="D133" s="3" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E133" s="3" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>航空发动机+军工+央企+年报净利增长</t>
         </is>
       </c>
-      <c r="F133" s="3" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>['年报净利增长']</t>
         </is>
       </c>
-      <c r="G133" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H133" s="3" t="inlineStr">
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I133" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" s="3" t="n">
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
         <v>1.8</v>
       </c>
-      <c r="K133" s="3" t="n">
+      <c r="K145" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="3" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B134" s="3" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>603042.SH</t>
         </is>
       </c>
-      <c r="C134" s="3" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>华脉科技</t>
         </is>
       </c>
-      <c r="D134" s="3" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E134" s="3" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>年报净利增长+铜缆高速连接+数据中心+通信设备</t>
         </is>
       </c>
-      <c r="F134" s="3" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>['年报净利增长']</t>
         </is>
       </c>
-      <c r="G134" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H134" s="3" t="inlineStr">
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I134" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" s="3" t="n">
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
         <v>1.8</v>
       </c>
-      <c r="K134" s="3" t="n">
+      <c r="K146" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="3" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B135" s="3" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>002153.SZ</t>
         </is>
       </c>
-      <c r="C135" s="3" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>石基信息</t>
         </is>
       </c>
-      <c r="D135" s="3" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>3天2板</t>
         </is>
       </c>
-      <c r="E135" s="3" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>跨境支付+大消费行业信息管理软件+云酒店信息系统+阿里合作</t>
         </is>
       </c>
-      <c r="F135" s="3" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G135" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H135" s="3" t="n">
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
         <v>16</v>
       </c>
-      <c r="I135" s="3" t="n">
+      <c r="I147" t="n">
         <v>1.421</v>
       </c>
-      <c r="J135" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" s="3" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
         <v>1.421</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="3" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B136" s="3" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>002427.SZ</t>
         </is>
       </c>
-      <c r="C136" s="3" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>尤夫股份</t>
         </is>
       </c>
-      <c r="D136" s="3" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>3天3板</t>
         </is>
       </c>
-      <c r="E136" s="3" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
         </is>
       </c>
-      <c r="F136" s="3" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="G136" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" s="3" t="n">
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
         <v>17</v>
       </c>
-      <c r="I136" s="3" t="n">
+      <c r="I148" t="n">
         <v>1.316</v>
       </c>
-      <c r="J136" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" s="3" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
         <v>1.316</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="3" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>2025年04月21日</t>
         </is>
       </c>
-      <c r="B137" s="3" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C137" s="3" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D137" s="3" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E137" s="3" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F137" s="3" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G137" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H137" s="3" t="inlineStr">
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I137" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K137" s="3" t="n">
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/limit_up_history.xlsx
+++ b/excel/limit_up_history.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P511"/>
+  <dimension ref="A1:P515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34208,6 +34208,270 @@
         <v>0</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="2" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C512" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D512" s="2" t="inlineStr">
+        <is>
+          <t>1进2</t>
+        </is>
+      </c>
+      <c r="E512" s="2" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F512" s="2" t="inlineStr">
+        <is>
+          <t>34.69%</t>
+        </is>
+      </c>
+      <c r="G512" s="2" t="inlineStr">
+        <is>
+          <t>65.31%</t>
+        </is>
+      </c>
+      <c r="H512" s="2" t="inlineStr">
+        <is>
+          <t>28.00%</t>
+        </is>
+      </c>
+      <c r="I512" s="2" t="inlineStr">
+        <is>
+          <t>56.00%</t>
+        </is>
+      </c>
+      <c r="J512" s="2" t="inlineStr">
+        <is>
+          <t>44.00%</t>
+        </is>
+      </c>
+      <c r="K512" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L512" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="M512" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N512" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O512" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="P512" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C513" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D513" s="2" t="inlineStr">
+        <is>
+          <t>2进3</t>
+        </is>
+      </c>
+      <c r="E513" s="2" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="F513" s="2" t="inlineStr">
+        <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="G513" s="2" t="inlineStr">
+        <is>
+          <t>22.22%</t>
+        </is>
+      </c>
+      <c r="H513" s="2" t="inlineStr">
+        <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="I513" s="2" t="inlineStr">
+        <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="J513" s="2" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="K513" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L513" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M513" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N513" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O513" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="P513" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C514" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D514" s="2" t="inlineStr">
+        <is>
+          <t>3进4</t>
+        </is>
+      </c>
+      <c r="E514" s="2" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="F514" s="2" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="G514" s="2" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="H514" s="2" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="I514" s="2" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="J514" s="2" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="K514" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L514" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M514" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N514" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O514" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P514" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C515" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D515" s="2" t="inlineStr">
+        <is>
+          <t>4进5</t>
+        </is>
+      </c>
+      <c r="E515" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F515" s="2" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="G515" s="2" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="H515" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I515" s="2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="J515" s="2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="K515" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L515" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M515" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N515" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O515" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P515" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -34219,7 +34483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34287,7 +34551,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025年05月08日</t>
+          <t>2025年05月09日</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -34302,7 +34566,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -34319,165 +34583,163 @@
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.474</v>
+        <v>2.684</v>
       </c>
       <c r="J2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="K2" t="n">
-        <v>7.724</v>
+        <v>8.183999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025年05月08日</t>
+          <t>2025年05月09日</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002471.SZ</t>
+          <t>000559.SZ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中超控股</t>
+          <t>万向钱潮</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>曾研发外骨骼机器人用电缆+军工+航空航天+数据中心</t>
+          <t>人形机器人+低空经济+汽车零部件+资产重组</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['军工', '数据中心']</t>
+          <t>['汽车零部件']</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.263</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.763</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025年05月08日</t>
+          <t>2025年05月09日</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>600855.SH</t>
+          <t>603657.SH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>航天长峰</t>
+          <t>春光科技</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>军工电子+低空经济+医疗装备+央企</t>
+          <t>扫地机器人+家电+一季报扭亏</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['军工', '低空经济']</t>
+          <t>['一季报扭亏']</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>1.316</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.316</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025年05月08日</t>
+          <t>2025年05月09日</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>603109.SH</t>
+          <t>600448.SH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>神驰机电</t>
+          <t>华纺股份</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>数据中心+小型发电机+柴油发电机组+一季报增长</t>
+          <t>跨境电商+服装纺织+电子商务+国企改革</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['一季报增长', '数据中心']</t>
+          <t>['国企改革']</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.737</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.737</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025年05月08日</t>
+          <t>2025年05月09日</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -34492,7 +34754,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -34509,79 +34771,79 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.842</v>
+        <v>2.158</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.842</v>
+        <v>3.158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025年05月08日</t>
+          <t>2025年05月09日</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>300581.SZ</t>
+          <t>603610.SH</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>晨曦航空</t>
+          <t>麒盛科技</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>航空装备+军工+无人机</t>
+          <t>脑机接口+智能电动床+鸿蒙+外销</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['军工']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.526</v>
+        <v>2.579</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.526</v>
+        <v>2.579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025年05月08日</t>
+          <t>2025年05月09日</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>603610.SH</t>
+          <t>002977.SZ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>麒盛科技</t>
+          <t>天箭科技</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -34591,16 +34853,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>脑机接口+智能电动床+鸿蒙+外销</t>
+          <t>军工+卫星通信+雷达+一季报增长</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['外销']</t>
+          <t>['军工', '一季报增长']</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -34611,26 +34873,26 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025年05月08日</t>
+          <t>2025年05月09日</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002977.SZ</t>
+          <t>603331.SH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天箭科技</t>
+          <t>百达精工</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -34640,16 +34902,16 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>军工+卫星通信+一季报增长</t>
+          <t>压缩机+汽车零部件</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['军工', '一季报增长']</t>
+          <t>['汽车零部件']</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -34660,73 +34922,73 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025年05月08日</t>
+          <t>2025年05月09日</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001316.SZ</t>
+          <t>002809.SZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>润贝航科</t>
+          <t>红墙股份</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>14天8板</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>大飞机+航空材料+AI眼镜+一季报增长</t>
+          <t>环氧丙烷+混凝土外加剂</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>1.842</v>
       </c>
       <c r="J10" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>1.842</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025年05月08日</t>
+          <t>2025年05月09日</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002490.SZ</t>
+          <t>002338.SZ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>山东墨龙</t>
+          <t>奥普光电</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -34736,7 +34998,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>摘帽+AH两地上市+调入港股通</t>
+          <t>签订2.97亿元光学系统研制合同+大股东长春光机所</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -34748,65 +35010,63 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I11" t="n">
-        <v>1.947</v>
+        <v>1.316</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1.947</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025年05月08日</t>
+          <t>2025年05月09日</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>600448.SH</t>
+          <t>002598.SZ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华纺股份</t>
+          <t>山东章鼓</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>跨境电商+电子商务+服装纺织+国企改革</t>
+          <t>固态电池+磁悬浮技术产品+物流搬运机器人+国企</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['国企改革']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.105</v>
       </c>
       <c r="J12" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.5</v>
+        <v>1.105</v>
       </c>
     </row>
     <row r="13">
@@ -34817,12 +35077,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>300095.SZ</t>
+          <t>002190.SZ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华伍股份</t>
+          <t>成飞集成</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -34832,91 +35092,91 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>航空发动机+此前为巴基斯坦提供配套+工业制动器+智能制造</t>
+          <t>成飞概念+军工+汽车零部件+国企改革</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['军工', '国企改革', '汽车零部件']</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.105</v>
+        <v>2.474</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="K13" t="n">
-        <v>1.105</v>
+        <v>7.724</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025年05月07日</t>
+          <t>2025年05月08日</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>600592.SH</t>
+          <t>002471.SZ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>中超控股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>人形机器人+大飞机+军工+国企</t>
+          <t>曾研发外骨骼机器人用电缆+军工+航空航天+数据中心</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['机器人', '军工', '国企', '大飞机']</t>
+          <t>['军工', '数据中心']</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>2.158</v>
+        <v>2.263</v>
       </c>
       <c r="J14" t="n">
-        <v>6.333</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>8.491</v>
+        <v>5.763</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025年05月07日</t>
+          <t>2025年05月08日</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>600448.SH</t>
+          <t>600855.SH</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华纺股份</t>
+          <t>航天长峰</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -34926,61 +35186,59 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>跨境电商+电子商务+服装纺织+国企改革</t>
+          <t>军工电子+低空经济+医疗装备+央企</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['国企', '国企改革']</t>
+          <t>['军工', '低空经济']</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+      <c r="H15" t="n">
+        <v>17</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.316</v>
       </c>
       <c r="J15" t="n">
-        <v>4.667</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.667</v>
+        <v>4.316</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025年05月07日</t>
+          <t>2025年05月08日</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001316.SZ</t>
+          <t>603109.SH</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>润贝航科</t>
+          <t>神驰机电</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>一季报增长+大飞机+航空材料+AI眼镜</t>
+          <t>数据中心+小型发电机+柴油发电机组+一季报增长</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['一季报增长', '大飞机']</t>
+          <t>['一季报增长', '数据中心']</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -34995,75 +35253,73 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025年05月07日</t>
+          <t>2025年05月08日</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000965.SZ</t>
+          <t>002651.SZ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天保基建</t>
+          <t>利君股份</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13天7板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>房地产+大飞机+天津国企</t>
+          <t>航空零部件+大飞机+军工+机器人</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['国企', '大飞机']</t>
+          <t>['军工']</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.842</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>2.842</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025年05月07日</t>
+          <t>2025年05月08日</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>600410.SH</t>
+          <t>300581.SZ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>晨曦航空</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -35073,63 +35329,63 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>华为昇腾+腾讯+机器人+AI应用</t>
+          <t>航空装备+军工+无人机</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['机器人']</t>
+          <t>['军工']</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I18" t="n">
-        <v>2.895</v>
+        <v>1.526</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>3.895</v>
+        <v>2.526</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025年05月07日</t>
+          <t>2025年05月08日</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>603657.SH</t>
+          <t>603610.SH</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>春光科技</t>
+          <t>麒盛科技</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>一季报扭亏+扫地机器人+家电</t>
+          <t>脑机接口+智能电动床+鸿蒙+外销</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['机器人', '一季报扭亏']</t>
+          <t>['外销']</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -35140,120 +35396,122 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.667</v>
+        <v>2.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.667</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025年05月07日</t>
+          <t>2025年05月08日</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>300879.SZ</t>
+          <t>002977.SZ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大叶股份</t>
+          <t>天箭科技</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>机器人概念+园林机械+一季度业绩增长+全球化布局</t>
+          <t>军工+卫星通信+一季报增长</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['机器人']</t>
+          <t>['军工', '一季报增长']</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I20" t="n">
-        <v>2.263</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.263</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025年05月07日</t>
+          <t>2025年05月08日</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002915.SZ</t>
+          <t>001316.SZ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中欣氟材</t>
+          <t>润贝航科</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9天6板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PEEK材料+氟化工+业绩增长</t>
+          <t>大飞机+航空材料+AI眼镜+一季报增长</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>2.579</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K21" t="n">
-        <v>2.579</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025年05月07日</t>
+          <t>2025年05月08日</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002730.SZ</t>
+          <t>002490.SZ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>电光科技</t>
+          <t>山东墨龙</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -35263,122 +35521,124 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>算力+机器人+防爆设备+智能矿山</t>
+          <t>摘帽+AH两地上市+调入港股通</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['机器人']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>1.421</v>
+        <v>1.947</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.421</v>
+        <v>1.947</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025年05月07日</t>
+          <t>2025年05月08日</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>000565.SZ</t>
+          <t>600448.SH</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>渝三峡A</t>
+          <t>华纺股份</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6天6板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>涂料制造+氢能源+重庆国资+年报扭亏</t>
+          <t>跨境电商+电子商务+服装纺织+国企改革</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['国企改革']</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I23" t="n">
-        <v>2.368</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.368</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025年05月07日</t>
+          <t>2025年05月08日</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>603030.SH</t>
+          <t>300095.SZ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>全筑股份</t>
+          <t>华伍股份</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>机器人+出海+建筑装饰+业绩改善</t>
+          <t>航空发动机+此前为巴基斯坦提供配套+工业制动器+智能制造</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['机器人']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I24" t="n">
-        <v>1.316</v>
+        <v>1.105</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2.316</v>
+        <v>1.105</v>
       </c>
     </row>
     <row r="25">
@@ -35389,12 +35649,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002471.SZ</t>
+          <t>600592.SH</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中超控股</t>
+          <t>龙溪股份</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -35404,28 +35664,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>曾研发外骨骼机器人用电缆+数据中心+航空航天</t>
+          <t>人形机器人+大飞机+军工+国企</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['机器人']</t>
+          <t>['机器人', '军工', '国企', '大飞机']</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I25" t="n">
-        <v>1.211</v>
+        <v>2.158</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>6.333</v>
       </c>
       <c r="K25" t="n">
-        <v>2.211</v>
+        <v>8.491</v>
       </c>
     </row>
     <row r="26">
@@ -35436,31 +35696,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002286.SZ</t>
+          <t>600448.SH</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>保龄宝</t>
+          <t>华纺股份</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>一季报增长+代糖概念+客户合作</t>
+          <t>跨境电商+电子商务+服装纺织+国企改革</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>['国企', '国企改革']</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -35471,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>4.667</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>4.667</v>
       </c>
     </row>
     <row r="27">
@@ -35485,43 +35745,45 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>601086.SH</t>
+          <t>001316.SZ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国芳集团</t>
+          <t>润贝航科</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21天14板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>零售+参股券商+参投御道智算</t>
+          <t>一季报增长+大飞机+航空材料+AI眼镜</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['一季报增长', '大飞机']</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I27" t="n">
-        <v>1.526</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>4.333</v>
       </c>
       <c r="K27" t="n">
-        <v>1.526</v>
+        <v>4.333</v>
       </c>
     </row>
     <row r="28">
@@ -35532,31 +35794,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>300884.SZ</t>
+          <t>000965.SZ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>狄耐克</t>
+          <t>天保基建</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>13天7板</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>华为+智能家居+脑机接口+机器人</t>
+          <t>房地产+大飞机+天津国企</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['机器人']</t>
+          <t>['国企', '大飞机']</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -35567,75 +35829,73 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025年05月06日</t>
+          <t>2025年05月07日</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>603286.SH</t>
+          <t>600410.SH</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>日盈电子</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>人形机器人+汽车零部件</t>
+          <t>华为昇腾+腾讯+机器人+AI应用</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['机器人', '汽车零部件', '人形机器人']</t>
+          <t>['机器人']</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.895</v>
       </c>
       <c r="J29" t="n">
-        <v>6.667</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>6.667</v>
+        <v>3.895</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025年05月06日</t>
+          <t>2025年05月07日</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>605133.SH</t>
+          <t>603657.SH</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>嵘泰股份</t>
+          <t>春光科技</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -35645,16 +35905,16 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>人形机器人+汽车零部件+业绩增长+全球化布局</t>
+          <t>一季报扭亏+扫地机器人+家电</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['机器人', '汽车零部件', '人形机器人']</t>
+          <t>['机器人', '一季报扭亏']</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -35665,337 +35925,327 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.667</v>
+        <v>3.667</v>
       </c>
       <c r="K30" t="n">
-        <v>6.667</v>
+        <v>3.667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025年05月06日</t>
+          <t>2025年05月07日</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>603040.SH</t>
+          <t>300879.SZ</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>新坐标</t>
+          <t>大叶股份</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>4天3板</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>一季报增长+滚珠丝杠+汽车零部件+外销</t>
+          <t>机器人概念+园林机械+一季度业绩增长+全球化布局</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['一季报增长', '汽车零部件', '外销']</t>
+          <t>['机器人']</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.263</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>3.263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025年05月06日</t>
+          <t>2025年05月07日</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002664.SZ</t>
+          <t>002915.SZ</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>信质集团</t>
+          <t>中欣氟材</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>9天6板</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>人形机器人+汽车电机+华为+无人机</t>
+          <t>PEEK材料+氟化工+业绩增长</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['机器人', '华为', '人形机器人']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.579</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>6</v>
+        <v>2.579</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025年05月06日</t>
+          <t>2025年05月07日</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>000158.SZ</t>
+          <t>002730.SZ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>常山北明</t>
+          <t>电光科技</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>华为+国企+一季报增长</t>
+          <t>算力+机器人+防爆设备+智能矿山</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['一季报增长', '华为']</t>
+          <t>['机器人']</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I33" t="n">
-        <v>2.789</v>
+        <v>1.421</v>
       </c>
       <c r="J33" t="n">
-        <v>2.667</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>5.456</v>
+        <v>2.421</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025年05月06日</t>
+          <t>2025年05月07日</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>600592.SH</t>
+          <t>000565.SZ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>渝三峡A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>6天6板</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>人形机器人+大飞机+军工+国企</t>
+          <t>涂料制造+氢能源+重庆国资+年报扭亏</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['机器人', '人形机器人']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.368</v>
       </c>
       <c r="J34" t="n">
-        <v>4.333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>4.333</v>
+        <v>2.368</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025年05月06日</t>
+          <t>2025年05月07日</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>603166.SH</t>
+          <t>603030.SH</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>福达股份</t>
+          <t>全筑股份</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>机器人+曲轴+汽车零部件+拟获得长坂科技35%股权</t>
+          <t>机器人+出海+建筑装饰+业绩改善</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['机器人', '汽车零部件']</t>
+          <t>['机器人']</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>17</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.316</v>
       </c>
       <c r="J35" t="n">
-        <v>3.667</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>3.667</v>
+        <v>2.316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025年05月06日</t>
+          <t>2025年05月07日</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002730.SZ</t>
+          <t>002471.SZ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>电光科技</t>
+          <t>中超控股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>算力+机器人+防爆设备+智能矿山</t>
+          <t>曾研发外骨骼机器人用电缆+数据中心+航空航天</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['机器人', '算力']</t>
+          <t>['机器人']</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>18</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.211</v>
       </c>
       <c r="J36" t="n">
-        <v>3.333</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.333</v>
+        <v>2.211</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025年05月06日</t>
+          <t>2025年05月07日</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002355.SZ</t>
+          <t>002286.SZ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>兴民智通</t>
+          <t>保龄宝</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>一季报增长+车联网+算力+低空经济</t>
+          <t>一季报增长+代糖概念+客户合作</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['一季报增长', '算力']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -36006,88 +36256,88 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025年05月06日</t>
+          <t>2025年05月07日</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>600744.SH</t>
+          <t>601086.SH</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华银电力</t>
+          <t>国芳集团</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6天4板</t>
+          <t>21天14板</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>电力+一季报增长+央企</t>
+          <t>零售+参股券商+参投御道智算</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="n">
-        <v>1.632</v>
+        <v>1.526</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.632</v>
+        <v>1.526</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025年05月06日</t>
+          <t>2025年05月07日</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>603335.SH</t>
+          <t>300884.SZ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>迪生力</t>
+          <t>狄耐克</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>汽车零部件出口+新三板股权认购+锂电池回收</t>
+          <t>华为+智能家居+脑机接口+机器人</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['汽车零部件']</t>
+          <t>['机器人']</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -36102,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.333</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>2.333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -36116,43 +36366,45 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>000565.SZ</t>
+          <t>603286.SH</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>渝三峡A</t>
+          <t>日盈电子</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5天5板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>涂料制造+氢能源+重庆国资+年报扭亏</t>
+          <t>人形机器人+汽车零部件</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['机器人', '汽车零部件', '人形机器人']</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I40" t="n">
-        <v>2.263</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>6.667</v>
       </c>
       <c r="K40" t="n">
-        <v>2.263</v>
+        <v>6.667</v>
       </c>
     </row>
     <row r="41">
@@ -36163,12 +36415,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>002272.SZ</t>
+          <t>605133.SH</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川润股份</t>
+          <t>嵘泰股份</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -36178,16 +36430,16 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>华为+液冷服务器+高端能源装备</t>
+          <t>人形机器人+汽车零部件+业绩增长+全球化布局</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>['华为']</t>
+          <t>['机器人', '汽车零部件', '人形机器人']</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -36198,10 +36450,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.667</v>
+        <v>6.667</v>
       </c>
       <c r="K41" t="n">
-        <v>1.667</v>
+        <v>6.667</v>
       </c>
     </row>
     <row r="42">
@@ -36212,31 +36464,31 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>002471.SZ</t>
+          <t>603040.SH</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中超控股</t>
+          <t>新坐标</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>曾研发外骨骼机器人用电缆+数据中心+航空航天</t>
+          <t>一季报增长+滚珠丝杠+汽车零部件+外销</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['机器人']</t>
+          <t>['一季报增长', '汽车零部件', '外销']</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -36247,10 +36499,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
-        <v>1.333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -36261,31 +36513,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>603030.SH</t>
+          <t>002664.SZ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>全筑股份</t>
+          <t>信质集团</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>机器人+建筑装饰+出海+业绩改善</t>
+          <t>人形机器人+汽车电机+华为+无人机</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['机器人']</t>
+          <t>['机器人', '华为', '人形机器人']</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -36296,10 +36548,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>1.333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -36310,45 +36562,43 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>300879.SZ</t>
+          <t>000158.SZ</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>大叶股份</t>
+          <t>常山北明</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>机器人概念+园林机械+一季度业绩增长+全球化布局</t>
+          <t>华为+国企+一季报增长</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['机器人']</t>
+          <t>['一季报增长', '华为']</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.789</v>
       </c>
       <c r="J44" t="n">
-        <v>1.333</v>
+        <v>2.667</v>
       </c>
       <c r="K44" t="n">
-        <v>1.333</v>
+        <v>5.456</v>
       </c>
     </row>
     <row r="45">
@@ -36359,31 +36609,31 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>603586.SH</t>
+          <t>600592.SH</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>金麒麟</t>
+          <t>龙溪股份</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>汽车制动零部件+海外市场拓展+一季报增长</t>
+          <t>人形机器人+大飞机+军工+国企</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>['机器人', '人形机器人']</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -36394,10 +36644,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>4.333</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>4.333</v>
       </c>
     </row>
     <row r="46">
@@ -36408,12 +36658,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>001316.SZ</t>
+          <t>603166.SH</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>润贝航科</t>
+          <t>福达股份</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -36423,16 +36673,16 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>一季报增长+大飞机+航空材料+AI眼镜</t>
+          <t>机器人+曲轴+汽车零部件+拟获得长坂科技35%股权</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>['机器人', '汽车零部件']</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -36443,10 +36693,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>3.667</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>3.667</v>
       </c>
     </row>
     <row r="47">
@@ -36457,31 +36707,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>603086.SH</t>
+          <t>002730.SZ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>先达股份</t>
+          <t>电光科技</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>9天6板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>一季报增长+烯草酮+农药+大豆</t>
+          <t>算力+机器人+防爆设备+智能矿山</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>['机器人', '算力']</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -36492,280 +36742,282 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>3.333</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>3.333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025年04月30日</t>
+          <t>2025年05月06日</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>002229.SZ</t>
+          <t>002355.SZ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>鸿博股份</t>
+          <t>兴民智通</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
+          <t>一季报增长+车联网+算力+低空经济</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['算力']</t>
+          <t>['一季报增长', '算力']</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I48" t="n">
-        <v>2.684</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>5.284</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025年04月30日</t>
+          <t>2025年05月06日</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>603040.SH</t>
+          <t>600744.SH</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>新坐标</t>
+          <t>华银电力</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>6天4板</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>一季报增长+滚珠丝杠+汽车零部件+外销</t>
+          <t>电力+一季报增长+央企</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['一季报增长', '汽车零部件']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>14</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1.632</v>
       </c>
       <c r="J49" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>2.8</v>
+        <v>2.632</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025年04月30日</t>
+          <t>2025年05月06日</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>002915.SZ</t>
+          <t>603335.SH</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中欣氟材</t>
+          <t>迪生力</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7天5板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PEEK材料+氟化工+业绩增长</t>
+          <t>汽车零部件出口+新三板股权认购+锂电池回收</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['汽车零部件']</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I50" t="n">
-        <v>2.474</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>2.333</v>
       </c>
       <c r="K50" t="n">
-        <v>2.474</v>
+        <v>2.333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025年04月30日</t>
+          <t>2025年05月06日</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>603922.SH</t>
+          <t>000565.SZ</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>金鸿顺</t>
+          <t>渝三峡A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>5天5板</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>汽车零部件+模具+拟并购新思考电机</t>
+          <t>涂料制造+氢能源+重庆国资+年报扭亏</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['汽车零部件']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2.263</v>
       </c>
       <c r="J51" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1.8</v>
+        <v>2.263</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025年04月30日</t>
+          <t>2025年05月06日</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>000565.SZ</t>
+          <t>002272.SZ</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>渝三峡A</t>
+          <t>川润股份</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>涂料制造+氢能源+国企改革</t>
+          <t>华为+液冷服务器+高端能源装备</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['华为']</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I52" t="n">
-        <v>1.632</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1.667</v>
       </c>
       <c r="K52" t="n">
-        <v>1.632</v>
+        <v>1.667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025年04月30日</t>
+          <t>2025年05月06日</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>603586.SH</t>
+          <t>002471.SZ</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>金麒麟</t>
+          <t>中超控股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>一季报增长+汽车制动零部件+海外市场拓展</t>
+          <t>曾研发外骨骼机器人用电缆+数据中心+航空航天</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>['机器人']</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -36780,41 +37032,41 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>1.333</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>1.333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025年04月30日</t>
+          <t>2025年05月06日</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>002164.SZ</t>
+          <t>603030.SH</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>宁波东力</t>
+          <t>全筑股份</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>一季报增长+机器人关节+齿轮箱+电机</t>
+          <t>机器人+建筑装饰+出海+业绩改善</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>['机器人']</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -36829,139 +37081,143 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>1.333</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>1.333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年05月06日</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>002915.SZ</t>
+          <t>300879.SZ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中欣氟材</t>
+          <t>大叶股份</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6天4板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PEEK材料+氟化工+业绩增长</t>
+          <t>机器人概念+园林机械+一季度业绩增长+全球化布局</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['PEEK材料', '化工']</t>
+          <t>['机器人']</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I55" t="n">
-        <v>2.474</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="K55" t="n">
-        <v>5.974</v>
+        <v>1.333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年05月06日</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>600828.SH</t>
+          <t>603586.SH</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>茂业商业</t>
+          <t>金麒麟</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>4天3板</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>零售+首店经济+即时零售</t>
+          <t>汽车制动零部件+海外市场拓展+一季报增长</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I56" t="n">
-        <v>2.789</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>2.789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年05月06日</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>603086.SH</t>
+          <t>001316.SZ</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>先达股份</t>
+          <t>润贝航科</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7天5板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>一季报增长+烯草酮+农药+大豆</t>
+          <t>一季报增长+大飞机+航空材料+AI眼镜</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['一季报增长', '农药']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -36972,329 +37228,333 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>2.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年05月06日</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>002229.SZ</t>
+          <t>603086.SH</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>鸿博股份</t>
+          <t>先达股份</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>9天6板</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
+          <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I58" t="n">
-        <v>2.579</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>2.579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002809.SZ</t>
+          <t>002229.SZ</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>红墙股份</t>
+          <t>鸿博股份</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>9天6板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>环氧丙烷+混凝土外加剂+化学制品</t>
+          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['算力']</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>1.737</v>
+        <v>2.684</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="K59" t="n">
-        <v>1.737</v>
+        <v>5.284</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>002365.SZ</t>
+          <t>603040.SH</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>永安药业</t>
+          <t>新坐标</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7天5板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>牛磺酸+对美出口业务正常</t>
+          <t>一季报增长+滚珠丝杠+汽车零部件+外销</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['一季报增长', '汽车零部件']</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I60" t="n">
-        <v>1.632</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K60" t="n">
-        <v>1.632</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>603065.SH</t>
+          <t>002915.SZ</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>宿迁联盛</t>
+          <t>中欣氟材</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>7天5板</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>受阻胺光稳定剂+高分子材料防老化助剂+外销</t>
+          <t>PEEK材料+氟化工+业绩增长</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['外销']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2.474</v>
       </c>
       <c r="J61" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1.25</v>
+        <v>2.474</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025年04月29日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>002196.SZ</t>
+          <t>603922.SH</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>方正电机</t>
+          <t>金鸿顺</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>机器人关节+新能源驱动电机+国企</t>
+          <t>汽车零部件+模具+拟并购新思考电机</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['汽车零部件']</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>600744.SH</t>
+          <t>000565.SZ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华银电力</t>
+          <t>渝三峡A</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>电力+一季报增长+光伏+国企</t>
+          <t>涂料制造+氢能源+国企改革</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['一季报增长', '电力', '国企']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I63" t="n">
-        <v>1.947</v>
+        <v>1.632</v>
       </c>
       <c r="J63" t="n">
-        <v>5.571</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>7.519</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>600726.SH</t>
+          <t>603586.SH</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华电能源</t>
+          <t>金麒麟</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>绿色电力+一季报增长+央企</t>
+          <t>一季报增长+汽车制动零部件+海外市场拓展</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['一季报增长', '电力', '央企']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -37305,228 +37565,228 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>5.857</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>5.857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月30日</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>002564.SZ</t>
+          <t>002164.SZ</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天沃科技</t>
+          <t>宁波东力</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12天7板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>摘帽+高端装备+业绩增长+上海国企改革</t>
+          <t>一季报增长+机器人关节+齿轮箱+电机</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['业绩增长', '国企']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
-      </c>
-      <c r="H65" t="n">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I65" t="n">
-        <v>1.842</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.714</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>5.556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>000565.SZ</t>
+          <t>002915.SZ</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>渝三峡A</t>
+          <t>中欣氟材</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>6天4板</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>涂料制造+氢能源+国企改革</t>
+          <t>PEEK材料+氟化工+业绩增长</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['国企', '氢能源']</t>
+          <t>['PEEK材料', '化工']</t>
         </is>
       </c>
       <c r="G66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+      <c r="H66" t="n">
+        <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2.474</v>
       </c>
       <c r="J66" t="n">
-        <v>5.429</v>
+        <v>3.5</v>
       </c>
       <c r="K66" t="n">
-        <v>5.429</v>
+        <v>5.974</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>600396.SH</t>
+          <t>600828.SH</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华电辽能</t>
+          <t>茂业商业</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>电力+央企+一季报净利增长+海上风电</t>
+          <t>零售+首店经济+即时零售</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['电力', '央企']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2.789</v>
       </c>
       <c r="J67" t="n">
-        <v>4.857</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>4.857</v>
+        <v>2.789</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>601956.SH</t>
+          <t>603086.SH</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东贝集团</t>
+          <t>先达股份</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>7天5板</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
+          <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['跨境电商']</t>
+          <t>['一季报增长', '农药']</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I68" t="n">
-        <v>1.632</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.857</v>
+        <v>2.75</v>
       </c>
       <c r="K68" t="n">
-        <v>3.489</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>002354.SZ</t>
+          <t>002229.SZ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天娱数科</t>
+          <t>鸿博股份</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AI应用+人形机器人+营收增长</t>
+          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -37538,89 +37798,89 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I69" t="n">
-        <v>2.895</v>
+        <v>2.579</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>2.895</v>
+        <v>2.579</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>002098.SZ</t>
+          <t>002809.SZ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>浔兴股份</t>
+          <t>红墙股份</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>9天6板</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>跨境支付+跨境电商+敦煌网+拉链</t>
+          <t>环氧丙烷+混凝土外加剂+化学制品</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>['跨境电商']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>1.737</v>
       </c>
       <c r="J70" t="n">
-        <v>1.857</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>2.857</v>
+        <v>1.737</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>002229.SZ</t>
+          <t>002365.SZ</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鸿博股份</t>
+          <t>永安药业</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>7天5板</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
+          <t>牛磺酸+对美出口业务正常</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -37632,112 +37892,112 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I71" t="n">
-        <v>1.526</v>
+        <v>1.632</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1.526</v>
+        <v>1.632</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>002365.SZ</t>
+          <t>603065.SH</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>永安药业</t>
+          <t>宿迁联盛</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>牛磺酸+业绩扭亏+对美出口业务正常</t>
+          <t>受阻胺光稳定剂+高分子材料防老化助剂+外销</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['外销']</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I72" t="n">
-        <v>1.316</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K72" t="n">
-        <v>1.316</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025年04月28日</t>
+          <t>2025年04月29日</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>603351.SH</t>
+          <t>002196.SZ</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>威尔药业</t>
+          <t>方正电机</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7天4板</t>
+          <t>5天3板</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
+          <t>机器人关节+新能源驱动电机+国企</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>['业绩增长']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>20</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1.286</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>1.286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -37748,61 +38008,59 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>603605.SH</t>
+          <t>600744.SH</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>珀莱雅</t>
+          <t>华银电力</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>一季报增长+化妆品</t>
+          <t>电力+一季报增长+光伏+国企</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>['一季报增长', '电力', '国企']</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>11</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1.947</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>5.571</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>7.519</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>600505.SH</t>
+          <t>600726.SH</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>西昌电力</t>
+          <t>华电能源</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -37812,195 +38070,201 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>电力+光伏发电+央企+扭亏为盈</t>
+          <t>绿色电力+一季报增长+央企</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>['电力', '央企', '光伏']</t>
+          <t>['一季报增长', '电力', '央企']</t>
         </is>
       </c>
       <c r="G75" t="n">
         <v>3</v>
       </c>
-      <c r="H75" t="n">
-        <v>4</v>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I75" t="n">
-        <v>2.684</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>5.667</v>
+        <v>5.857</v>
       </c>
       <c r="K75" t="n">
-        <v>8.351000000000001</v>
+        <v>5.857</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>600744.SH</t>
+          <t>002564.SZ</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华银电力</t>
+          <t>天沃科技</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>12天7板</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>电力+一季报增长+光伏+国企</t>
+          <t>摘帽+高端装备+业绩增长+上海国企改革</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['一季报增长', '电力', '光伏']</t>
+          <t>['业绩增长', '国企']</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I76" t="n">
-        <v>2.263</v>
+        <v>1.842</v>
       </c>
       <c r="J76" t="n">
-        <v>5</v>
+        <v>3.714</v>
       </c>
       <c r="K76" t="n">
-        <v>7.263</v>
+        <v>5.556</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>601956.SH</t>
+          <t>000565.SZ</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东贝集团</t>
+          <t>渝三峡A</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
+          <t>涂料制造+氢能源+国企改革</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['人形机器人', '跨境电商']</t>
+          <t>['国企', '氢能源']</t>
         </is>
       </c>
       <c r="G77" t="n">
         <v>2</v>
       </c>
-      <c r="H77" t="n">
-        <v>20</v>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>4.333</v>
+        <v>5.429</v>
       </c>
       <c r="K77" t="n">
-        <v>5.333</v>
+        <v>5.429</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>002251.SZ</t>
+          <t>600396.SH</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>华电辽能</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7天6板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>零售+摘帽+一季报增长+年报扭亏</t>
+          <t>电力+央企+一季报净利增长+海上风电</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>['电力', '央企']</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>4.857</v>
       </c>
       <c r="K78" t="n">
-        <v>4</v>
+        <v>4.857</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>003003.SZ</t>
+          <t>601956.SH</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天元股份</t>
+          <t>东贝集团</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6天6板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>跨境电商+可降解塑料+快递包装</t>
+          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -38012,128 +38276,126 @@
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I79" t="n">
-        <v>1.105</v>
+        <v>1.632</v>
       </c>
       <c r="J79" t="n">
-        <v>2.333</v>
+        <v>1.857</v>
       </c>
       <c r="K79" t="n">
-        <v>3.439</v>
+        <v>3.489</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>002095.SZ</t>
+          <t>002354.SZ</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>生意宝</t>
+          <t>天娱数科</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>跨境电商+数据要素</t>
+          <t>AI应用+人形机器人+营收增长</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>['跨境电商']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>2.895</v>
       </c>
       <c r="J80" t="n">
-        <v>2.333</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>2.333</v>
+        <v>2.895</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>000601.SZ</t>
+          <t>002098.SZ</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>韶能股份</t>
+          <t>浔兴股份</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>水电+分红回购+新能源车零部件</t>
+          <t>跨境支付+跨境电商+敦煌网+拉链</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I81" t="n">
-        <v>1.842</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>1.857</v>
       </c>
       <c r="K81" t="n">
-        <v>1.842</v>
+        <v>2.857</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>600051.SH</t>
+          <t>002229.SZ</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>宁波联合</t>
+          <t>鸿博股份</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -38143,283 +38405,283 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>电力+房地产+进出口贸易</t>
+          <t>一季报同比扭亏为盈+算力+彩票+无实控人</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>['电力']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>15</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1.526</v>
       </c>
       <c r="J82" t="n">
-        <v>1.333</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>1.333</v>
+        <v>1.526</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025年04月25日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>002648.SZ</t>
+          <t>002365.SZ</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>卫星化学</t>
+          <t>永安药业</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>6天4板</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>一季报增长+此前股价受关税影响+化工+轻烃</t>
+          <t>牛磺酸+业绩扭亏+对美出口业务正常</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>17</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1.316</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>002251.SZ</t>
+          <t>603351.SH</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>威尔药业</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>6天5板</t>
+          <t>7天4板</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>零售+摘帽+一季报增长+年报扭亏</t>
+          <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>['一季报增长', '零售']</t>
+          <t>['业绩增长']</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
-      </c>
-      <c r="H84" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I84" t="n">
-        <v>2.579</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>4.4</v>
+        <v>1.286</v>
       </c>
       <c r="K84" t="n">
-        <v>6.979</v>
+        <v>1.286</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月28日</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>000965.SZ</t>
+          <t>603605.SH</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>天保基建</t>
+          <t>珀莱雅</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7天6板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>房地产+大飞机+天津国企</t>
+          <t>一季报增长+化妆品</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>['国企', '房地产']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
-      </c>
-      <c r="H85" t="n">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I85" t="n">
-        <v>1.947</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>6.747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>601086.SH</t>
+          <t>600505.SH</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>国芳集团</t>
+          <t>西昌电力</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>15天13板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>地天板+零售+参股券商+参投御道智算</t>
+          <t>电力+光伏发电+央企+扭亏为盈</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>['电力', '央企', '光伏']</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2.684</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>5.667</v>
       </c>
       <c r="K86" t="n">
-        <v>6</v>
+        <v>8.351000000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>603696.SH</t>
+          <t>600744.SH</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>安记食品</t>
+          <t>华银电力</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>8天7板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>地天板+调味品+新零售+年报增长</t>
+          <t>电力+一季报增长+光伏+国企</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>['一季报增长', '电力', '光伏']</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I87" t="n">
-        <v>1.842</v>
+        <v>2.263</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K87" t="n">
-        <v>4.842</v>
+        <v>7.263</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>000632.SZ</t>
+          <t>601956.SH</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>三木集团</t>
+          <t>东贝集团</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -38429,155 +38691,153 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>跨境电商+创投+福建国企</t>
+          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['跨境电商', '国企']</t>
+          <t>['人形机器人', '跨境电商']</t>
         </is>
       </c>
       <c r="G88" t="n">
         <v>2</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+      <c r="H88" t="n">
+        <v>20</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="K88" t="n">
-        <v>4</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>600644.SH</t>
+          <t>002251.SZ</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>乐山电力</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>9天7板</t>
+          <t>7天6板</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>电力+光储</t>
+          <t>零售+摘帽+一季报增长+年报扭亏</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['电力']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G89" t="n">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>2.368</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>3.368</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>002537.SZ</t>
+          <t>003003.SZ</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>海联金汇</t>
+          <t>天元股份</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>6天6板</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>跨境支付+汽车零部件</t>
+          <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I90" t="n">
-        <v>2.474</v>
+        <v>1.105</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>2.333</v>
       </c>
       <c r="K90" t="n">
-        <v>2.474</v>
+        <v>3.439</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>002196.SZ</t>
+          <t>002095.SZ</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>方正电机</t>
+          <t>生意宝</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>5天3板</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>机器人关节+新能源驱动电机+国企</t>
+          <t>跨境电商+数据要素</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>['国企']</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -38592,137 +38852,137 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.2</v>
+        <v>2.333</v>
       </c>
       <c r="K91" t="n">
-        <v>2.2</v>
+        <v>2.333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>002564.SZ</t>
+          <t>000601.SZ</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>天沃科技</t>
+          <t>韶能股份</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10天6板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>摘帽+高端装备+业绩增长+上海国企改革</t>
+          <t>水电+分红回购+新能源车零部件</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>['国企']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>12</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1.842</v>
       </c>
       <c r="J92" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>2.2</v>
+        <v>1.842</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>002427.SZ</t>
+          <t>600051.SH</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>尤夫股份</t>
+          <t>宁波联合</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6天5板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>拒海水聚酯工业丝+化纤+陕西国资+客户巨力索具</t>
+          <t>电力+房地产+进出口贸易</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['电力']</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I93" t="n">
-        <v>2.158</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1.333</v>
       </c>
       <c r="K93" t="n">
-        <v>2.158</v>
+        <v>1.333</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025年04月24日</t>
+          <t>2025年04月25日</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>003003.SZ</t>
+          <t>002648.SZ</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>天元股份</t>
+          <t>卫星化学</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>5天5板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>跨境电商+可降解塑料+快递包装</t>
+          <t>一季报增长+此前股价受关税影响+化工+轻烃</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>['跨境电商']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -38737,10 +38997,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -38751,45 +39011,43 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>601956.SH</t>
+          <t>002251.SZ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>东贝集团</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>6天5板</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
+          <t>零售+摘帽+一季报增长+年报扭亏</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>['跨境电商']</t>
+          <t>['一季报增长', '零售']</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>2.579</v>
       </c>
       <c r="J95" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="K95" t="n">
-        <v>1.8</v>
+        <v>6.979</v>
       </c>
     </row>
     <row r="96">
@@ -38800,43 +39058,43 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>002693.SZ</t>
+          <t>000965.SZ</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>双成药业</t>
+          <t>天保基建</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>11天6板</t>
+          <t>7天6板</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>资金博弈激烈+此前拟收购宁波奥拉半导体</t>
+          <t>房地产+大飞机+天津国企</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['国企', '房地产']</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I96" t="n">
-        <v>1.421</v>
+        <v>1.947</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="K96" t="n">
-        <v>1.421</v>
+        <v>6.747</v>
       </c>
     </row>
     <row r="97">
@@ -38847,45 +39105,43 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>603086.SH</t>
+          <t>601086.SH</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>先达股份</t>
+          <t>国芳集团</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>15天13板</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>一季报增长+烯草酮+农药+大豆</t>
+          <t>地天板+零售+参股券商+参投御道智算</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>['零售']</t>
         </is>
       </c>
       <c r="G97" t="n">
         <v>1</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+      <c r="H97" t="n">
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -38896,59 +39152,59 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>002584.SZ</t>
+          <t>603696.SH</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>西陇科学</t>
+          <t>安记食品</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>8天7板</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>光刻胶+化学试剂+生物医药</t>
+          <t>地天板+调味品+新零售+年报增长</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['零售']</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I98" t="n">
-        <v>1.211</v>
+        <v>1.842</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K98" t="n">
-        <v>1.211</v>
+        <v>4.842</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>002537.SZ</t>
+          <t>000632.SZ</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>海联金汇</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -38958,152 +39214,150 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>跨境支付+汽车零部件</t>
+          <t>跨境电商+创投+福建国企</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>['汽车零部件', '跨境支付']</t>
+          <t>['跨境电商', '国企']</t>
         </is>
       </c>
       <c r="G99" t="n">
         <v>2</v>
       </c>
-      <c r="H99" t="n">
-        <v>12</v>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I99" t="n">
-        <v>1.842</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K99" t="n">
-        <v>5.592</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>600790.SH</t>
+          <t>600644.SH</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>轻纺城</t>
+          <t>乐山电力</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>9天7板</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>跨境电商+纺织面料+国企</t>
+          <t>电力+光储</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>['跨境电商', '国企']</t>
+          <t>['电力']</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2.368</v>
       </c>
       <c r="J100" t="n">
-        <v>5.25</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>5.25</v>
+        <v>3.368</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>000632.SZ</t>
+          <t>002537.SZ</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>三木集团</t>
+          <t>海联金汇</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>跨境电商+创投+福建国企</t>
+          <t>跨境支付+汽车零部件</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>['跨境电商', '国企']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2.474</v>
       </c>
       <c r="J101" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>5.25</v>
+        <v>2.474</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>601008.SH</t>
+          <t>002196.SZ</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>方正电机</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>14天9板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>港口航运+国企</t>
+          <t>机器人关节+新能源驱动电机+国企</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -39114,184 +39368,190 @@
       <c r="G102" t="n">
         <v>1</v>
       </c>
-      <c r="H102" t="n">
-        <v>6</v>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I102" t="n">
-        <v>2.474</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="K102" t="n">
-        <v>5.224</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>002251.SZ</t>
+          <t>002564.SZ</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>天沃科技</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5天4板</t>
+          <t>10天6板</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>摘帽+零售+一季报增长+年报扭亏</t>
+          <t>摘帽+高端装备+业绩增长+上海国企改革</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>['国企']</t>
         </is>
       </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
-      <c r="H103" t="n">
-        <v>2</v>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I103" t="n">
-        <v>2.895</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K103" t="n">
-        <v>5.145</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>002094.SZ</t>
+          <t>002427.SZ</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>青岛金王</t>
+          <t>尤夫股份</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>6天5板</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>跨境支付+中韩自贸区+蜡烛</t>
+          <t>拒海水聚酯工业丝+化纤+陕西国资+客户巨力索具</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>['跨境支付']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I104" t="n">
-        <v>2.684</v>
+        <v>2.158</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>4.684</v>
+        <v>2.158</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>002427.SZ</t>
+          <t>003003.SZ</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>尤夫股份</t>
+          <t>天元股份</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>5天4板</t>
+          <t>5天5板</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
+          <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I105" t="n">
-        <v>2.579</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K105" t="n">
-        <v>2.579</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>003003.SZ</t>
+          <t>601956.SH</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>天元股份</t>
+          <t>东贝集团</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>跨境电商+可降解塑料+快递包装</t>
+          <t>人形机器人+蜜雪冰城供应商+跨境电商</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -39311,90 +39571,88 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="K106" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>603086.SH</t>
+          <t>002693.SZ</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>先达股份</t>
+          <t>双成药业</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>11天6板</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>一季报增长+烯草酮+农药+大豆</t>
+          <t>资金博弈激烈+此前拟收购宁波奥拉半导体</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>['一季报增长']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>16</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1.421</v>
       </c>
       <c r="J107" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>2.25</v>
+        <v>1.421</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>300542.SZ</t>
+          <t>603086.SH</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>新晨科技</t>
+          <t>先达股份</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>拟收购天一恩华+跨境支付+华为</t>
+          <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>['跨境支付']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -39409,59 +39667,57 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025年04月23日</t>
+          <t>2025年04月24日</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>002915.SZ</t>
+          <t>002584.SZ</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>中欣氟材</t>
+          <t>西陇科学</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>业绩增长+PEEK材料+氟化工</t>
+          <t>光刻胶+化学试剂+生物医药</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>['业绩增长']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>18</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1.211</v>
       </c>
       <c r="J109" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>1.5</v>
+        <v>1.211</v>
       </c>
     </row>
     <row r="110">
@@ -39472,45 +39728,43 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>600860.SH</t>
+          <t>002537.SZ</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>京城股份</t>
+          <t>海联金汇</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>天工机器人夺冠+京城机电控股股东</t>
+          <t>跨境支付+汽车零部件</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>['机器人']</t>
+          <t>['汽车零部件', '跨境支付']</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H110" t="n">
+        <v>12</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1.842</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>5.592</v>
       </c>
     </row>
     <row r="111">
@@ -39521,31 +39775,31 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>603119.SH</t>
+          <t>600790.SH</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>浙江荣泰</t>
+          <t>轻纺城</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>机器人+战略布局未受关税实质影响+特斯拉供应链</t>
+          <t>跨境电商+纺织面料+国企</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>['机器人']</t>
+          <t>['跨境电商', '国企']</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -39556,135 +39810,137 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>5.25</v>
       </c>
       <c r="K111" t="n">
-        <v>1</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>603128.SH</t>
+          <t>000632.SZ</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>华贸物流</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>6天4板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>跨境电商+敦煌网合作+物流+国企改革</t>
+          <t>跨境电商+创投+福建国企</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>['跨境电商', '国企', '物流', '国企改革']</t>
+          <t>['跨境电商', '国企']</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
-      </c>
-      <c r="H112" t="n">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I112" t="n">
-        <v>1.105</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>6.857</v>
+        <v>5.25</v>
       </c>
       <c r="K112" t="n">
-        <v>7.962</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>600794.SH</t>
+          <t>601008.SH</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>保税科技</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>14天9板</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>智慧物流+数字货币+电子商务+国企</t>
+          <t>港口航运+国企</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>['国企', '物流', '电子商务']</t>
+          <t>['国企']</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I113" t="n">
-        <v>2.263</v>
+        <v>2.474</v>
       </c>
       <c r="J113" t="n">
-        <v>5.286</v>
+        <v>2.75</v>
       </c>
       <c r="K113" t="n">
-        <v>7.549</v>
+        <v>5.224</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>601086.SH</t>
+          <t>002251.SZ</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>国芳集团</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>13天12板</t>
+          <t>5天4板</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>零售+参股券商+参投御道智算+连续涨停+股价创历史新高</t>
+          <t>摘帽+零售+一季报增长+年报扭亏</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -39697,16 +39953,16 @@
         <v>2.895</v>
       </c>
       <c r="J114" t="n">
-        <v>2.143</v>
+        <v>2.25</v>
       </c>
       <c r="K114" t="n">
-        <v>5.038</v>
+        <v>5.145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -39721,12 +39977,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>年报净利增长+跨境支付+中韩自贸区+化妆品</t>
+          <t>跨境支付+中韩自贸区+蜡烛</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -39738,220 +39994,226 @@
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>2.579</v>
+        <v>2.684</v>
       </c>
       <c r="J115" t="n">
-        <v>1.857</v>
+        <v>2</v>
       </c>
       <c r="K115" t="n">
-        <v>4.436</v>
+        <v>4.684</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>603696.SH</t>
+          <t>002427.SZ</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>安记食品</t>
+          <t>尤夫股份</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>6天6板</t>
+          <t>5天4板</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>调味品+新零售+年报增长</t>
+          <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I116" t="n">
-        <v>1.526</v>
+        <v>2.579</v>
       </c>
       <c r="J116" t="n">
-        <v>2.143</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>3.669</v>
+        <v>2.579</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>600571.SH</t>
+          <t>003003.SZ</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>信雅达</t>
+          <t>天元股份</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>跨境支付+金融科技+AI智能体+此前因Pika大涨</t>
+          <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>['跨境支付']</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G117" t="n">
         <v>1</v>
       </c>
-      <c r="H117" t="n">
-        <v>14</v>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I117" t="n">
-        <v>1.632</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1.857</v>
+        <v>2.5</v>
       </c>
       <c r="K117" t="n">
-        <v>3.489</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>002251.SZ</t>
+          <t>603086.SH</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>先达股份</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>4天3板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>摘帽+零售+一季报增长+年报扭亏</t>
+          <t>一季报增长+烯草酮+农药+大豆</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>['一季报增长']</t>
         </is>
       </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
-      <c r="H118" t="n">
-        <v>20</v>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.143</v>
+        <v>2.25</v>
       </c>
       <c r="K118" t="n">
-        <v>3.143</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>000965.SZ</t>
+          <t>300542.SZ</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>天保基建</t>
+          <t>新晨科技</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5天5板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>大飞机+房地产+天津国企</t>
+          <t>拟收购天一恩华+跨境支付+华为</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>['国企']</t>
+          <t>['跨境支付']</t>
         </is>
       </c>
       <c r="G119" t="n">
         <v>1</v>
       </c>
-      <c r="H119" t="n">
-        <v>12</v>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I119" t="n">
-        <v>1.842</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.286</v>
+        <v>2</v>
       </c>
       <c r="K119" t="n">
-        <v>3.128</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>002537.SZ</t>
+          <t>002915.SZ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>海联金汇</t>
+          <t>中欣氟材</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -39961,106 +40223,110 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>跨境支付+汽车零部件</t>
+          <t>业绩增长+PEEK材料+氟化工</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>['跨境支付']</t>
+          <t>['业绩增长']</t>
         </is>
       </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="n">
-        <v>18</v>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I120" t="n">
-        <v>1.211</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.857</v>
+        <v>1.5</v>
       </c>
       <c r="K120" t="n">
-        <v>3.068</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>002165.SZ</t>
+          <t>600860.SH</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>红宝丽</t>
+          <t>京城股份</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>6天5板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>环氧丙烷衍生品+光刻胶+出海</t>
+          <t>天工机器人夺冠+京城机电控股股东</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['机器人']</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025年04月22日</t>
+          <t>2025年04月23日</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>603351.SH</t>
+          <t>603119.SH</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>威尔药业</t>
+          <t>浙江荣泰</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>3天2板</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
+          <t>机器人+战略布局未受关税实质影响+特斯拉供应链</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>['业绩增长']</t>
+          <t>['机器人']</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -40075,10 +40341,10 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>2.714</v>
+        <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>2.714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -40089,45 +40355,43 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>603839.SH</t>
+          <t>603128.SH</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>安正时尚</t>
+          <t>华贸物流</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>6天4板</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>服装+电子商务</t>
+          <t>跨境电商+敦煌网合作+物流+国企改革</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>['电子商务']</t>
+          <t>['跨境电商', '国企', '物流', '国企改革']</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="H123" t="n">
+        <v>19</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1.105</v>
       </c>
       <c r="J123" t="n">
-        <v>2.429</v>
+        <v>6.857</v>
       </c>
       <c r="K123" t="n">
-        <v>2.429</v>
+        <v>7.962</v>
       </c>
     </row>
     <row r="124">
@@ -40138,43 +40402,43 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>002640.SZ</t>
+          <t>600794.SH</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>跨境通</t>
+          <t>保税科技</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>跨境电商+欧美用户</t>
+          <t>智慧物流+数字货币+电子商务+国企</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>['跨境电商']</t>
+          <t>['国企', '物流', '电子商务']</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H124" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I124" t="n">
-        <v>1.421</v>
+        <v>2.263</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>5.286</v>
       </c>
       <c r="K124" t="n">
-        <v>2.421</v>
+        <v>7.549</v>
       </c>
     </row>
     <row r="125">
@@ -40185,43 +40449,43 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>600644.SH</t>
+          <t>601086.SH</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>乐山电力</t>
+          <t>国芳集团</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>7天6板</t>
+          <t>13天12板</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>电力+光储</t>
+          <t>零售+参股券商+参投御道智算+连续涨停+股价创历史新高</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['零售']</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>2.368</v>
+        <v>2.895</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>2.143</v>
       </c>
       <c r="K125" t="n">
-        <v>2.368</v>
+        <v>5.038</v>
       </c>
     </row>
     <row r="126">
@@ -40232,45 +40496,43 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>600865.SH</t>
+          <t>002094.SZ</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>百大集团</t>
+          <t>青岛金王</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>年报净利增长+零售+杭州</t>
+          <t>年报净利增长+跨境支付+中韩自贸区+化妆品</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>['跨境支付']</t>
         </is>
       </c>
       <c r="G126" t="n">
         <v>1</v>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+      <c r="H126" t="n">
+        <v>5</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>2.579</v>
       </c>
       <c r="J126" t="n">
-        <v>2.143</v>
+        <v>1.857</v>
       </c>
       <c r="K126" t="n">
-        <v>2.143</v>
+        <v>4.436</v>
       </c>
     </row>
     <row r="127">
@@ -40281,22 +40543,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>603697.SH</t>
+          <t>603696.SH</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>有友食品</t>
+          <t>安记食品</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>6天6板</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>泡凤爪+新零售+年报增长</t>
+          <t>调味品+新零售+年报增长</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -40307,19 +40569,17 @@
       <c r="G127" t="n">
         <v>1</v>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+      <c r="H127" t="n">
+        <v>15</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1.526</v>
       </c>
       <c r="J127" t="n">
         <v>2.143</v>
       </c>
       <c r="K127" t="n">
-        <v>2.143</v>
+        <v>3.669</v>
       </c>
     </row>
     <row r="128">
@@ -40330,45 +40590,43 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>601008.SH</t>
+          <t>600571.SH</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>信雅达</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>13天8板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>港口航运+国企</t>
+          <t>跨境支付+金融科技+AI智能体+此前因Pika大涨</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>['国企']</t>
+          <t>['跨境支付']</t>
         </is>
       </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+      <c r="H128" t="n">
+        <v>14</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1.632</v>
       </c>
       <c r="J128" t="n">
-        <v>1.286</v>
+        <v>1.857</v>
       </c>
       <c r="K128" t="n">
-        <v>1.286</v>
+        <v>3.489</v>
       </c>
     </row>
     <row r="129">
@@ -40379,45 +40637,43 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>002564.SZ</t>
+          <t>002251.SZ</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>天沃科技</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>8天5板</t>
+          <t>4天3板</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>摘帽+电力设计+高端装备+上海国企</t>
+          <t>摘帽+零售+一季报增长+年报扭亏</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>['国企']</t>
+          <t>['零售']</t>
         </is>
       </c>
       <c r="G129" t="n">
         <v>1</v>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+      <c r="H129" t="n">
+        <v>20</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1.286</v>
+        <v>2.143</v>
       </c>
       <c r="K129" t="n">
-        <v>1.286</v>
+        <v>3.143</v>
       </c>
     </row>
     <row r="130">
@@ -40428,45 +40684,43 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>003003.SZ</t>
+          <t>000965.SZ</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>天元股份</t>
+          <t>天保基建</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>3天3板</t>
+          <t>5天5板</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>跨境电商+可降解塑料+快递包装</t>
+          <t>大飞机+房地产+天津国企</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>['跨境电商']</t>
+          <t>['国企']</t>
         </is>
       </c>
       <c r="G130" t="n">
         <v>1</v>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+      <c r="H130" t="n">
+        <v>12</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1.842</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>1.286</v>
       </c>
       <c r="K130" t="n">
-        <v>1</v>
+        <v>3.128</v>
       </c>
     </row>
     <row r="131">
@@ -40477,12 +40731,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>002095.SZ</t>
+          <t>002537.SZ</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>生意宝</t>
+          <t>海联金汇</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -40492,65 +40746,63 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>跨境电商+数据要素</t>
+          <t>跨境支付+汽车零部件</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>['跨境电商']</t>
+          <t>['跨境支付']</t>
         </is>
       </c>
       <c r="G131" t="n">
         <v>1</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+      <c r="H131" t="n">
+        <v>18</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1.211</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>1.857</v>
       </c>
       <c r="K131" t="n">
-        <v>1</v>
+        <v>3.068</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>601086.SH</t>
+          <t>002165.SZ</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>国芳集团</t>
+          <t>红宝丽</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>12天11板</t>
+          <t>6天5板</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>零售+参股券商+参投御道智算</t>
+          <t>环氧丙烷衍生品+光刻胶+出海</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
@@ -40559,120 +40811,124 @@
         <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>000965.SZ</t>
+          <t>603351.SH</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>天保基建</t>
+          <t>威尔药业</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>4天4板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>房地产+大飞机+天津国企</t>
+          <t>业绩增长+药用辅料+润滑油+国际贸易影响小</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>['国企', '大飞机']</t>
+          <t>['业绩增长']</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
-      </c>
-      <c r="H133" t="n">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I133" t="n">
-        <v>1.105</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>4</v>
+        <v>2.714</v>
       </c>
       <c r="K133" t="n">
-        <v>5.105</v>
+        <v>2.714</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>002251.SZ</t>
+          <t>603839.SH</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>安正时尚</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>摘帽+零售+胖东来帮扶+年报扭亏</t>
+          <t>服装+电子商务</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>['电子商务']</t>
         </is>
       </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
-      <c r="H134" t="n">
-        <v>9</v>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I134" t="n">
-        <v>2.158</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.2</v>
+        <v>2.429</v>
       </c>
       <c r="K134" t="n">
-        <v>4.358</v>
+        <v>2.429</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>600865.SH</t>
+          <t>002640.SZ</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>百大集团</t>
+          <t>跨境通</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -40682,93 +40938,91 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>年报净利增长+零售+杭州</t>
+          <t>跨境电商+欧美用户</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>['年报净利增长', '零售']</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>16</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1.421</v>
       </c>
       <c r="J135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>4</v>
+        <v>2.421</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>605188.SH</t>
+          <t>600644.SH</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>国光连锁</t>
+          <t>乐山电力</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>6天6板</t>
+          <t>7天6板</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>零售+生鲜食品+智能物流</t>
+          <t>电力+光储</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I136" t="n">
-        <v>1.526</v>
+        <v>2.368</v>
       </c>
       <c r="J136" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>3.726</v>
+        <v>2.368</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>600794.SH</t>
+          <t>600865.SH</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>保税科技</t>
+          <t>百大集团</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -40778,59 +41032,61 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>智慧物流+数字货币+电子商务+国企</t>
+          <t>年报净利增长+零售+杭州</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>['国企']</t>
+          <t>['零售']</t>
         </is>
       </c>
       <c r="G137" t="n">
         <v>1</v>
       </c>
-      <c r="H137" t="n">
-        <v>8</v>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I137" t="n">
-        <v>2.263</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1.4</v>
+        <v>2.143</v>
       </c>
       <c r="K137" t="n">
-        <v>3.663</v>
+        <v>2.143</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>603900.SH</t>
+          <t>603697.SH</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>莱绅通灵</t>
+          <t>有友食品</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>黄金+珠宝首饰+IP</t>
+          <t>泡凤爪+新零售+年报增长</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>['黄金']</t>
+          <t>['零售']</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -40845,83 +41101,85 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>3</v>
+        <v>2.143</v>
       </c>
       <c r="K138" t="n">
-        <v>3</v>
+        <v>2.143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>002583.SZ</t>
+          <t>601008.SH</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>海能达</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2天2板</t>
+          <t>13天8板</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>6G+对讲机终端+一带一路</t>
+          <t>港口航运+国企</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['国企']</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I139" t="n">
-        <v>2.895</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>1.286</v>
       </c>
       <c r="K139" t="n">
-        <v>2.895</v>
+        <v>1.286</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>000859.SZ</t>
+          <t>002564.SZ</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>国风新材</t>
+          <t>天沃科技</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>8天5板</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>光刻胶+集成电路PI材料+聚丙烯薄膜+国企</t>
+          <t>摘帽+电力设计+高端装备+上海国企</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -40932,48 +41190,50 @@
       <c r="G140" t="n">
         <v>1</v>
       </c>
-      <c r="H140" t="n">
-        <v>18</v>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I140" t="n">
-        <v>1.211</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1.4</v>
+        <v>1.286</v>
       </c>
       <c r="K140" t="n">
-        <v>2.611</v>
+        <v>1.286</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>001316.SZ</t>
+          <t>003003.SZ</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>润贝航科</t>
+          <t>天元股份</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>3天3板</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>大飞机+航空材料+AI眼镜+低空经济</t>
+          <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>['大飞机']</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -40988,57 +41248,59 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025年04月21日</t>
+          <t>2025年04月22日</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>600644.SH</t>
+          <t>002095.SZ</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>乐山电力</t>
+          <t>生意宝</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>6天5板</t>
+          <t>2天2板</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>电力+光储</t>
+          <t>跨境电商+数据要素</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['跨境电商']</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
-      </c>
-      <c r="H142" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
       </c>
       <c r="I142" t="n">
-        <v>2.579</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>2.579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -41049,22 +41311,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>603237.SH</t>
+          <t>601086.SH</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>五芳斋</t>
+          <t>国芳集团</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>12天11板</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>食品加工制造+新零售+市场拓展</t>
+          <t>零售+参股券商+参投御道智算</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -41075,19 +41337,17 @@
       <c r="G143" t="n">
         <v>1</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+      <c r="H143" t="n">
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="n">
         <v>2.2</v>
       </c>
       <c r="K143" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="144">
@@ -41098,45 +41358,43 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>603696.SH</t>
+          <t>000965.SZ</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>安记食品</t>
+          <t>天保基建</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>5天5板</t>
+          <t>4天4板</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>调味品+新零售</t>
+          <t>房地产+大飞机+天津国企</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>['零售']</t>
+          <t>['国企', '大飞机']</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H144" t="n">
+        <v>19</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1.105</v>
       </c>
       <c r="J144" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="K144" t="n">
-        <v>2.2</v>
+        <v>5.105</v>
       </c>
     </row>
     <row r="145">
@@ -41147,12 +41405,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>600391.SH</t>
+          <t>002251.SZ</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>航发科技</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -41162,30 +41420,28 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>航空发动机+军工+央企+年报净利增长</t>
+          <t>摘帽+零售+胖东来帮扶+年报扭亏</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>['年报净利增长']</t>
+          <t>['零售']</t>
         </is>
       </c>
       <c r="G145" t="n">
         <v>1</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>未上榜</t>
-        </is>
+      <c r="H145" t="n">
+        <v>9</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>2.158</v>
       </c>
       <c r="J145" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K145" t="n">
-        <v>1.8</v>
+        <v>4.358</v>
       </c>
     </row>
     <row r="146">
@@ -41196,12 +41452,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>603042.SH</t>
+          <t>600865.SH</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>华脉科技</t>
+          <t>百大集团</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -41211,16 +41467,16 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>年报净利增长+铜缆高速连接+数据中心+通信设备</t>
+          <t>年报净利增长+零售+杭州</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>['年报净利增长']</t>
+          <t>['年报净利增长', '零售']</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -41231,10 +41487,10 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="K146" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -41245,43 +41501,43 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>002153.SZ</t>
+          <t>605188.SH</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>石基信息</t>
+          <t>国光连锁</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>3天2板</t>
+          <t>6天6板</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>跨境支付+大消费行业信息管理软件+云酒店信息系统+阿里合作</t>
+          <t>零售+生鲜食品+智能物流</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['零售']</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I147" t="n">
-        <v>1.421</v>
+        <v>1.526</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="K147" t="n">
-        <v>1.421</v>
+        <v>3.726</v>
       </c>
     </row>
     <row r="148">
@@ -41292,12 +41548,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>002427.SZ</t>
+          <t>600794.SH</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>尤夫股份</t>
+          <t>保税科技</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -41307,28 +41563,28 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
+          <t>智慧物流+数字货币+电子商务+国企</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['国企']</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I148" t="n">
-        <v>1.316</v>
+        <v>2.263</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K148" t="n">
-        <v>1.316</v>
+        <v>3.663</v>
       </c>
     </row>
     <row r="149">
@@ -41339,44 +41595,573 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
+          <t>603900.SH</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>莱绅通灵</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>黄金+珠宝首饰+IP</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>['黄金']</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3</v>
+      </c>
+      <c r="K149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>002583.SZ</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>海能达</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>6G+对讲机终端+一带一路</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2.895</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000859.SZ</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>国风新材</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>光刻胶+集成电路PI材料+聚丙烯薄膜+国企</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>['国企']</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>18</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2.611</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001316.SZ</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>润贝航科</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>大飞机+航空材料+AI眼镜+低空经济</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>['大飞机']</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>600644.SH</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>乐山电力</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>6天5板</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>电力+光储</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2.579</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>603237.SH</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>五芳斋</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>食品加工制造+新零售+市场拓展</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>603696.SH</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>安记食品</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>5天5板</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>调味品+新零售</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>['零售']</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>600391.SH</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>航发科技</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>航空发动机+军工+央企+年报净利增长</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>['年报净利增长']</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>603042.SH</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华脉科技</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2天2板</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>年报净利增长+铜缆高速连接+数据中心+通信设备</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>['年报净利增长']</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>未上榜</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002153.SZ</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>石基信息</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>3天2板</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>跨境支付+大消费行业信息管理软件+云酒店信息系统+阿里合作</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>16</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.421</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>002427.SZ</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>尤夫股份</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3天3板</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>拒海水聚酯工业丝+客户巨力索具+化纤+陕西国资</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>17</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1.316</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025年04月21日</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
           <t>003003.SZ</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>天元股份</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>2天2板</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>跨境电商+可降解塑料+快递包装</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>['跨境电商']</t>
         </is>
       </c>
-      <c r="G149" t="n">
-        <v>1</v>
-      </c>
-      <c r="H149" t="inlineStr">
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
         <is>
           <t>未上榜</t>
         </is>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>1</v>
-      </c>
-      <c r="K149" t="n">
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
         <v>1</v>
       </c>
     </row>

--- a/excel/limit_up_history.xlsx
+++ b/excel/limit_up_history.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P540"/>
+  <dimension ref="A1:P547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36122,6 +36122,468 @@
         <v>0</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B541" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C541" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D541" s="3" t="inlineStr">
+        <is>
+          <t>1进2</t>
+        </is>
+      </c>
+      <c r="E541" s="3" t="inlineStr">
+        <is>
+          <t>26.92%</t>
+        </is>
+      </c>
+      <c r="F541" s="3" t="inlineStr">
+        <is>
+          <t>61.54%</t>
+        </is>
+      </c>
+      <c r="G541" s="3" t="inlineStr">
+        <is>
+          <t>38.46%</t>
+        </is>
+      </c>
+      <c r="H541" s="3" t="inlineStr">
+        <is>
+          <t>38.89%</t>
+        </is>
+      </c>
+      <c r="I541" s="3" t="inlineStr">
+        <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="J541" s="3" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="K541" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L541" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M541" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N541" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O541" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="P541" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B542" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C542" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D542" s="3" t="inlineStr">
+        <is>
+          <t>2进3</t>
+        </is>
+      </c>
+      <c r="E542" s="3" t="inlineStr">
+        <is>
+          <t>11.11%</t>
+        </is>
+      </c>
+      <c r="F542" s="3" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="G542" s="3" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="H542" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I542" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="J542" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K542" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L542" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M542" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N542" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O542" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P542" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B543" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C543" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D543" s="3" t="inlineStr">
+        <is>
+          <t>3进4</t>
+        </is>
+      </c>
+      <c r="E543" s="3" t="inlineStr">
+        <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="F543" s="3" t="inlineStr">
+        <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="G543" s="3" t="inlineStr">
+        <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="H543" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I543" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="J543" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K543" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L543" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M543" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N543" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O543" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P543" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B544" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C544" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D544" s="3" t="inlineStr">
+        <is>
+          <t>4进5</t>
+        </is>
+      </c>
+      <c r="E544" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F544" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G544" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="H544" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I544" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="J544" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="K544" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L544" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M544" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N544" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O544" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P544" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B545" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C545" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D545" s="3" t="inlineStr">
+        <is>
+          <t>5进6</t>
+        </is>
+      </c>
+      <c r="E545" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F545" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G545" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="H545" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I545" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="J545" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K545" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L545" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M545" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N545" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O545" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P545" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B546" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C546" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D546" s="3" t="inlineStr">
+        <is>
+          <t>7进8</t>
+        </is>
+      </c>
+      <c r="E546" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="F546" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G546" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H546" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I546" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="J546" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K546" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L546" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N546" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O546" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P546" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="3" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B547" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C547" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D547" s="3" t="inlineStr">
+        <is>
+          <t>8进9</t>
+        </is>
+      </c>
+      <c r="E547" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="F547" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G547" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H547" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I547" s="3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="J547" s="3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="K547" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L547" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N547" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O547" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P547" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
